--- a/aeromaps/resources/cost_data/Biomass_Data.xlsx
+++ b/aeromaps/resources/cost_data/Biomass_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E94C87-5EBC-4031-9A92-943A1A0559BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB17BA-9190-4321-87B2-02C6A5FC3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3677,7 +3677,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="605">
+  <cellXfs count="607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5156,6 +5156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7567,8 +7573,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9343,15 +9349,15 @@
       <c r="A57" s="186" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="203">
+      <c r="B57" s="605">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),1)</f>
         <v>2.3297664827195284E-2</v>
       </c>
-      <c r="C57" s="203">
+      <c r="C57" s="605">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),2)</f>
         <v>3.2956967218057166E-2</v>
       </c>
-      <c r="D57" s="203">
+      <c r="D57" s="605">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),3)</f>
         <v>4.3672728520463493E-2</v>
       </c>
@@ -9370,15 +9376,15 @@
       <c r="A58" s="189" t="s">
         <v>588</v>
       </c>
-      <c r="B58" s="204">
+      <c r="B58" s="606">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),1)</f>
         <v>0</v>
       </c>
-      <c r="C58" s="204">
+      <c r="C58" s="606">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),2)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="204">
+      <c r="D58" s="606">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),3)</f>
         <v>4.3630973149787994E-5</v>
       </c>
@@ -10068,8 +10074,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:G50"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14429,8 +14435,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/aeromaps/resources/cost_data/Biomass_Data.xlsx
+++ b/aeromaps/resources/cost_data/Biomass_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB17BA-9190-4321-87B2-02C6A5FC3536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8341E68-C49D-4D0D-B3EE-D14B5BD82C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2616,8 +2616,8 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;????\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;????\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -3677,7 +3677,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="607">
+  <cellXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4531,14 +4531,60 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4565,6 +4611,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4660,6 +4715,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4669,13 +4730,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4686,9 +4750,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4714,13 +4775,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4729,70 +4784,34 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4803,9 +4822,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4838,6 +4854,123 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4888,64 +5021,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4984,23 +5090,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5029,140 +5144,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -7064,125 +7066,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="424" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="D1" s="389" t="s">
+      <c r="B1" s="424"/>
+      <c r="D1" s="425" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
+      <c r="E1" s="425"/>
+      <c r="F1" s="425"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="388"/>
-      <c r="B2" s="388"/>
+      <c r="A2" s="424"/>
+      <c r="B2" s="424"/>
       <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="387" t="s">
+      <c r="E2" s="423" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="387"/>
+      <c r="F2" s="423"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="388"/>
-      <c r="B3" s="388"/>
+      <c r="A3" s="424"/>
+      <c r="B3" s="424"/>
       <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="423" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="387"/>
+      <c r="F3" s="423"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
-      <c r="B4" s="388"/>
+      <c r="A4" s="424"/>
+      <c r="B4" s="424"/>
       <c r="D4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="387" t="s">
+      <c r="E4" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="387"/>
+      <c r="F4" s="423"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
-      <c r="B5" s="388"/>
+      <c r="A5" s="424"/>
+      <c r="B5" s="424"/>
       <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="387" t="s">
+      <c r="E5" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="387"/>
+      <c r="F5" s="423"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="388"/>
-      <c r="B6" s="388"/>
+      <c r="A6" s="424"/>
+      <c r="B6" s="424"/>
       <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="387" t="s">
+      <c r="E6" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="387"/>
+      <c r="F6" s="423"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="388"/>
-      <c r="B7" s="388"/>
+      <c r="A7" s="424"/>
+      <c r="B7" s="424"/>
       <c r="D7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="387" t="s">
+      <c r="E7" s="423" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="387"/>
+      <c r="F7" s="423"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="388"/>
-      <c r="B8" s="388"/>
+      <c r="A8" s="424"/>
+      <c r="B8" s="424"/>
       <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="387" t="s">
+      <c r="E8" s="423" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="387"/>
+      <c r="F8" s="423"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="388"/>
-      <c r="B9" s="388"/>
+      <c r="A9" s="424"/>
+      <c r="B9" s="424"/>
       <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="387" t="s">
+      <c r="E9" s="423" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="387"/>
+      <c r="F9" s="423"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
-      <c r="B10" s="388"/>
+      <c r="A10" s="424"/>
+      <c r="B10" s="424"/>
       <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="387" t="s">
+      <c r="E10" s="423" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="387"/>
+      <c r="F10" s="423"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="388"/>
+      <c r="A11" s="424"/>
+      <c r="B11" s="424"/>
       <c r="D11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="387" t="s">
+      <c r="E11" s="423" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="387"/>
+      <c r="F11" s="423"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -7193,14 +7195,14 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="414" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="391"/>
-      <c r="C13" s="391"/>
-      <c r="D13" s="391"/>
-      <c r="E13" s="391"/>
-      <c r="F13" s="392"/>
+      <c r="B13" s="415"/>
+      <c r="C13" s="415"/>
+      <c r="D13" s="415"/>
+      <c r="E13" s="415"/>
+      <c r="F13" s="416"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -7291,13 +7293,13 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="393" t="s">
+      <c r="A19" s="417" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="394"/>
-      <c r="C19" s="394"/>
-      <c r="D19" s="394"/>
-      <c r="E19" s="395"/>
+      <c r="B19" s="418"/>
+      <c r="C19" s="418"/>
+      <c r="D19" s="418"/>
+      <c r="E19" s="419"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,12 +7342,12 @@
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="396" t="s">
+      <c r="B22" s="420" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="397"/>
-      <c r="D22" s="397"/>
-      <c r="E22" s="398"/>
+      <c r="C22" s="421"/>
+      <c r="D22" s="421"/>
+      <c r="E22" s="422"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7357,13 +7359,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="393" t="s">
+      <c r="A24" s="417" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="394"/>
-      <c r="C24" s="394"/>
-      <c r="D24" s="394"/>
-      <c r="E24" s="395"/>
+      <c r="B24" s="418"/>
+      <c r="C24" s="418"/>
+      <c r="D24" s="418"/>
+      <c r="E24" s="419"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7411,14 +7413,14 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="393" t="s">
+      <c r="A28" s="417" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="394"/>
-      <c r="C28" s="394"/>
-      <c r="D28" s="394"/>
-      <c r="E28" s="394"/>
-      <c r="F28" s="395"/>
+      <c r="B28" s="418"/>
+      <c r="C28" s="418"/>
+      <c r="D28" s="418"/>
+      <c r="E28" s="418"/>
+      <c r="F28" s="419"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -7479,12 +7481,12 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="393" t="s">
+      <c r="A33" s="417" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="394"/>
-      <c r="C33" s="394"/>
-      <c r="D33" s="395"/>
+      <c r="B33" s="418"/>
+      <c r="C33" s="418"/>
+      <c r="D33" s="419"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
@@ -7542,12 +7544,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="B22:E22"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A1:B11"/>
@@ -7560,6 +7556,12 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7573,8 +7575,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:D58"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,65 +7596,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="469" t="s">
+      <c r="A1" s="504" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="470"/>
-      <c r="C1" s="470"/>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
-      <c r="F1" s="470"/>
-      <c r="G1" s="470"/>
-      <c r="H1" s="470"/>
-      <c r="I1" s="470"/>
-      <c r="J1" s="470"/>
-      <c r="K1" s="470"/>
-      <c r="L1" s="471"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="505"/>
+      <c r="J1" s="505"/>
+      <c r="K1" s="505"/>
+      <c r="L1" s="506"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="472"/>
-      <c r="B2" s="473"/>
-      <c r="C2" s="473"/>
-      <c r="D2" s="473"/>
-      <c r="E2" s="473"/>
-      <c r="F2" s="473"/>
-      <c r="G2" s="473"/>
-      <c r="H2" s="473"/>
-      <c r="I2" s="473"/>
-      <c r="J2" s="473"/>
-      <c r="K2" s="473"/>
-      <c r="L2" s="474"/>
+      <c r="A2" s="507"/>
+      <c r="B2" s="508"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
+      <c r="H2" s="508"/>
+      <c r="I2" s="508"/>
+      <c r="J2" s="508"/>
+      <c r="K2" s="508"/>
+      <c r="L2" s="509"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="475" t="s">
+      <c r="A3" s="490" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="477"/>
+      <c r="B3" s="491"/>
+      <c r="C3" s="491"/>
+      <c r="D3" s="491"/>
+      <c r="E3" s="491"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="491"/>
+      <c r="H3" s="491"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="491"/>
+      <c r="K3" s="491"/>
+      <c r="L3" s="492"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="510" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
+      <c r="B4" s="478"/>
+      <c r="C4" s="479"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="478"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
       <c r="H4" s="141"/>
-      <c r="I4" s="478"/>
-      <c r="J4" s="478"/>
-      <c r="K4" s="478"/>
+      <c r="I4" s="511"/>
+      <c r="J4" s="511"/>
+      <c r="K4" s="511"/>
       <c r="L4" s="249" t="s">
         <v>462</v>
       </c>
@@ -7675,7 +7677,7 @@
       <c r="I5" s="211"/>
       <c r="J5" s="211"/>
       <c r="K5" s="211"/>
-      <c r="L5" s="483" t="s">
+      <c r="L5" s="497" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7697,23 +7699,23 @@
       <c r="I6" s="212"/>
       <c r="J6" s="212"/>
       <c r="K6" s="212"/>
-      <c r="L6" s="484"/>
+      <c r="L6" s="498"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="475" t="s">
+      <c r="A7" s="490" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="476"/>
-      <c r="C7" s="476"/>
-      <c r="D7" s="476"/>
-      <c r="E7" s="476"/>
-      <c r="F7" s="476"/>
-      <c r="G7" s="476"/>
-      <c r="H7" s="476"/>
-      <c r="I7" s="476"/>
-      <c r="J7" s="476"/>
-      <c r="K7" s="476"/>
-      <c r="L7" s="477"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
+      <c r="F7" s="491"/>
+      <c r="G7" s="491"/>
+      <c r="H7" s="491"/>
+      <c r="I7" s="491"/>
+      <c r="J7" s="491"/>
+      <c r="K7" s="491"/>
+      <c r="L7" s="492"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -7746,7 +7748,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="479" t="s">
+      <c r="A9" s="493" t="s">
         <v>565</v>
       </c>
       <c r="B9" s="250" t="s">
@@ -7773,7 +7775,7 @@
       <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="480"/>
+      <c r="A10" s="494"/>
       <c r="B10" s="151" t="s">
         <v>203</v>
       </c>
@@ -7808,22 +7810,22 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="485" t="s">
+      <c r="A11" s="499" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="486"/>
-      <c r="C11" s="487">
+      <c r="B11" s="500"/>
+      <c r="C11" s="501">
         <v>86.8</v>
       </c>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="502"/>
+      <c r="E11" s="503"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="487">
+      <c r="G11" s="501">
         <f>C11*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H11" s="488"/>
-      <c r="I11" s="489"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="503"/>
       <c r="J11" s="141"/>
       <c r="K11" s="141"/>
       <c r="L11" s="167" t="s">
@@ -7831,20 +7833,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="475" t="s">
+      <c r="A12" s="490" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="476"/>
-      <c r="C12" s="476"/>
-      <c r="D12" s="476"/>
-      <c r="E12" s="476"/>
-      <c r="F12" s="476"/>
-      <c r="G12" s="476"/>
-      <c r="H12" s="476"/>
-      <c r="I12" s="476"/>
-      <c r="J12" s="476"/>
-      <c r="K12" s="476"/>
-      <c r="L12" s="477"/>
+      <c r="B12" s="491"/>
+      <c r="C12" s="491"/>
+      <c r="D12" s="491"/>
+      <c r="E12" s="491"/>
+      <c r="F12" s="491"/>
+      <c r="G12" s="491"/>
+      <c r="H12" s="491"/>
+      <c r="I12" s="491"/>
+      <c r="J12" s="491"/>
+      <c r="K12" s="491"/>
+      <c r="L12" s="492"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="246" t="s">
@@ -7887,20 +7889,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="475" t="s">
+      <c r="A15" s="490" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="476"/>
-      <c r="C15" s="476"/>
-      <c r="D15" s="476"/>
-      <c r="E15" s="476"/>
-      <c r="F15" s="476"/>
-      <c r="G15" s="476"/>
-      <c r="H15" s="476"/>
-      <c r="I15" s="476"/>
-      <c r="J15" s="476"/>
-      <c r="K15" s="476"/>
-      <c r="L15" s="477"/>
+      <c r="B15" s="491"/>
+      <c r="C15" s="491"/>
+      <c r="D15" s="491"/>
+      <c r="E15" s="491"/>
+      <c r="F15" s="491"/>
+      <c r="G15" s="491"/>
+      <c r="H15" s="491"/>
+      <c r="I15" s="491"/>
+      <c r="J15" s="491"/>
+      <c r="K15" s="491"/>
+      <c r="L15" s="492"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="246" t="s">
@@ -8042,20 +8044,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="481" t="s">
+      <c r="A21" s="495" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="476"/>
-      <c r="C21" s="476"/>
-      <c r="D21" s="476"/>
-      <c r="E21" s="476"/>
-      <c r="F21" s="476"/>
-      <c r="G21" s="476"/>
-      <c r="H21" s="476"/>
-      <c r="I21" s="476"/>
-      <c r="J21" s="476"/>
-      <c r="K21" s="476"/>
-      <c r="L21" s="482"/>
+      <c r="B21" s="491"/>
+      <c r="C21" s="491"/>
+      <c r="D21" s="491"/>
+      <c r="E21" s="491"/>
+      <c r="F21" s="491"/>
+      <c r="G21" s="491"/>
+      <c r="H21" s="491"/>
+      <c r="I21" s="491"/>
+      <c r="J21" s="491"/>
+      <c r="K21" s="491"/>
+      <c r="L21" s="496"/>
     </row>
     <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -8082,7 +8084,7 @@
       <c r="H22" s="180" t="s">
         <v>500</v>
       </c>
-      <c r="I22" s="585" t="s">
+      <c r="I22" s="404" t="s">
         <v>847</v>
       </c>
       <c r="J22" s="201"/>
@@ -8124,9 +8126,9 @@
         <f>Biomass_Cost!C10</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I23" s="555">
-        <f>D23/$B$6/35.3</f>
-        <v>4.6907745447905234E-2</v>
+      <c r="I23" s="607">
+        <f>D23*$B$6/35.3</f>
+        <v>9.9256789367767502E-3</v>
       </c>
       <c r="J23" s="141"/>
       <c r="K23" s="141"/>
@@ -8168,9 +8170,9 @@
         <f>Biomass_Cost!C11</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I24" s="555">
-        <f t="shared" ref="I24:I45" si="0">D24/$B$6/35.3</f>
-        <v>1.99492710525574E-2</v>
+      <c r="I24" s="607">
+        <f>D24*$B$6/35.3</f>
+        <v>4.2212657547211459E-3</v>
       </c>
       <c r="J24" s="141"/>
       <c r="K24" s="141"/>
@@ -8212,8 +8214,8 @@
         <f>Biomass_Cost!C12</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I25" s="555">
-        <f t="shared" si="0"/>
+      <c r="I25" s="607">
+        <f t="shared" ref="I25:I30" si="0">D25*$B$6/35.3</f>
         <v>0</v>
       </c>
       <c r="J25" s="141"/>
@@ -8256,7 +8258,7 @@
         <f>Biomass_Cost!C13</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I26" s="555">
+      <c r="I26" s="607">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8300,9 +8302,9 @@
         <f>Biomass_Cost!C14</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I27" s="555">
+      <c r="I27" s="607">
         <f t="shared" si="0"/>
-        <v>4.0437711593021751E-2</v>
+        <v>8.5566197730834043E-3</v>
       </c>
       <c r="J27" s="141"/>
       <c r="K27" s="141"/>
@@ -8344,9 +8346,9 @@
         <f>Biomass_Cost!C53</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I28" s="555">
+      <c r="I28" s="607">
         <f t="shared" si="0"/>
-        <v>4.3630973149787994E-5</v>
+        <v>9.2323139184951403E-6</v>
       </c>
       <c r="J28" s="141"/>
       <c r="K28" s="141"/>
@@ -8388,9 +8390,9 @@
         <f>Biomass_Cost!C54</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I29" s="555">
+      <c r="I29" s="607">
         <f t="shared" si="0"/>
-        <v>2.6646058601833167E-2</v>
+        <v>5.6383060001478982E-3</v>
       </c>
       <c r="J29" s="141"/>
       <c r="K29" s="141"/>
@@ -8432,9 +8434,9 @@
         <f>Biomass_Cost!C55</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I30" s="555">
+      <c r="I30" s="607">
         <f t="shared" si="0"/>
-        <v>3.2956967218057166E-2</v>
+        <v>6.9736942633408976E-3</v>
       </c>
       <c r="J30" s="141"/>
       <c r="K30" s="141"/>
@@ -8473,7 +8475,7 @@
         <f>Biomass_Cost!C62</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I31" s="555" t="s">
+      <c r="I31" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J31" s="141"/>
@@ -8513,7 +8515,7 @@
         <f>Biomass_Cost!C63</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I32" s="555" t="s">
+      <c r="I32" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J32" s="141"/>
@@ -8553,7 +8555,7 @@
         <f>Biomass_Cost!C64</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I33" s="555" t="s">
+      <c r="I33" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J33" s="141"/>
@@ -8593,7 +8595,7 @@
         <f>Biomass_Cost!C65</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I34" s="555" t="s">
+      <c r="I34" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J34" s="141"/>
@@ -8633,7 +8635,7 @@
         <f>Biomass_Cost!C66</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I35" s="555" t="s">
+      <c r="I35" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J35" s="141"/>
@@ -8673,7 +8675,7 @@
         <f>Biomass_Cost!C67</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I36" s="555" t="s">
+      <c r="I36" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J36" s="141"/>
@@ -8713,7 +8715,7 @@
         <f>Biomass_Cost!C68</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I37" s="555" t="s">
+      <c r="I37" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J37" s="141"/>
@@ -8753,7 +8755,7 @@
         <f>Biomass_Cost!C69</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I38" s="555" t="s">
+      <c r="I38" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J38" s="141"/>
@@ -8793,7 +8795,7 @@
         <f>Biomass_Cost!C70</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I39" s="555" t="s">
+      <c r="I39" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J39" s="141"/>
@@ -8833,7 +8835,7 @@
         <f>Biomass_Cost!C71</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I40" s="555" t="s">
+      <c r="I40" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J40" s="141"/>
@@ -8873,7 +8875,7 @@
         <f>Biomass_Cost!C72</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I41" s="555" t="s">
+      <c r="I41" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J41" s="141"/>
@@ -8913,7 +8915,7 @@
         <f>Biomass_Cost!C73</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I42" s="555" t="s">
+      <c r="I42" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J42" s="141"/>
@@ -8953,7 +8955,7 @@
         <f>Biomass_Cost!C74</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I43" s="555" t="s">
+      <c r="I43" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J43" s="141"/>
@@ -8993,7 +8995,7 @@
         <f>Biomass_Cost!C75</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I44" s="555" t="s">
+      <c r="I44" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J44" s="141"/>
@@ -9033,7 +9035,7 @@
         <f>Biomass_Cost!C76</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I45" s="586" t="s">
+      <c r="I45" s="608" t="s">
         <v>482</v>
       </c>
       <c r="J45" s="142"/>
@@ -9044,17 +9046,17 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="450" t="s">
+      <c r="A46" s="510" t="s">
         <v>501</v>
       </c>
-      <c r="B46" s="451"/>
-      <c r="C46" s="451"/>
-      <c r="D46" s="452"/>
-      <c r="E46" s="437" t="s">
+      <c r="B46" s="478"/>
+      <c r="C46" s="478"/>
+      <c r="D46" s="479"/>
+      <c r="E46" s="467" t="s">
         <v>502</v>
       </c>
-      <c r="F46" s="438"/>
-      <c r="G46" s="453"/>
+      <c r="F46" s="468"/>
+      <c r="G46" s="512"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -9109,16 +9111,16 @@
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,1)</f>
         <v>1180363.0780797016</v>
       </c>
-      <c r="F48" s="583">
+      <c r="F48" s="402">
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,2)</f>
         <v>1663828.6791558466</v>
       </c>
-      <c r="G48" s="583">
+      <c r="G48" s="402">
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,3)</f>
         <v>2748207.2958534299</v>
       </c>
       <c r="H48" s="141"/>
-      <c r="I48" s="582"/>
+      <c r="I48" s="401"/>
       <c r="J48" s="141"/>
       <c r="K48" s="141"/>
       <c r="L48" s="222"/>
@@ -9139,7 +9141,7 @@
         <f>_xlfn.QUARTILE.EXC((E24,E27,E30:E33,E36:E40,E43),3)</f>
         <v>1.4172270363951474</v>
       </c>
-      <c r="E49" s="581">
+      <c r="E49" s="400">
         <f>_xlfn.QUARTILE.EXC(($F24,$F27,$F30:$F33,$F36:$F40,$F43),1)</f>
         <v>1169512.0108316932</v>
       </c>
@@ -9151,8 +9153,8 @@
         <f>_xlfn.QUARTILE.EXC(($F24,$F27,$F30:$F33,$F36:$F40,$F43),3)</f>
         <v>3310399.7827109178</v>
       </c>
-      <c r="H49" s="582"/>
-      <c r="I49" s="582"/>
+      <c r="H49" s="401"/>
+      <c r="I49" s="401"/>
       <c r="J49" s="141"/>
       <c r="K49" s="141"/>
       <c r="L49" s="222"/>
@@ -9173,7 +9175,7 @@
         <f>_xlfn.QUARTILE.EXC((E23,E29,E34:E35,E41:E42,E44:E45),3)</f>
         <v>1.7641393801435821</v>
       </c>
-      <c r="E50" s="581">
+      <c r="E50" s="400">
         <f>_xlfn.QUARTILE.EXC(($F23,$F29,$F34:$F35,$F41:$F42,$F44:$F45),1)</f>
         <v>1254872.8058120161</v>
       </c>
@@ -9185,8 +9187,8 @@
         <f>_xlfn.QUARTILE.EXC(($F23,$F29,$F34:$F35,$F41:$F42,$F44:$F45),3)</f>
         <v>1934451.4161269781</v>
       </c>
-      <c r="H50" s="582"/>
-      <c r="I50" s="582"/>
+      <c r="H50" s="401"/>
+      <c r="I50" s="401"/>
       <c r="J50" s="141"/>
       <c r="K50" s="141"/>
       <c r="L50" s="222"/>
@@ -9207,7 +9209,7 @@
         <f>+_xlfn.QUARTILE.EXC(($E$23:$E$24,$E$27,$E$29:$E$45),3)</f>
         <v>1.4233622183708838</v>
       </c>
-      <c r="E51" s="581">
+      <c r="E51" s="400">
         <f>+_xlfn.QUARTILE.EXC(($F$23:$F$24,$F$27,$F$29:$F$45),1)</f>
         <v>1180363.0780797016</v>
       </c>
@@ -9219,10 +9221,10 @@
         <f>+_xlfn.QUARTILE.EXC(($F$23:$F$24,$F$27,$F$29:$F$45),3)</f>
         <v>2665920.5017278306</v>
       </c>
-      <c r="H51" s="575" t="s">
+      <c r="H51" s="486" t="s">
         <v>844</v>
       </c>
-      <c r="I51" s="576"/>
+      <c r="I51" s="487"/>
       <c r="J51" s="141"/>
       <c r="K51" s="141"/>
       <c r="L51" s="222"/>
@@ -9243,7 +9245,7 @@
         <f>_xlfn.QUARTILE.EXC((E25:E26,E28),3)</f>
         <v>1.369794975454808</v>
       </c>
-      <c r="E52" s="584">
+      <c r="E52" s="403">
         <f>_xlfn.QUARTILE.EXC(($F25:$F26,$F28),1)</f>
         <v>1180363.0780797016</v>
       </c>
@@ -9255,22 +9257,22 @@
         <f>_xlfn.QUARTILE.EXC(($F25:$F26,$F28),3)</f>
         <v>3041714.1896710731</v>
       </c>
-      <c r="H52" s="578"/>
-      <c r="I52" s="579"/>
+      <c r="H52" s="488"/>
+      <c r="I52" s="489"/>
       <c r="J52" s="141"/>
       <c r="K52" s="141"/>
       <c r="L52" s="222"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="511" t="s">
+      <c r="A53" s="527" t="s">
         <v>841</v>
       </c>
-      <c r="B53" s="510"/>
-      <c r="C53" s="510"/>
-      <c r="D53" s="512"/>
-      <c r="E53" s="571"/>
-      <c r="F53" s="572"/>
-      <c r="G53" s="573"/>
+      <c r="B53" s="528"/>
+      <c r="C53" s="528"/>
+      <c r="D53" s="529"/>
+      <c r="E53" s="396"/>
+      <c r="F53" s="397"/>
+      <c r="G53" s="398"/>
       <c r="H53" s="141"/>
       <c r="I53" s="141"/>
       <c r="J53" s="141"/>
@@ -9293,11 +9295,11 @@
         <f>+_xlfn.QUARTILE.EXC(($C$23:$C$24,$C$27,$C$29:$C$45),3)</f>
         <v>0.49028191209945715</v>
       </c>
-      <c r="E54" s="562" t="s">
+      <c r="E54" s="480" t="s">
         <v>842</v>
       </c>
-      <c r="F54" s="563"/>
-      <c r="G54" s="564"/>
+      <c r="F54" s="481"/>
+      <c r="G54" s="482"/>
       <c r="H54" s="141"/>
       <c r="I54" s="141"/>
       <c r="J54" s="141"/>
@@ -9320,9 +9322,9 @@
         <f>_xlfn.QUARTILE.EXC((C25:C26,C28),3)</f>
         <v>0.2976711609175276</v>
       </c>
-      <c r="E55" s="568"/>
-      <c r="F55" s="569"/>
-      <c r="G55" s="570"/>
+      <c r="E55" s="483"/>
+      <c r="F55" s="484"/>
+      <c r="G55" s="485"/>
       <c r="H55" s="141"/>
       <c r="I55" s="141"/>
       <c r="J55" s="141"/>
@@ -9330,15 +9332,15 @@
       <c r="L55" s="222"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="460" t="s">
+      <c r="A56" s="477" t="s">
         <v>849</v>
       </c>
-      <c r="B56" s="451"/>
-      <c r="C56" s="451"/>
-      <c r="D56" s="452"/>
-      <c r="E56" s="561"/>
-      <c r="F56" s="553"/>
-      <c r="G56" s="554"/>
+      <c r="B56" s="478"/>
+      <c r="C56" s="478"/>
+      <c r="D56" s="479"/>
+      <c r="E56" s="395"/>
+      <c r="F56" s="387"/>
+      <c r="G56" s="388"/>
       <c r="H56" s="141"/>
       <c r="I56" s="141"/>
       <c r="J56" s="141"/>
@@ -9349,23 +9351,23 @@
       <c r="A57" s="186" t="s">
         <v>846</v>
       </c>
-      <c r="B57" s="605">
+      <c r="B57" s="412">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),1)</f>
-        <v>2.3297664827195284E-2</v>
-      </c>
-      <c r="C57" s="605">
+        <v>4.9297858774345216E-3</v>
+      </c>
+      <c r="C57" s="412">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),2)</f>
-        <v>3.2956967218057166E-2</v>
-      </c>
-      <c r="D57" s="605">
+        <v>6.9736942633408976E-3</v>
+      </c>
+      <c r="D57" s="412">
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),3)</f>
-        <v>4.3672728520463493E-2</v>
-      </c>
-      <c r="E57" s="562" t="s">
+        <v>9.2411493549300772E-3</v>
+      </c>
+      <c r="E57" s="480" t="s">
         <v>843</v>
       </c>
-      <c r="F57" s="563"/>
-      <c r="G57" s="564"/>
+      <c r="F57" s="481"/>
+      <c r="G57" s="482"/>
       <c r="H57" s="141"/>
       <c r="I57" s="141"/>
       <c r="J57" s="141"/>
@@ -9376,21 +9378,21 @@
       <c r="A58" s="189" t="s">
         <v>588</v>
       </c>
-      <c r="B58" s="606">
+      <c r="B58" s="413">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),1)</f>
         <v>0</v>
       </c>
-      <c r="C58" s="606">
+      <c r="C58" s="413">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),2)</f>
         <v>0</v>
       </c>
-      <c r="D58" s="606">
+      <c r="D58" s="413">
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),3)</f>
-        <v>4.3630973149787994E-5</v>
-      </c>
-      <c r="E58" s="568"/>
-      <c r="F58" s="569"/>
-      <c r="G58" s="570"/>
+        <v>9.2323139184951403E-6</v>
+      </c>
+      <c r="E58" s="483"/>
+      <c r="F58" s="484"/>
+      <c r="G58" s="485"/>
       <c r="H58" s="141"/>
       <c r="I58" s="141"/>
       <c r="J58" s="141"/>
@@ -9398,20 +9400,20 @@
       <c r="L58" s="222"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="464" t="s">
+      <c r="A59" s="522" t="s">
         <v>491</v>
       </c>
-      <c r="B59" s="465"/>
-      <c r="C59" s="465"/>
-      <c r="D59" s="465"/>
-      <c r="E59" s="465"/>
-      <c r="F59" s="465"/>
-      <c r="G59" s="465"/>
-      <c r="H59" s="465"/>
-      <c r="I59" s="465"/>
-      <c r="J59" s="465"/>
-      <c r="K59" s="465"/>
-      <c r="L59" s="466"/>
+      <c r="B59" s="523"/>
+      <c r="C59" s="523"/>
+      <c r="D59" s="523"/>
+      <c r="E59" s="523"/>
+      <c r="F59" s="523"/>
+      <c r="G59" s="523"/>
+      <c r="H59" s="523"/>
+      <c r="I59" s="523"/>
+      <c r="J59" s="523"/>
+      <c r="K59" s="523"/>
+      <c r="L59" s="524"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="225" t="s">
@@ -9433,10 +9435,10 @@
       <c r="L60" s="231"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="467" t="s">
+      <c r="A61" s="525" t="s">
         <v>531</v>
       </c>
-      <c r="B61" s="468"/>
+      <c r="B61" s="526"/>
       <c r="C61" s="141"/>
       <c r="D61" s="141"/>
       <c r="E61" s="141"/>
@@ -9451,26 +9453,26 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="226"/>
       <c r="B62" s="154"/>
-      <c r="C62" s="460" t="s">
+      <c r="C62" s="477" t="s">
         <v>529</v>
       </c>
-      <c r="D62" s="451"/>
-      <c r="E62" s="451"/>
-      <c r="F62" s="437" t="s">
+      <c r="D62" s="478"/>
+      <c r="E62" s="478"/>
+      <c r="F62" s="467" t="s">
         <v>609</v>
       </c>
-      <c r="G62" s="438"/>
-      <c r="H62" s="438"/>
+      <c r="G62" s="468"/>
+      <c r="H62" s="468"/>
       <c r="I62" s="141"/>
       <c r="J62" s="141"/>
       <c r="K62" s="141"/>
       <c r="L62" s="222"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="463" t="s">
+      <c r="A63" s="521" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="395"/>
+      <c r="B63" s="419"/>
       <c r="C63" s="14" t="s">
         <v>588</v>
       </c>
@@ -9495,7 +9497,7 @@
       <c r="L63" s="222"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="461" t="s">
+      <c r="A64" s="519" t="s">
         <v>591</v>
       </c>
       <c r="B64" s="210" t="s">
@@ -9525,7 +9527,7 @@
       <c r="L64" s="222"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="462"/>
+      <c r="A65" s="520"/>
       <c r="B65" s="147" t="s">
         <v>595</v>
       </c>
@@ -9559,7 +9561,7 @@
       <c r="L65" s="222"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="462"/>
+      <c r="A66" s="520"/>
       <c r="B66" s="147" t="s">
         <v>596</v>
       </c>
@@ -9587,7 +9589,7 @@
       <c r="L66" s="222"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="462" t="s">
+      <c r="A67" s="520" t="s">
         <v>592</v>
       </c>
       <c r="B67" s="210" t="s">
@@ -9617,7 +9619,7 @@
       <c r="L67" s="222"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="462"/>
+      <c r="A68" s="520"/>
       <c r="B68" s="147" t="s">
         <v>595</v>
       </c>
@@ -9651,7 +9653,7 @@
       <c r="L68" s="222"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="462"/>
+      <c r="A69" s="520"/>
       <c r="B69" s="147" t="s">
         <v>596</v>
       </c>
@@ -9679,7 +9681,7 @@
       <c r="L69" s="222"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="462" t="s">
+      <c r="A70" s="520" t="s">
         <v>593</v>
       </c>
       <c r="B70" s="210" t="s">
@@ -9709,7 +9711,7 @@
       <c r="L70" s="222"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="462"/>
+      <c r="A71" s="520"/>
       <c r="B71" s="147" t="s">
         <v>595</v>
       </c>
@@ -9743,7 +9745,7 @@
       <c r="L71" s="222"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="462"/>
+      <c r="A72" s="520"/>
       <c r="B72" s="147" t="s">
         <v>596</v>
       </c>
@@ -9801,7 +9803,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G78" s="454" t="s">
+      <c r="G78" s="513" t="s">
         <v>104</v>
       </c>
       <c r="H78" s="257" t="s">
@@ -9821,7 +9823,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G79" s="455"/>
+      <c r="G79" s="514"/>
       <c r="H79" s="257" t="s">
         <v>36</v>
       </c>
@@ -9839,7 +9841,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G80" s="456"/>
+      <c r="G80" s="515"/>
       <c r="H80" s="277" t="s">
         <v>37</v>
       </c>
@@ -9857,7 +9859,7 @@
       </c>
     </row>
     <row r="81" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G81" s="457" t="s">
+      <c r="G81" s="516" t="s">
         <v>1</v>
       </c>
       <c r="H81" s="257" t="s">
@@ -9877,7 +9879,7 @@
       </c>
     </row>
     <row r="82" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G82" s="458"/>
+      <c r="G82" s="517"/>
       <c r="H82" s="257" t="s">
         <v>36</v>
       </c>
@@ -9895,7 +9897,7 @@
       </c>
     </row>
     <row r="83" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G83" s="459"/>
+      <c r="G83" s="518"/>
       <c r="H83" s="277" t="s">
         <v>37</v>
       </c>
@@ -9913,7 +9915,7 @@
       </c>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G84" s="457" t="s">
+      <c r="G84" s="516" t="s">
         <v>0</v>
       </c>
       <c r="H84" s="257" t="s">
@@ -9933,7 +9935,7 @@
       </c>
     </row>
     <row r="85" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G85" s="458"/>
+      <c r="G85" s="517"/>
       <c r="H85" s="257" t="s">
         <v>36</v>
       </c>
@@ -9951,7 +9953,7 @@
       </c>
     </row>
     <row r="86" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="458"/>
+      <c r="G86" s="517"/>
       <c r="H86" s="277" t="s">
         <v>37</v>
       </c>
@@ -9969,7 +9971,7 @@
       </c>
     </row>
     <row r="87" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G87" s="406" t="s">
+      <c r="G87" s="433" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="257" t="s">
@@ -9989,7 +9991,7 @@
       </c>
     </row>
     <row r="88" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G88" s="406"/>
+      <c r="G88" s="433"/>
       <c r="H88" s="257" t="s">
         <v>36</v>
       </c>
@@ -10007,7 +10009,7 @@
       </c>
     </row>
     <row r="89" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="409"/>
+      <c r="G89" s="436"/>
       <c r="H89" s="277" t="s">
         <v>37</v>
       </c>
@@ -10026,23 +10028,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
     <mergeCell ref="G87:G89"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="A46:D46"/>
@@ -10059,6 +10044,23 @@
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="E54:G55"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A15:L15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10075,7 +10077,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10095,69 +10097,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="546" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="494"/>
-      <c r="C1" s="494"/>
-      <c r="D1" s="494"/>
-      <c r="E1" s="494"/>
-      <c r="F1" s="494"/>
-      <c r="G1" s="494"/>
-      <c r="H1" s="494"/>
-      <c r="I1" s="494"/>
-      <c r="J1" s="494"/>
-      <c r="K1" s="494"/>
-      <c r="L1" s="495"/>
+      <c r="B1" s="547"/>
+      <c r="C1" s="547"/>
+      <c r="D1" s="547"/>
+      <c r="E1" s="547"/>
+      <c r="F1" s="547"/>
+      <c r="G1" s="547"/>
+      <c r="H1" s="547"/>
+      <c r="I1" s="547"/>
+      <c r="J1" s="547"/>
+      <c r="K1" s="547"/>
+      <c r="L1" s="548"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="496"/>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="497"/>
-      <c r="J2" s="497"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="498"/>
+      <c r="A2" s="549"/>
+      <c r="B2" s="550"/>
+      <c r="C2" s="550"/>
+      <c r="D2" s="550"/>
+      <c r="E2" s="550"/>
+      <c r="F2" s="550"/>
+      <c r="G2" s="550"/>
+      <c r="H2" s="550"/>
+      <c r="I2" s="550"/>
+      <c r="J2" s="550"/>
+      <c r="K2" s="550"/>
+      <c r="L2" s="551"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="556" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
-      <c r="J3" s="504"/>
-      <c r="K3" s="504"/>
-      <c r="L3" s="505"/>
+      <c r="B3" s="557"/>
+      <c r="C3" s="557"/>
+      <c r="D3" s="557"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="557"/>
+      <c r="G3" s="557"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="557"/>
+      <c r="J3" s="557"/>
+      <c r="K3" s="557"/>
+      <c r="L3" s="558"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="450" t="s">
+      <c r="A4" s="510" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="451"/>
-      <c r="C4" s="452"/>
+      <c r="B4" s="478"/>
+      <c r="C4" s="479"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="460" t="s">
+      <c r="E4" s="477" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="G4" s="452"/>
+      <c r="F4" s="478"/>
+      <c r="G4" s="479"/>
       <c r="H4" s="138"/>
-      <c r="I4" s="460" t="s">
+      <c r="I4" s="477" t="s">
         <v>424</v>
       </c>
-      <c r="J4" s="451"/>
-      <c r="K4" s="452"/>
+      <c r="J4" s="478"/>
+      <c r="K4" s="479"/>
       <c r="L4" s="162" t="s">
         <v>462</v>
       </c>
@@ -10192,7 +10194,7 @@
       <c r="K5" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="L5" s="483" t="s">
+      <c r="L5" s="497" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10226,23 +10228,23 @@
       <c r="K6" s="140">
         <v>0.11</v>
       </c>
-      <c r="L6" s="501"/>
+      <c r="L6" s="554"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="506" t="s">
+      <c r="A7" s="538" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="507"/>
-      <c r="C7" s="507"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="507"/>
-      <c r="F7" s="507"/>
-      <c r="G7" s="507"/>
-      <c r="H7" s="507"/>
-      <c r="I7" s="507"/>
-      <c r="J7" s="507"/>
-      <c r="K7" s="507"/>
-      <c r="L7" s="508"/>
+      <c r="B7" s="539"/>
+      <c r="C7" s="539"/>
+      <c r="D7" s="539"/>
+      <c r="E7" s="539"/>
+      <c r="F7" s="539"/>
+      <c r="G7" s="539"/>
+      <c r="H7" s="539"/>
+      <c r="I7" s="539"/>
+      <c r="J7" s="539"/>
+      <c r="K7" s="539"/>
+      <c r="L7" s="540"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -10275,7 +10277,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="499" t="s">
+      <c r="A9" s="552" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="153" t="s">
@@ -10310,7 +10312,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="500"/>
+      <c r="A10" s="553"/>
       <c r="B10" s="153" t="s">
         <v>205</v>
       </c>
@@ -10343,22 +10345,22 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="485" t="s">
+      <c r="A11" s="499" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="502"/>
-      <c r="C11" s="487">
+      <c r="B11" s="555"/>
+      <c r="C11" s="501">
         <v>86.8</v>
       </c>
-      <c r="D11" s="488"/>
-      <c r="E11" s="489"/>
+      <c r="D11" s="502"/>
+      <c r="E11" s="503"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="487">
+      <c r="G11" s="501">
         <f>C11*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H11" s="488"/>
-      <c r="I11" s="489"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="503"/>
       <c r="J11" s="141"/>
       <c r="K11" s="141"/>
       <c r="L11" s="167" t="s">
@@ -10366,20 +10368,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="506" t="s">
+      <c r="A12" s="538" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="507"/>
-      <c r="C12" s="507"/>
-      <c r="D12" s="507"/>
-      <c r="E12" s="507"/>
-      <c r="F12" s="507"/>
-      <c r="G12" s="507"/>
-      <c r="H12" s="507"/>
-      <c r="I12" s="507"/>
-      <c r="J12" s="507"/>
-      <c r="K12" s="507"/>
-      <c r="L12" s="508"/>
+      <c r="B12" s="539"/>
+      <c r="C12" s="539"/>
+      <c r="D12" s="539"/>
+      <c r="E12" s="539"/>
+      <c r="F12" s="539"/>
+      <c r="G12" s="539"/>
+      <c r="H12" s="539"/>
+      <c r="I12" s="539"/>
+      <c r="J12" s="539"/>
+      <c r="K12" s="539"/>
+      <c r="L12" s="540"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="168" t="s">
@@ -10424,20 +10426,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="506" t="s">
+      <c r="A15" s="538" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="507"/>
-      <c r="C15" s="507"/>
-      <c r="D15" s="507"/>
-      <c r="E15" s="507"/>
-      <c r="F15" s="507"/>
-      <c r="G15" s="507"/>
-      <c r="H15" s="507"/>
-      <c r="I15" s="507"/>
-      <c r="J15" s="507"/>
-      <c r="K15" s="507"/>
-      <c r="L15" s="508"/>
+      <c r="B15" s="539"/>
+      <c r="C15" s="539"/>
+      <c r="D15" s="539"/>
+      <c r="E15" s="539"/>
+      <c r="F15" s="539"/>
+      <c r="G15" s="539"/>
+      <c r="H15" s="539"/>
+      <c r="I15" s="539"/>
+      <c r="J15" s="539"/>
+      <c r="K15" s="539"/>
+      <c r="L15" s="540"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="168" t="s">
@@ -10527,20 +10529,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="506" t="s">
+      <c r="A19" s="538" t="s">
         <v>473</v>
       </c>
-      <c r="B19" s="507"/>
-      <c r="C19" s="507"/>
-      <c r="D19" s="507"/>
-      <c r="E19" s="507"/>
-      <c r="F19" s="507"/>
-      <c r="G19" s="507"/>
-      <c r="H19" s="507"/>
-      <c r="I19" s="507"/>
-      <c r="J19" s="507"/>
-      <c r="K19" s="507"/>
-      <c r="L19" s="508"/>
+      <c r="B19" s="539"/>
+      <c r="C19" s="539"/>
+      <c r="D19" s="539"/>
+      <c r="E19" s="539"/>
+      <c r="F19" s="539"/>
+      <c r="G19" s="539"/>
+      <c r="H19" s="539"/>
+      <c r="I19" s="539"/>
+      <c r="J19" s="539"/>
+      <c r="K19" s="539"/>
+      <c r="L19" s="540"/>
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="168" t="s">
@@ -10567,7 +10569,7 @@
       <c r="H20" s="180" t="s">
         <v>500</v>
       </c>
-      <c r="I20" s="585" t="s">
+      <c r="I20" s="404" t="s">
         <v>847</v>
       </c>
       <c r="J20" s="201"/>
@@ -10609,9 +10611,9 @@
         <f>Biomass_Cost!C2</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I21" s="556">
-        <f>D21/$F$6/35.3</f>
-        <v>2.4238119251817285E-2</v>
+      <c r="I21" s="390">
+        <f>D21*$F$6/35.3</f>
+        <v>1.8769999548607304E-2</v>
       </c>
       <c r="J21" s="141"/>
       <c r="K21" s="141"/>
@@ -10653,9 +10655,9 @@
         <f>Biomass_Cost!C3</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I22" s="556">
-        <f t="shared" ref="I22:I23" si="0">D22/$F$6/35.3</f>
-        <v>1.6346638565179095E-2</v>
+      <c r="I22" s="390">
+        <f>D22*$F$6/35.3</f>
+        <v>1.2658836904874692E-2</v>
       </c>
       <c r="J22" s="141"/>
       <c r="K22" s="141"/>
@@ -10697,9 +10699,9 @@
         <f>Biomass_Cost!C4</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I23" s="556">
-        <f>D23/$F$6/35.3</f>
-        <v>2.0574217504449554E-2</v>
+      <c r="I23" s="390">
+        <f>D23*$F$6/35.3</f>
+        <v>1.5932674035445734E-2</v>
       </c>
       <c r="J23" s="141"/>
       <c r="K23" s="141"/>
@@ -10741,9 +10743,9 @@
         <f>Biomass_Cost!C5</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I24" s="556">
-        <f>D24/($F$6*$B$6)/35.3</f>
-        <v>3.6297394933130188E-2</v>
+      <c r="I24" s="390">
+        <f>D24*($F$6*$B$6)/35.3</f>
+        <v>1.2244150868335696E-2</v>
       </c>
       <c r="J24" s="141"/>
       <c r="K24" s="141"/>
@@ -10785,9 +10787,9 @@
         <f>Biomass_Cost!C6</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I25" s="556">
-        <f t="shared" ref="I25:I27" si="1">D25/($F$6*$B$6)/35.3</f>
-        <v>8.8394832366564077E-2</v>
+      <c r="I25" s="390">
+        <f t="shared" ref="I25:I26" si="0">D25*($F$6*$B$6)/35.3</f>
+        <v>2.9818108585241043E-2</v>
       </c>
       <c r="J25" s="141"/>
       <c r="K25" s="141"/>
@@ -10829,9 +10831,9 @@
         <f>Biomass_Cost!C7</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I26" s="556">
-        <f t="shared" si="1"/>
-        <v>4.4410930271123993E-2</v>
+      <c r="I26" s="390">
+        <f t="shared" si="0"/>
+        <v>1.4981078709493088E-2</v>
       </c>
       <c r="J26" s="141"/>
       <c r="K26" s="141"/>
@@ -10873,9 +10875,9 @@
         <f>Biomass_Cost!C8</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I27" s="556">
-        <f t="shared" si="1"/>
-        <v>6.7897479933737639E-2</v>
+      <c r="I27" s="390">
+        <f>D27*($F$6*$B$6)/35.3</f>
+        <v>2.2903764565475007E-2</v>
       </c>
       <c r="J27" s="141"/>
       <c r="K27" s="141"/>
@@ -10916,9 +10918,9 @@
         <f>Biomass_Cost!C9</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I28" s="556">
-        <f>D28/$F$6/35.3</f>
-        <v>1.5501122777325009E-2</v>
+      <c r="I28" s="390">
+        <f>D28*$F$6/35.3</f>
+        <v>1.2004069478760487E-2</v>
       </c>
       <c r="J28" s="141"/>
       <c r="K28" s="141"/>
@@ -10960,9 +10962,9 @@
         <f>Biomass_Cost!C49</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I29" s="556">
-        <f>D29/($F$6*$B$6)/35.3</f>
-        <v>3.2766693419863657E-2</v>
+      <c r="I29" s="390">
+        <f>D29*($F$6*$B$6)/35.3</f>
+        <v>1.1053144128619557E-2</v>
       </c>
       <c r="J29" s="141"/>
       <c r="K29" s="141"/>
@@ -11004,9 +11006,9 @@
         <f>Biomass_Cost!C50</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I30" s="556">
-        <f t="shared" ref="I30:I31" si="2">D30/($F$6*$B$6)/35.3</f>
-        <v>2.7768384254121762E-2</v>
+      <c r="I30" s="390">
+        <f t="shared" ref="I30:I32" si="1">D30*($F$6*$B$6)/35.3</f>
+        <v>9.3670712954403088E-3</v>
       </c>
       <c r="J30" s="141"/>
       <c r="K30" s="141"/>
@@ -11048,9 +11050,9 @@
         <f>Biomass_Cost!C51</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I31" s="556">
-        <f t="shared" si="2"/>
-        <v>2.6102281198874436E-2</v>
+      <c r="I31" s="390">
+        <f t="shared" si="1"/>
+        <v>8.8050470177138823E-3</v>
       </c>
       <c r="J31" s="141"/>
       <c r="K31" s="141"/>
@@ -11092,9 +11094,9 @@
         <f>Biomass_Cost!C52</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I32" s="556">
-        <f>D32/$F$6/35.3</f>
-        <v>1.5028249558330677E-2</v>
+      <c r="I32" s="390">
+        <f t="shared" si="1"/>
+        <v>7.6809984622610425E-3</v>
       </c>
       <c r="J32" s="141"/>
       <c r="K32" s="141"/>
@@ -11133,7 +11135,7 @@
         <f>Biomass_Cost!C77</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I33" s="556" t="s">
+      <c r="I33" s="390" t="s">
         <v>482</v>
       </c>
       <c r="J33" s="141"/>
@@ -11173,7 +11175,7 @@
         <f>Biomass_Cost!C78</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I34" s="556" t="s">
+      <c r="I34" s="390" t="s">
         <v>482</v>
       </c>
       <c r="J34" s="141"/>
@@ -11213,7 +11215,7 @@
         <f>Biomass_Cost!C79</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I35" s="556" t="s">
+      <c r="I35" s="390" t="s">
         <v>482</v>
       </c>
       <c r="J35" s="141"/>
@@ -11253,7 +11255,7 @@
         <f>Biomass_Cost!C80</f>
         <v>HEFA-Energy</v>
       </c>
-      <c r="I36" s="556" t="s">
+      <c r="I36" s="390" t="s">
         <v>482</v>
       </c>
       <c r="J36" s="141"/>
@@ -11293,7 +11295,7 @@
         <f>Biomass_Cost!C81</f>
         <v>HEFA-Waste</v>
       </c>
-      <c r="I37" s="580" t="s">
+      <c r="I37" s="399" t="s">
         <v>482</v>
       </c>
       <c r="J37" s="142"/>
@@ -11304,17 +11306,17 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="509" t="s">
+      <c r="A38" s="536" t="s">
         <v>501</v>
       </c>
-      <c r="B38" s="510"/>
-      <c r="C38" s="510"/>
-      <c r="D38" s="512"/>
-      <c r="E38" s="417" t="s">
+      <c r="B38" s="528"/>
+      <c r="C38" s="528"/>
+      <c r="D38" s="529"/>
+      <c r="E38" s="444" t="s">
         <v>502</v>
       </c>
-      <c r="F38" s="418"/>
-      <c r="G38" s="516"/>
+      <c r="F38" s="445"/>
+      <c r="G38" s="537"/>
       <c r="H38" s="141"/>
       <c r="I38" s="141"/>
       <c r="J38" s="141"/>
@@ -11377,10 +11379,10 @@
         <f>_xlfn.QUARTILE.EXC($F21:$F37,3)</f>
         <v>654132.08380023192</v>
       </c>
-      <c r="H40" s="575" t="s">
+      <c r="H40" s="486" t="s">
         <v>844</v>
       </c>
-      <c r="I40" s="576"/>
+      <c r="I40" s="487"/>
       <c r="J40" s="141"/>
       <c r="K40" s="141"/>
       <c r="L40" s="222"/>
@@ -11413,8 +11415,8 @@
         <f>_xlfn.QUARTILE.EXC(($F24:$F27,$F29:$F31,$F33:$F36),3)</f>
         <v>654132.08380023192</v>
       </c>
-      <c r="H41" s="574"/>
-      <c r="I41" s="577"/>
+      <c r="H41" s="541"/>
+      <c r="I41" s="542"/>
       <c r="J41" s="141"/>
       <c r="K41" s="141"/>
       <c r="L41" s="222"/>
@@ -11447,22 +11449,22 @@
         <f>_xlfn.QUARTILE.EXC(($F21:$F23,$F28,$F37,$F32),3)</f>
         <v>654132.08380023192</v>
       </c>
-      <c r="H42" s="578"/>
-      <c r="I42" s="579"/>
+      <c r="H42" s="488"/>
+      <c r="I42" s="489"/>
       <c r="J42" s="141"/>
       <c r="K42" s="141"/>
       <c r="L42" s="222"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="511" t="s">
+      <c r="A43" s="527" t="s">
         <v>841</v>
       </c>
-      <c r="B43" s="510"/>
-      <c r="C43" s="510"/>
-      <c r="D43" s="512"/>
-      <c r="E43" s="571"/>
-      <c r="F43" s="572"/>
-      <c r="G43" s="573"/>
+      <c r="B43" s="528"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="529"/>
+      <c r="E43" s="396"/>
+      <c r="F43" s="397"/>
+      <c r="G43" s="398"/>
       <c r="H43" s="141"/>
       <c r="I43" s="141"/>
       <c r="J43" s="141"/>
@@ -11485,11 +11487,11 @@
         <f>_xlfn.QUARTILE.EXC($C21:$C37,3)</f>
         <v>0.16634564874803009</v>
       </c>
-      <c r="E44" s="562" t="s">
+      <c r="E44" s="480" t="s">
         <v>842</v>
       </c>
-      <c r="F44" s="563"/>
-      <c r="G44" s="564"/>
+      <c r="F44" s="481"/>
+      <c r="G44" s="482"/>
       <c r="H44" s="141"/>
       <c r="I44" s="141"/>
       <c r="J44" s="141"/>
@@ -11512,9 +11514,9 @@
         <f>_xlfn.QUARTILE.EXC(($C24:$C27,$C29:$C31,$C33:$C36),3)</f>
         <v>0.1488355804587638</v>
       </c>
-      <c r="E45" s="565"/>
-      <c r="F45" s="566"/>
-      <c r="G45" s="567"/>
+      <c r="E45" s="530"/>
+      <c r="F45" s="531"/>
+      <c r="G45" s="532"/>
       <c r="H45" s="141"/>
       <c r="I45" s="141"/>
       <c r="J45" s="141"/>
@@ -11537,9 +11539,9 @@
         <f>_xlfn.QUARTILE.EXC(($C21:$C23,$C28,$C32,$C37),3)</f>
         <v>0.19698826825424617</v>
       </c>
-      <c r="E46" s="568"/>
-      <c r="F46" s="569"/>
-      <c r="G46" s="570"/>
+      <c r="E46" s="483"/>
+      <c r="F46" s="484"/>
+      <c r="G46" s="485"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -11547,15 +11549,15 @@
       <c r="L46" s="222"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="460" t="s">
+      <c r="A47" s="477" t="s">
         <v>848</v>
       </c>
-      <c r="B47" s="451"/>
-      <c r="C47" s="451"/>
-      <c r="D47" s="452"/>
-      <c r="E47" s="561"/>
-      <c r="F47" s="553"/>
-      <c r="G47" s="554"/>
+      <c r="B47" s="478"/>
+      <c r="C47" s="478"/>
+      <c r="D47" s="479"/>
+      <c r="E47" s="395"/>
+      <c r="F47" s="387"/>
+      <c r="G47" s="388"/>
       <c r="H47" s="141"/>
       <c r="I47" s="141"/>
       <c r="J47" s="141"/>
@@ -11566,23 +11568,23 @@
       <c r="A48" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="557">
+      <c r="B48" s="391">
         <f>_xlfn.QUARTILE.EXC($I21:$I37,1)</f>
-        <v>1.740353329999671E-2</v>
-      </c>
-      <c r="C48" s="557">
+        <v>9.7885895037351199E-3</v>
+      </c>
+      <c r="C48" s="391">
         <f>_xlfn.QUARTILE.EXC($I21:$I37,2)</f>
-        <v>2.6935332726498097E-2</v>
-      </c>
-      <c r="D48" s="558">
+        <v>1.2451493886605193E-2</v>
+      </c>
+      <c r="D48" s="392">
         <f>_xlfn.QUARTILE.EXC($I21:$I37,3)</f>
-        <v>4.2382546436625541E-2</v>
-      </c>
-      <c r="E48" s="562" t="s">
+        <v>1.8060668170316912E-2</v>
+      </c>
+      <c r="E48" s="480" t="s">
         <v>843</v>
       </c>
-      <c r="F48" s="563"/>
-      <c r="G48" s="564"/>
+      <c r="F48" s="481"/>
+      <c r="G48" s="482"/>
       <c r="H48" s="141"/>
       <c r="I48" s="141"/>
       <c r="J48" s="141"/>
@@ -11593,21 +11595,21 @@
       <c r="A49" s="186" t="s">
         <v>796</v>
       </c>
-      <c r="B49" s="557">
+      <c r="B49" s="391">
         <f>_xlfn.QUARTILE.EXC(($I24:$I27,$I29:$I31,$I33:$I36),1)</f>
-        <v>2.7768384254121762E-2</v>
-      </c>
-      <c r="C49" s="557">
+        <v>9.3670712954403088E-3</v>
+      </c>
+      <c r="C49" s="391">
         <f>_xlfn.QUARTILE.EXC(($I24:$I27,$I29:$I31,$I33:$I36),2)</f>
-        <v>3.6297394933130188E-2</v>
-      </c>
-      <c r="D49" s="558">
+        <v>1.2244150868335696E-2</v>
+      </c>
+      <c r="D49" s="392">
         <f>_xlfn.QUARTILE.EXC(($I24:$I27,$I29:$I31,$I33:$I36),3)</f>
-        <v>6.7897479933737639E-2</v>
-      </c>
-      <c r="E49" s="565"/>
-      <c r="F49" s="566"/>
-      <c r="G49" s="567"/>
+        <v>2.2903764565475007E-2</v>
+      </c>
+      <c r="E49" s="530"/>
+      <c r="F49" s="531"/>
+      <c r="G49" s="532"/>
       <c r="H49" s="141"/>
       <c r="I49" s="141"/>
       <c r="J49" s="141"/>
@@ -11618,21 +11620,21 @@
       <c r="A50" s="189" t="s">
         <v>532</v>
       </c>
-      <c r="B50" s="559">
+      <c r="B50" s="393">
         <f>_xlfn.QUARTILE.EXC(($I21:$I23,$I28,$I32,$I37),1)</f>
-        <v>1.5264686167827843E-2</v>
-      </c>
-      <c r="C50" s="559">
+        <v>9.8425339705107643E-3</v>
+      </c>
+      <c r="C50" s="393">
         <f>_xlfn.QUARTILE.EXC(($I21:$I23,$I28,$I32,$I37),2)</f>
-        <v>1.6346638565179095E-2</v>
-      </c>
-      <c r="D50" s="560">
+        <v>1.2658836904874692E-2</v>
+      </c>
+      <c r="D50" s="394">
         <f>_xlfn.QUARTILE.EXC(($I21:$I23,$I28,$I32,$I37),3)</f>
-        <v>2.2406168378133418E-2</v>
-      </c>
-      <c r="E50" s="568"/>
-      <c r="F50" s="569"/>
-      <c r="G50" s="570"/>
+        <v>1.7351336792026519E-2</v>
+      </c>
+      <c r="E50" s="483"/>
+      <c r="F50" s="484"/>
+      <c r="G50" s="485"/>
       <c r="H50" s="141"/>
       <c r="I50" s="141"/>
       <c r="J50" s="141"/>
@@ -11640,20 +11642,20 @@
       <c r="L50" s="222"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="513" t="s">
+      <c r="A51" s="533" t="s">
         <v>491</v>
       </c>
-      <c r="B51" s="514"/>
-      <c r="C51" s="514"/>
-      <c r="D51" s="514"/>
-      <c r="E51" s="514"/>
-      <c r="F51" s="514"/>
-      <c r="G51" s="514"/>
-      <c r="H51" s="514"/>
-      <c r="I51" s="514"/>
-      <c r="J51" s="514"/>
-      <c r="K51" s="514"/>
-      <c r="L51" s="515"/>
+      <c r="B51" s="534"/>
+      <c r="C51" s="534"/>
+      <c r="D51" s="534"/>
+      <c r="E51" s="534"/>
+      <c r="F51" s="534"/>
+      <c r="G51" s="534"/>
+      <c r="H51" s="534"/>
+      <c r="I51" s="534"/>
+      <c r="J51" s="534"/>
+      <c r="K51" s="534"/>
+      <c r="L51" s="535"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="225" t="s">
@@ -11675,10 +11677,10 @@
       <c r="L52" s="231"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="467" t="s">
+      <c r="A53" s="525" t="s">
         <v>531</v>
       </c>
-      <c r="B53" s="468"/>
+      <c r="B53" s="526"/>
       <c r="C53" s="141"/>
       <c r="D53" s="141"/>
       <c r="E53" s="141"/>
@@ -11693,15 +11695,15 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="226"/>
       <c r="B54" s="154"/>
-      <c r="C54" s="511" t="s">
+      <c r="C54" s="527" t="s">
         <v>810</v>
       </c>
-      <c r="D54" s="510"/>
-      <c r="E54" s="512"/>
-      <c r="F54" s="417" t="s">
+      <c r="D54" s="528"/>
+      <c r="E54" s="529"/>
+      <c r="F54" s="444" t="s">
         <v>605</v>
       </c>
-      <c r="G54" s="419"/>
+      <c r="G54" s="446"/>
       <c r="H54" s="235"/>
       <c r="I54" s="141"/>
       <c r="J54" s="141"/>
@@ -11709,10 +11711,10 @@
       <c r="L54" s="222"/>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="509" t="s">
+      <c r="A55" s="536" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="510"/>
+      <c r="B55" s="528"/>
       <c r="C55" s="290" t="s">
         <v>533</v>
       </c>
@@ -12055,7 +12057,7 @@
       <c r="D68" s="294"/>
       <c r="E68" s="294"/>
       <c r="F68" s="295"/>
-      <c r="H68" s="490" t="s">
+      <c r="H68" s="543" t="s">
         <v>795</v>
       </c>
       <c r="I68" s="257" t="s">
@@ -12082,7 +12084,7 @@
       <c r="D69" s="141"/>
       <c r="E69" s="141"/>
       <c r="F69" s="222"/>
-      <c r="H69" s="491"/>
+      <c r="H69" s="544"/>
       <c r="I69" s="257" t="s">
         <v>36</v>
       </c>
@@ -12107,7 +12109,7 @@
       <c r="D70" s="233"/>
       <c r="E70" s="233"/>
       <c r="F70" s="234"/>
-      <c r="H70" s="492"/>
+      <c r="H70" s="545"/>
       <c r="I70" s="189" t="s">
         <v>37</v>
       </c>
@@ -12162,17 +12164,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E48:G50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E44:G46"/>
-    <mergeCell ref="H40:I42"/>
     <mergeCell ref="H68:H70"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="A1:L2"/>
@@ -12189,6 +12180,17 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C54:E54"/>
+    <mergeCell ref="E48:G50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H40:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14435,8 +14437,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14456,65 +14458,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="517" t="s">
+      <c r="A1" s="582" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="518"/>
-      <c r="C1" s="518"/>
-      <c r="D1" s="518"/>
-      <c r="E1" s="518"/>
-      <c r="F1" s="518"/>
-      <c r="G1" s="518"/>
-      <c r="H1" s="518"/>
-      <c r="I1" s="518"/>
-      <c r="J1" s="518"/>
-      <c r="K1" s="518"/>
-      <c r="L1" s="519"/>
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="583"/>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
+      <c r="K1" s="583"/>
+      <c r="L1" s="584"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="520"/>
-      <c r="B2" s="521"/>
-      <c r="C2" s="521"/>
-      <c r="D2" s="521"/>
-      <c r="E2" s="521"/>
-      <c r="F2" s="521"/>
-      <c r="G2" s="521"/>
-      <c r="H2" s="521"/>
-      <c r="I2" s="521"/>
-      <c r="J2" s="521"/>
-      <c r="K2" s="521"/>
-      <c r="L2" s="522"/>
+      <c r="A2" s="585"/>
+      <c r="B2" s="586"/>
+      <c r="C2" s="586"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="586"/>
+      <c r="F2" s="586"/>
+      <c r="G2" s="586"/>
+      <c r="H2" s="586"/>
+      <c r="I2" s="586"/>
+      <c r="J2" s="586"/>
+      <c r="K2" s="586"/>
+      <c r="L2" s="587"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="523" t="s">
+      <c r="A3" s="588" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="524"/>
-      <c r="C3" s="524"/>
-      <c r="D3" s="524"/>
-      <c r="E3" s="524"/>
-      <c r="F3" s="524"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="524"/>
-      <c r="I3" s="524"/>
-      <c r="J3" s="524"/>
-      <c r="K3" s="524"/>
-      <c r="L3" s="525"/>
+      <c r="B3" s="589"/>
+      <c r="C3" s="589"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="589"/>
+      <c r="F3" s="589"/>
+      <c r="G3" s="589"/>
+      <c r="H3" s="589"/>
+      <c r="I3" s="589"/>
+      <c r="J3" s="589"/>
+      <c r="K3" s="589"/>
+      <c r="L3" s="590"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="521" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="394"/>
-      <c r="C4" s="395"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="419"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="478"/>
-      <c r="F4" s="478"/>
-      <c r="G4" s="478"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
       <c r="H4" s="141"/>
-      <c r="I4" s="478"/>
-      <c r="J4" s="478"/>
-      <c r="K4" s="478"/>
+      <c r="I4" s="511"/>
+      <c r="J4" s="511"/>
+      <c r="K4" s="511"/>
       <c r="L4" s="239" t="s">
         <v>462</v>
       </c>
@@ -14537,7 +14539,7 @@
       <c r="I5" s="211"/>
       <c r="J5" s="211"/>
       <c r="K5" s="211"/>
-      <c r="L5" s="483" t="s">
+      <c r="L5" s="497" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14559,23 +14561,23 @@
       <c r="I6" s="212"/>
       <c r="J6" s="212"/>
       <c r="K6" s="212"/>
-      <c r="L6" s="484"/>
+      <c r="L6" s="498"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="530" t="s">
+      <c r="A7" s="574" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="531"/>
-      <c r="C7" s="531"/>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
-      <c r="F7" s="531"/>
-      <c r="G7" s="531"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
-      <c r="J7" s="531"/>
-      <c r="K7" s="531"/>
-      <c r="L7" s="532"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="575"/>
+      <c r="E7" s="575"/>
+      <c r="F7" s="575"/>
+      <c r="G7" s="575"/>
+      <c r="H7" s="575"/>
+      <c r="I7" s="575"/>
+      <c r="J7" s="575"/>
+      <c r="K7" s="575"/>
+      <c r="L7" s="576"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -14645,22 +14647,22 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="485" t="s">
+      <c r="A10" s="499" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="486"/>
-      <c r="C10" s="487">
+      <c r="B10" s="500"/>
+      <c r="C10" s="501">
         <v>86.8</v>
       </c>
-      <c r="D10" s="488"/>
-      <c r="E10" s="489"/>
+      <c r="D10" s="502"/>
+      <c r="E10" s="503"/>
       <c r="F10" s="145"/>
-      <c r="G10" s="487">
+      <c r="G10" s="501">
         <f>C10*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H10" s="488"/>
-      <c r="I10" s="489"/>
+      <c r="H10" s="502"/>
+      <c r="I10" s="503"/>
       <c r="J10" s="141"/>
       <c r="K10" s="141"/>
       <c r="L10" s="167" t="s">
@@ -14668,20 +14670,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="530" t="s">
+      <c r="A11" s="574" t="s">
         <v>468</v>
       </c>
-      <c r="B11" s="531"/>
-      <c r="C11" s="531"/>
-      <c r="D11" s="531"/>
-      <c r="E11" s="531"/>
-      <c r="F11" s="531"/>
-      <c r="G11" s="531"/>
-      <c r="H11" s="531"/>
-      <c r="I11" s="531"/>
-      <c r="J11" s="531"/>
-      <c r="K11" s="531"/>
-      <c r="L11" s="532"/>
+      <c r="B11" s="575"/>
+      <c r="C11" s="575"/>
+      <c r="D11" s="575"/>
+      <c r="E11" s="575"/>
+      <c r="F11" s="575"/>
+      <c r="G11" s="575"/>
+      <c r="H11" s="575"/>
+      <c r="I11" s="575"/>
+      <c r="J11" s="575"/>
+      <c r="K11" s="575"/>
+      <c r="L11" s="576"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="246" t="s">
@@ -14724,20 +14726,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="533" t="s">
+      <c r="A14" s="577" t="s">
         <v>469</v>
       </c>
-      <c r="B14" s="534"/>
-      <c r="C14" s="534"/>
-      <c r="D14" s="534"/>
-      <c r="E14" s="534"/>
-      <c r="F14" s="534"/>
-      <c r="G14" s="534"/>
-      <c r="H14" s="534"/>
-      <c r="I14" s="534"/>
-      <c r="J14" s="534"/>
-      <c r="K14" s="534"/>
-      <c r="L14" s="535"/>
+      <c r="B14" s="578"/>
+      <c r="C14" s="578"/>
+      <c r="D14" s="578"/>
+      <c r="E14" s="578"/>
+      <c r="F14" s="578"/>
+      <c r="G14" s="578"/>
+      <c r="H14" s="578"/>
+      <c r="I14" s="578"/>
+      <c r="J14" s="578"/>
+      <c r="K14" s="578"/>
+      <c r="L14" s="579"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="168" t="s">
@@ -14801,20 +14803,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="536" t="s">
+      <c r="A17" s="580" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="531"/>
-      <c r="C17" s="531"/>
-      <c r="D17" s="531"/>
-      <c r="E17" s="531"/>
-      <c r="F17" s="531"/>
-      <c r="G17" s="531"/>
-      <c r="H17" s="531"/>
-      <c r="I17" s="531"/>
-      <c r="J17" s="531"/>
-      <c r="K17" s="531"/>
-      <c r="L17" s="537"/>
+      <c r="B17" s="575"/>
+      <c r="C17" s="575"/>
+      <c r="D17" s="575"/>
+      <c r="E17" s="575"/>
+      <c r="F17" s="575"/>
+      <c r="G17" s="575"/>
+      <c r="H17" s="575"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="575"/>
+      <c r="K17" s="575"/>
+      <c r="L17" s="581"/>
     </row>
     <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="168" t="s">
@@ -14841,7 +14843,7 @@
       <c r="H18" s="180" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="585" t="s">
+      <c r="I18" s="404" t="s">
         <v>847</v>
       </c>
       <c r="J18" s="201"/>
@@ -14882,9 +14884,9 @@
       <c r="H19" s="214" t="s">
         <v>561</v>
       </c>
-      <c r="I19" s="589">
-        <f>D19/$B$6/35.3</f>
-        <v>5.7354154276102527E-2</v>
+      <c r="I19" s="606">
+        <f>D19*$B$6/35.3</f>
+        <v>1.3214397145214022E-2</v>
       </c>
       <c r="J19" s="141"/>
       <c r="K19" s="141"/>
@@ -14924,9 +14926,9 @@
       <c r="H20" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I20" s="555">
-        <f t="shared" ref="I20:I34" si="0">D20/$B$6/35.3</f>
-        <v>6.3554603387032532E-2</v>
+      <c r="I20" s="607">
+        <f>D20*$B$6/35.3</f>
+        <v>1.4642980620372295E-2</v>
       </c>
       <c r="J20" s="141"/>
       <c r="K20" s="141"/>
@@ -14966,9 +14968,9 @@
       <c r="H21" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I21" s="555">
-        <f t="shared" si="0"/>
-        <v>7.1305164775695026E-2</v>
+      <c r="I21" s="607">
+        <f t="shared" ref="I21:I26" si="0">D21*$B$6/35.3</f>
+        <v>1.6428709964320134E-2</v>
       </c>
       <c r="J21" s="141"/>
       <c r="K21" s="141"/>
@@ -15008,9 +15010,9 @@
       <c r="H22" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I22" s="555">
+      <c r="I22" s="607">
         <f t="shared" si="0"/>
-        <v>7.1305164775695026E-2</v>
+        <v>1.6428709964320134E-2</v>
       </c>
       <c r="J22" s="141"/>
       <c r="K22" s="141"/>
@@ -15051,9 +15053,9 @@
       <c r="H23" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I23" s="555">
+      <c r="I23" s="607">
         <f t="shared" si="0"/>
-        <v>5.3220521535482526E-2</v>
+        <v>1.2262008161775173E-2</v>
       </c>
       <c r="J23" s="141"/>
       <c r="K23" s="141"/>
@@ -15094,9 +15096,9 @@
       <c r="H24" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I24" s="555">
+      <c r="I24" s="607">
         <f t="shared" si="0"/>
-        <v>4.3919847869087522E-2</v>
+        <v>1.0119132949037764E-2</v>
       </c>
       <c r="J24" s="141"/>
       <c r="K24" s="141"/>
@@ -15137,9 +15139,9 @@
       <c r="H25" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I25" s="555">
+      <c r="I25" s="607">
         <f t="shared" si="0"/>
-        <v>4.2369735591355012E-2</v>
+        <v>9.761987080248195E-3</v>
       </c>
       <c r="J25" s="141"/>
       <c r="K25" s="141"/>
@@ -15180,9 +15182,9 @@
       <c r="H26" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I26" s="555">
+      <c r="I26" s="607">
         <f t="shared" si="0"/>
-        <v>2.841872509176252E-2</v>
+        <v>6.5476742611420835E-3</v>
       </c>
       <c r="J26" s="141"/>
       <c r="K26" s="141"/>
@@ -15223,7 +15225,7 @@
       <c r="H27" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I27" s="555" t="s">
+      <c r="I27" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J27" s="141"/>
@@ -15265,7 +15267,7 @@
       <c r="H28" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I28" s="555" t="s">
+      <c r="I28" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J28" s="141"/>
@@ -15307,7 +15309,7 @@
       <c r="H29" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I29" s="555" t="s">
+      <c r="I29" s="607" t="s">
         <v>482</v>
       </c>
       <c r="J29" s="141"/>
@@ -15349,9 +15351,9 @@
       <c r="H30" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I30" s="555">
-        <f t="shared" si="0"/>
-        <v>4.8570184702285024E-2</v>
+      <c r="I30" s="607">
+        <f>D30*$B$6/35.3</f>
+        <v>1.1190570555406469E-2</v>
       </c>
       <c r="J30" s="141"/>
       <c r="K30" s="141"/>
@@ -15392,9 +15394,9 @@
       <c r="H31" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I31" s="555">
-        <f t="shared" si="0"/>
-        <v>3.3599744947487145E-2</v>
+      <c r="I31" s="607">
+        <f t="shared" ref="I31:I34" si="1">D31*$B$6/35.3</f>
+        <v>7.7413812359010369E-3</v>
       </c>
       <c r="J31" s="141"/>
       <c r="K31" s="141"/>
@@ -15435,9 +15437,9 @@
       <c r="H32" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I32" s="555">
-        <f t="shared" si="0"/>
-        <v>4.4351663330682772E-2</v>
+      <c r="I32" s="607">
+        <f t="shared" si="1"/>
+        <v>1.021862323138931E-2</v>
       </c>
       <c r="J32" s="141"/>
       <c r="K32" s="141"/>
@@ -15478,9 +15480,9 @@
       <c r="H33" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I33" s="555">
-        <f t="shared" si="0"/>
-        <v>2.2847826564290817E-2</v>
+      <c r="I33" s="607">
+        <f t="shared" si="1"/>
+        <v>5.2641392404126032E-3</v>
       </c>
       <c r="J33" s="141"/>
       <c r="K33" s="141"/>
@@ -15521,9 +15523,9 @@
       <c r="H34" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I34" s="555">
-        <f t="shared" si="0"/>
-        <v>2.8223785755888835E-2</v>
+      <c r="I34" s="607">
+        <f t="shared" si="1"/>
+        <v>6.5027602381567875E-3</v>
       </c>
       <c r="J34" s="141"/>
       <c r="K34" s="141"/>
@@ -15561,7 +15563,7 @@
       <c r="H35" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I35" s="555" t="s">
+      <c r="I35" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J35" s="141"/>
@@ -15600,7 +15602,7 @@
       <c r="H36" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I36" s="555" t="s">
+      <c r="I36" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J36" s="141"/>
@@ -15639,7 +15641,7 @@
       <c r="H37" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I37" s="555" t="s">
+      <c r="I37" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J37" s="141"/>
@@ -15678,7 +15680,7 @@
       <c r="H38" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I38" s="555" t="s">
+      <c r="I38" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J38" s="141"/>
@@ -15717,7 +15719,7 @@
       <c r="H39" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I39" s="555" t="s">
+      <c r="I39" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J39" s="141"/>
@@ -15756,7 +15758,7 @@
       <c r="H40" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I40" s="555" t="s">
+      <c r="I40" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J40" s="141"/>
@@ -15795,7 +15797,7 @@
       <c r="H41" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I41" s="555" t="s">
+      <c r="I41" s="389" t="s">
         <v>482</v>
       </c>
       <c r="J41" s="141"/>
@@ -15834,7 +15836,7 @@
       <c r="H42" s="216" t="s">
         <v>561</v>
       </c>
-      <c r="I42" s="586" t="s">
+      <c r="I42" s="405" t="s">
         <v>482</v>
       </c>
       <c r="J42" s="142"/>
@@ -15845,17 +15847,17 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="463" t="s">
+      <c r="A43" s="521" t="s">
         <v>501</v>
       </c>
-      <c r="B43" s="394"/>
-      <c r="C43" s="394"/>
-      <c r="D43" s="395"/>
-      <c r="E43" s="417" t="s">
+      <c r="B43" s="418"/>
+      <c r="C43" s="418"/>
+      <c r="D43" s="419"/>
+      <c r="E43" s="444" t="s">
         <v>502</v>
       </c>
-      <c r="F43" s="418"/>
-      <c r="G43" s="516"/>
+      <c r="F43" s="445"/>
+      <c r="G43" s="537"/>
       <c r="H43" s="141"/>
       <c r="I43" s="141"/>
       <c r="J43" s="141"/>
@@ -15905,11 +15907,11 @@
         <f>_xlfn.QUARTILE.EXC($E19:$E42,3)</f>
         <v>2.0552442654526351</v>
       </c>
-      <c r="E45" s="587">
+      <c r="E45" s="406">
         <f>_xlfn.QUARTILE.EXC($F19:$F42,1)</f>
         <v>867421.58664967155</v>
       </c>
-      <c r="F45" s="587">
+      <c r="F45" s="406">
         <f>_xlfn.QUARTILE.EXC($F19:$F42,2)</f>
         <v>1211572.2928284132</v>
       </c>
@@ -15917,24 +15919,24 @@
         <f>_xlfn.QUARTILE.EXC($F19:$F42,3)</f>
         <v>1560222.6833102</v>
       </c>
-      <c r="H45" s="603" t="s">
+      <c r="H45" s="562" t="s">
         <v>844</v>
       </c>
-      <c r="I45" s="604"/>
+      <c r="I45" s="563"/>
       <c r="J45" s="141"/>
       <c r="K45" s="141"/>
       <c r="L45" s="222"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="511" t="s">
+      <c r="A46" s="527" t="s">
         <v>841</v>
       </c>
-      <c r="B46" s="510"/>
-      <c r="C46" s="510"/>
-      <c r="D46" s="512"/>
-      <c r="E46" s="590"/>
-      <c r="F46" s="591"/>
-      <c r="G46" s="592"/>
+      <c r="B46" s="528"/>
+      <c r="C46" s="528"/>
+      <c r="D46" s="529"/>
+      <c r="E46" s="559"/>
+      <c r="F46" s="560"/>
+      <c r="G46" s="561"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -15954,9 +15956,9 @@
       <c r="D47" s="219" t="s">
         <v>498</v>
       </c>
-      <c r="E47" s="593"/>
-      <c r="F47" s="588"/>
-      <c r="G47" s="594"/>
+      <c r="E47" s="408"/>
+      <c r="F47" s="407"/>
+      <c r="G47" s="409"/>
       <c r="H47" s="141"/>
       <c r="I47" s="141"/>
       <c r="J47" s="141"/>
@@ -15979,11 +15981,11 @@
         <f>_xlfn.QUARTILE.EXC($C19:$C42,3)</f>
         <v>0.38522150236385921</v>
       </c>
-      <c r="E48" s="598" t="s">
+      <c r="E48" s="567" t="s">
         <v>842</v>
       </c>
-      <c r="F48" s="599"/>
-      <c r="G48" s="600"/>
+      <c r="F48" s="568"/>
+      <c r="G48" s="569"/>
       <c r="H48" s="141"/>
       <c r="I48" s="141"/>
       <c r="J48" s="141"/>
@@ -15991,15 +15993,15 @@
       <c r="L48" s="222"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="460" t="s">
+      <c r="A49" s="477" t="s">
         <v>849</v>
       </c>
-      <c r="B49" s="451"/>
-      <c r="C49" s="451"/>
-      <c r="D49" s="452"/>
-      <c r="E49" s="590"/>
-      <c r="F49" s="591"/>
-      <c r="G49" s="592"/>
+      <c r="B49" s="478"/>
+      <c r="C49" s="478"/>
+      <c r="D49" s="479"/>
+      <c r="E49" s="559"/>
+      <c r="F49" s="560"/>
+      <c r="G49" s="561"/>
       <c r="H49" s="141"/>
       <c r="I49" s="141"/>
       <c r="J49" s="141"/>
@@ -16020,8 +16022,8 @@
         <v>498</v>
       </c>
       <c r="E50" s="381"/>
-      <c r="F50" s="601"/>
-      <c r="G50" s="602"/>
+      <c r="F50" s="410"/>
+      <c r="G50" s="411"/>
       <c r="H50" s="141"/>
       <c r="I50" s="141"/>
       <c r="J50" s="141"/>
@@ -16034,21 +16036,21 @@
       </c>
       <c r="B51" s="159">
         <f>_xlfn.QUARTILE.EXC($I19:$I42,1)</f>
-        <v>3.1009235019624833E-2</v>
+        <v>7.1445277485215602E-3</v>
       </c>
       <c r="C51" s="159">
         <f>_xlfn.QUARTILE.EXC($I19:$I42,2)</f>
-        <v>4.4351663330682772E-2</v>
+        <v>1.021862323138931E-2</v>
       </c>
       <c r="D51" s="14">
         <f>_xlfn.QUARTILE.EXC($I19:$I42,3)</f>
-        <v>6.0454378831567526E-2</v>
-      </c>
-      <c r="E51" s="595" t="s">
+        <v>1.392868888279316E-2</v>
+      </c>
+      <c r="E51" s="564" t="s">
         <v>843</v>
       </c>
-      <c r="F51" s="596"/>
-      <c r="G51" s="597"/>
+      <c r="F51" s="565"/>
+      <c r="G51" s="566"/>
       <c r="H51" s="141"/>
       <c r="I51" s="141"/>
       <c r="J51" s="141"/>
@@ -16056,20 +16058,20 @@
       <c r="L51" s="222"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="526" t="s">
+      <c r="A52" s="570" t="s">
         <v>491</v>
       </c>
-      <c r="B52" s="527"/>
-      <c r="C52" s="527"/>
-      <c r="D52" s="527"/>
-      <c r="E52" s="527"/>
-      <c r="F52" s="527"/>
-      <c r="G52" s="527"/>
-      <c r="H52" s="527"/>
-      <c r="I52" s="527"/>
-      <c r="J52" s="527"/>
-      <c r="K52" s="527"/>
-      <c r="L52" s="528"/>
+      <c r="B52" s="571"/>
+      <c r="C52" s="571"/>
+      <c r="D52" s="571"/>
+      <c r="E52" s="571"/>
+      <c r="F52" s="571"/>
+      <c r="G52" s="571"/>
+      <c r="H52" s="571"/>
+      <c r="I52" s="571"/>
+      <c r="J52" s="571"/>
+      <c r="K52" s="571"/>
+      <c r="L52" s="572"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="225" t="s">
@@ -16091,10 +16093,10 @@
       <c r="L53" s="231"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="467" t="s">
+      <c r="A54" s="525" t="s">
         <v>531</v>
       </c>
-      <c r="B54" s="468"/>
+      <c r="B54" s="526"/>
       <c r="C54" s="141"/>
       <c r="D54" s="141"/>
       <c r="E54" s="141"/>
@@ -16125,10 +16127,10 @@
       <c r="L55" s="222"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="463" t="s">
+      <c r="A56" s="521" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="395"/>
+      <c r="B56" s="419"/>
       <c r="C56" s="14" t="s">
         <v>10</v>
       </c>
@@ -16391,7 +16393,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G71" s="490" t="s">
+      <c r="G71" s="543" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="257" t="s">
@@ -16411,7 +16413,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G72" s="491"/>
+      <c r="G72" s="544"/>
       <c r="H72" s="257" t="s">
         <v>36</v>
       </c>
@@ -16433,7 +16435,7 @@
         <f>AVERAGE(B19,B23:B26,B30:B34)</f>
         <v>0.8197080549267326</v>
       </c>
-      <c r="G73" s="529"/>
+      <c r="G73" s="573"/>
       <c r="H73" s="277" t="s">
         <v>37</v>
       </c>
@@ -16452,11 +16454,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="A54:B54"/>
@@ -16473,13 +16475,14 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="E46:G46"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16506,13 +16509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="389" t="s">
+      <c r="A1" s="425" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -16530,16 +16533,16 @@
       <c r="E2" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="544" t="s">
+      <c r="G2" s="591" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="545"/>
-      <c r="I2" s="545"/>
-      <c r="J2" s="545"/>
-      <c r="K2" s="546"/>
+      <c r="H2" s="592"/>
+      <c r="I2" s="592"/>
+      <c r="J2" s="592"/>
+      <c r="K2" s="593"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="433" t="s">
+      <c r="A3" s="457" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -16554,16 +16557,16 @@
       <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="547" t="s">
+      <c r="G3" s="594" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="548"/>
-      <c r="I3" s="548"/>
-      <c r="J3" s="548"/>
-      <c r="K3" s="549"/>
+      <c r="H3" s="595"/>
+      <c r="I3" s="595"/>
+      <c r="J3" s="595"/>
+      <c r="K3" s="596"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="433"/>
+      <c r="A4" s="457"/>
       <c r="B4" s="61" t="s">
         <v>203</v>
       </c>
@@ -16576,16 +16579,16 @@
       <c r="E4" s="64">
         <v>12.6</v>
       </c>
-      <c r="G4" s="550" t="s">
+      <c r="G4" s="597" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="551"/>
-      <c r="I4" s="551"/>
-      <c r="J4" s="551"/>
-      <c r="K4" s="552"/>
+      <c r="H4" s="598"/>
+      <c r="I4" s="598"/>
+      <c r="J4" s="598"/>
+      <c r="K4" s="599"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="433" t="s">
+      <c r="A5" s="457" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -16602,7 +16605,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="433"/>
+      <c r="A6" s="457"/>
       <c r="B6" s="45" t="s">
         <v>205</v>
       </c>
@@ -16646,13 +16649,13 @@
       <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="402" t="s">
+      <c r="A10" s="429" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="402"/>
-      <c r="C10" s="402"/>
-      <c r="D10" s="402"/>
-      <c r="E10" s="402"/>
+      <c r="B10" s="429"/>
+      <c r="C10" s="429"/>
+      <c r="D10" s="429"/>
+      <c r="E10" s="429"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
@@ -16672,7 +16675,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="433" t="s">
+      <c r="A12" s="457" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -16689,7 +16692,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="433"/>
+      <c r="A13" s="457"/>
       <c r="B13" s="18" t="s">
         <v>123</v>
       </c>
@@ -16704,7 +16707,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="433"/>
+      <c r="A14" s="457"/>
       <c r="B14" s="18" t="s">
         <v>124</v>
       </c>
@@ -16719,7 +16722,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="433"/>
+      <c r="A15" s="457"/>
       <c r="B15" s="18" t="s">
         <v>179</v>
       </c>
@@ -16734,7 +16737,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="433"/>
+      <c r="A16" s="457"/>
       <c r="B16" s="18" t="s">
         <v>174</v>
       </c>
@@ -16749,7 +16752,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="433"/>
+      <c r="A17" s="457"/>
       <c r="B17" s="18" t="s">
         <v>125</v>
       </c>
@@ -16764,53 +16767,53 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="433" t="s">
+      <c r="A18" s="457" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="543" t="s">
+      <c r="B18" s="600" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="543" t="s">
+      <c r="C18" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="543">
+      <c r="D18" s="600">
         <v>5.2</v>
       </c>
-      <c r="E18" s="543" t="s">
+      <c r="E18" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="433"/>
-      <c r="B19" s="543"/>
-      <c r="C19" s="543"/>
-      <c r="D19" s="543"/>
-      <c r="E19" s="543"/>
+      <c r="A19" s="457"/>
+      <c r="B19" s="600"/>
+      <c r="C19" s="600"/>
+      <c r="D19" s="600"/>
+      <c r="E19" s="600"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="433"/>
-      <c r="B20" s="543" t="s">
+      <c r="A20" s="457"/>
+      <c r="B20" s="600" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="543" t="s">
+      <c r="C20" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="543">
+      <c r="D20" s="600">
         <v>73.400000000000006</v>
       </c>
-      <c r="E20" s="543" t="s">
+      <c r="E20" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="433"/>
-      <c r="B21" s="543"/>
-      <c r="C21" s="543"/>
-      <c r="D21" s="543"/>
-      <c r="E21" s="543"/>
+      <c r="A21" s="457"/>
+      <c r="B21" s="600"/>
+      <c r="C21" s="600"/>
+      <c r="D21" s="600"/>
+      <c r="E21" s="600"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="433"/>
+      <c r="A22" s="457"/>
       <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
@@ -16825,7 +16828,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="538" t="s">
+      <c r="A23" s="601" t="s">
         <v>128</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -16842,51 +16845,51 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="539"/>
-      <c r="B24" s="543" t="s">
+      <c r="A24" s="602"/>
+      <c r="B24" s="600" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="543" t="s">
+      <c r="C24" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="543">
+      <c r="D24" s="600">
         <v>67.400000000000006</v>
       </c>
-      <c r="E24" s="543" t="s">
+      <c r="E24" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="539"/>
-      <c r="B25" s="543"/>
-      <c r="C25" s="543"/>
-      <c r="D25" s="543"/>
-      <c r="E25" s="543"/>
+      <c r="A25" s="602"/>
+      <c r="B25" s="600"/>
+      <c r="C25" s="600"/>
+      <c r="D25" s="600"/>
+      <c r="E25" s="600"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="539"/>
-      <c r="B26" s="543" t="s">
+      <c r="A26" s="602"/>
+      <c r="B26" s="600" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="543" t="s">
+      <c r="C26" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="543">
+      <c r="D26" s="600">
         <v>71.400000000000006</v>
       </c>
-      <c r="E26" s="543" t="s">
+      <c r="E26" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="539"/>
-      <c r="B27" s="543"/>
-      <c r="C27" s="543"/>
-      <c r="D27" s="543"/>
-      <c r="E27" s="543"/>
+      <c r="A27" s="602"/>
+      <c r="B27" s="600"/>
+      <c r="C27" s="600"/>
+      <c r="D27" s="600"/>
+      <c r="E27" s="600"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="539"/>
+      <c r="A28" s="602"/>
       <c r="B28" s="18" t="s">
         <v>132</v>
       </c>
@@ -16901,26 +16904,26 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="539"/>
-      <c r="B29" s="543" t="s">
+      <c r="A29" s="602"/>
+      <c r="B29" s="600" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="543" t="s">
+      <c r="C29" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="543">
+      <c r="D29" s="600">
         <v>76.400000000000006</v>
       </c>
-      <c r="E29" s="543" t="s">
+      <c r="E29" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="539"/>
-      <c r="B30" s="543"/>
-      <c r="C30" s="543"/>
-      <c r="D30" s="543"/>
-      <c r="E30" s="543"/>
+      <c r="A30" s="602"/>
+      <c r="B30" s="600"/>
+      <c r="C30" s="600"/>
+      <c r="D30" s="600"/>
+      <c r="E30" s="600"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -16931,11 +16934,11 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="539"/>
-      <c r="B31" s="543"/>
-      <c r="C31" s="543"/>
-      <c r="D31" s="543"/>
-      <c r="E31" s="543"/>
+      <c r="A31" s="602"/>
+      <c r="B31" s="600"/>
+      <c r="C31" s="600"/>
+      <c r="D31" s="600"/>
+      <c r="E31" s="600"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -16946,7 +16949,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="539"/>
+      <c r="A32" s="602"/>
       <c r="B32" s="18" t="s">
         <v>134</v>
       </c>
@@ -16969,7 +16972,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="539"/>
+      <c r="A33" s="602"/>
       <c r="B33" s="18" t="s">
         <v>135</v>
       </c>
@@ -16992,7 +16995,7 @@
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="539"/>
+      <c r="A34" s="602"/>
       <c r="B34" s="18" t="s">
         <v>136</v>
       </c>
@@ -17015,17 +17018,17 @@
       <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="539"/>
-      <c r="B35" s="543" t="s">
+      <c r="A35" s="602"/>
+      <c r="B35" s="600" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="543" t="s">
+      <c r="C35" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="543">
+      <c r="D35" s="600">
         <v>61</v>
       </c>
-      <c r="E35" s="543" t="s">
+      <c r="E35" s="600" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="62"/>
@@ -17038,59 +17041,59 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="539"/>
-      <c r="B36" s="543"/>
-      <c r="C36" s="543"/>
-      <c r="D36" s="543"/>
-      <c r="E36" s="543"/>
+      <c r="A36" s="602"/>
+      <c r="B36" s="600"/>
+      <c r="C36" s="600"/>
+      <c r="D36" s="600"/>
+      <c r="E36" s="600"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="539"/>
-      <c r="B37" s="543" t="s">
+      <c r="A37" s="602"/>
+      <c r="B37" s="600" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="543" t="s">
+      <c r="C37" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="543">
+      <c r="D37" s="600">
         <v>66</v>
       </c>
-      <c r="E37" s="543" t="s">
+      <c r="E37" s="600" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="539"/>
-      <c r="B38" s="543"/>
-      <c r="C38" s="543"/>
-      <c r="D38" s="543"/>
-      <c r="E38" s="543"/>
+      <c r="A38" s="602"/>
+      <c r="B38" s="600"/>
+      <c r="C38" s="600"/>
+      <c r="D38" s="600"/>
+      <c r="E38" s="600"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="539"/>
-      <c r="B39" s="543" t="s">
+      <c r="A39" s="602"/>
+      <c r="B39" s="600" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="543" t="s">
+      <c r="C39" s="600" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="543">
+      <c r="D39" s="600">
         <v>94</v>
       </c>
-      <c r="E39" s="543" t="s">
+      <c r="E39" s="600" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="539"/>
-      <c r="B40" s="543"/>
-      <c r="C40" s="543"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="543"/>
+      <c r="A40" s="602"/>
+      <c r="B40" s="600"/>
+      <c r="C40" s="600"/>
+      <c r="D40" s="600"/>
+      <c r="E40" s="600"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="539"/>
+      <c r="A41" s="602"/>
       <c r="B41" s="18" t="s">
         <v>140</v>
       </c>
@@ -17105,7 +17108,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="539"/>
+      <c r="A42" s="602"/>
       <c r="B42" s="18" t="s">
         <v>141</v>
       </c>
@@ -17120,7 +17123,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="539"/>
+      <c r="A43" s="602"/>
       <c r="B43" s="18" t="s">
         <v>142</v>
       </c>
@@ -17135,7 +17138,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="539"/>
+      <c r="A44" s="602"/>
       <c r="B44" s="18" t="s">
         <v>143</v>
       </c>
@@ -17150,7 +17153,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="539"/>
+      <c r="A45" s="602"/>
       <c r="B45" s="18" t="s">
         <v>130</v>
       </c>
@@ -17165,7 +17168,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="539"/>
+      <c r="A46" s="602"/>
       <c r="B46" s="18" t="s">
         <v>130</v>
       </c>
@@ -17180,7 +17183,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="539"/>
+      <c r="A47" s="602"/>
       <c r="B47" s="18" t="s">
         <v>130</v>
       </c>
@@ -17195,7 +17198,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="539"/>
+      <c r="A48" s="602"/>
       <c r="B48" s="18" t="s">
         <v>130</v>
       </c>
@@ -17210,7 +17213,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="539"/>
+      <c r="A49" s="602"/>
       <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
@@ -17225,7 +17228,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="539"/>
+      <c r="A50" s="602"/>
       <c r="B50" s="18" t="s">
         <v>130</v>
       </c>
@@ -17240,7 +17243,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="539"/>
+      <c r="A51" s="602"/>
       <c r="B51" s="18" t="s">
         <v>130</v>
       </c>
@@ -17255,7 +17258,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="539"/>
+      <c r="A52" s="602"/>
       <c r="B52" s="18" t="s">
         <v>130</v>
       </c>
@@ -17270,7 +17273,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="539"/>
+      <c r="A53" s="602"/>
       <c r="B53" s="18" t="s">
         <v>130</v>
       </c>
@@ -17285,7 +17288,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="539"/>
+      <c r="A54" s="602"/>
       <c r="B54" s="18" t="s">
         <v>169</v>
       </c>
@@ -17300,7 +17303,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="539"/>
+      <c r="A55" s="602"/>
       <c r="B55" s="18" t="s">
         <v>169</v>
       </c>
@@ -17315,7 +17318,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="539"/>
+      <c r="A56" s="602"/>
       <c r="B56" s="18" t="s">
         <v>169</v>
       </c>
@@ -17330,7 +17333,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="539"/>
+      <c r="A57" s="602"/>
       <c r="B57" s="18" t="s">
         <v>169</v>
       </c>
@@ -17345,7 +17348,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="539"/>
+      <c r="A58" s="602"/>
       <c r="B58" s="18" t="s">
         <v>169</v>
       </c>
@@ -17360,7 +17363,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="539"/>
+      <c r="A59" s="602"/>
       <c r="B59" s="18" t="s">
         <v>169</v>
       </c>
@@ -17375,7 +17378,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="539"/>
+      <c r="A60" s="602"/>
       <c r="B60" s="18" t="s">
         <v>169</v>
       </c>
@@ -17390,7 +17393,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="539"/>
+      <c r="A61" s="602"/>
       <c r="B61" s="18" t="s">
         <v>169</v>
       </c>
@@ -17405,7 +17408,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="539"/>
+      <c r="A62" s="602"/>
       <c r="B62" s="18" t="s">
         <v>169</v>
       </c>
@@ -17420,7 +17423,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="539"/>
+      <c r="A63" s="602"/>
       <c r="B63" s="18" t="s">
         <v>169</v>
       </c>
@@ -17435,7 +17438,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="539"/>
+      <c r="A64" s="602"/>
       <c r="B64" s="18" t="s">
         <v>169</v>
       </c>
@@ -17450,7 +17453,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="539"/>
+      <c r="A65" s="602"/>
       <c r="B65" s="18" t="s">
         <v>169</v>
       </c>
@@ -17465,7 +17468,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="539"/>
+      <c r="A66" s="602"/>
       <c r="B66" s="18" t="s">
         <v>131</v>
       </c>
@@ -17480,7 +17483,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="539"/>
+      <c r="A67" s="602"/>
       <c r="B67" s="18" t="s">
         <v>131</v>
       </c>
@@ -17495,7 +17498,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="539"/>
+      <c r="A68" s="602"/>
       <c r="B68" s="18" t="s">
         <v>131</v>
       </c>
@@ -17510,7 +17513,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="539"/>
+      <c r="A69" s="602"/>
       <c r="B69" s="18" t="s">
         <v>131</v>
       </c>
@@ -17525,7 +17528,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="539"/>
+      <c r="A70" s="602"/>
       <c r="B70" s="18" t="s">
         <v>131</v>
       </c>
@@ -17540,7 +17543,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="539"/>
+      <c r="A71" s="602"/>
       <c r="B71" s="18" t="s">
         <v>131</v>
       </c>
@@ -17555,7 +17558,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="539"/>
+      <c r="A72" s="602"/>
       <c r="B72" s="18" t="s">
         <v>142</v>
       </c>
@@ -17570,7 +17573,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="539"/>
+      <c r="A73" s="602"/>
       <c r="B73" s="18" t="s">
         <v>142</v>
       </c>
@@ -17585,7 +17588,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="539"/>
+      <c r="A74" s="602"/>
       <c r="B74" s="18" t="s">
         <v>142</v>
       </c>
@@ -17600,7 +17603,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="539"/>
+      <c r="A75" s="602"/>
       <c r="B75" s="6" t="s">
         <v>171</v>
       </c>
@@ -17615,7 +17618,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="539"/>
+      <c r="A76" s="602"/>
       <c r="B76" s="18" t="s">
         <v>171</v>
       </c>
@@ -17630,7 +17633,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="539"/>
+      <c r="A77" s="602"/>
       <c r="B77" s="18" t="s">
         <v>171</v>
       </c>
@@ -17645,7 +17648,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="539"/>
+      <c r="A78" s="602"/>
       <c r="B78" s="18" t="s">
         <v>171</v>
       </c>
@@ -17660,7 +17663,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="539"/>
+      <c r="A79" s="602"/>
       <c r="B79" s="18" t="s">
         <v>171</v>
       </c>
@@ -17675,7 +17678,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="540"/>
+      <c r="A80" s="603"/>
       <c r="B80" s="18" t="s">
         <v>171</v>
       </c>
@@ -17690,7 +17693,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="479" t="s">
+      <c r="A81" s="493" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -17707,7 +17710,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="480"/>
+      <c r="A82" s="494"/>
       <c r="B82" s="18" t="s">
         <v>146</v>
       </c>
@@ -17722,7 +17725,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="479" t="s">
+      <c r="A83" s="493" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -17739,7 +17742,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="542"/>
+      <c r="A84" s="605"/>
       <c r="B84" s="18" t="s">
         <v>0</v>
       </c>
@@ -17754,7 +17757,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="542"/>
+      <c r="A85" s="605"/>
       <c r="B85" s="6" t="s">
         <v>0</v>
       </c>
@@ -17769,7 +17772,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="480"/>
+      <c r="A86" s="494"/>
       <c r="B86" s="54" t="s">
         <v>0</v>
       </c>
@@ -17784,7 +17787,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="538" t="s">
+      <c r="A87" s="601" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -17801,95 +17804,95 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="539"/>
-      <c r="B88" s="543" t="s">
+      <c r="A88" s="602"/>
+      <c r="B88" s="600" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="543" t="s">
+      <c r="C88" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="543">
+      <c r="D88" s="600">
         <v>7.2</v>
       </c>
-      <c r="E88" s="543" t="s">
+      <c r="E88" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="539"/>
-      <c r="B89" s="543"/>
-      <c r="C89" s="543"/>
-      <c r="D89" s="543"/>
-      <c r="E89" s="543"/>
+      <c r="A89" s="602"/>
+      <c r="B89" s="600"/>
+      <c r="C89" s="600"/>
+      <c r="D89" s="600"/>
+      <c r="E89" s="600"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="539"/>
-      <c r="B90" s="543" t="s">
+      <c r="A90" s="602"/>
+      <c r="B90" s="600" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="543" t="s">
+      <c r="C90" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="543">
+      <c r="D90" s="600">
         <v>6.4</v>
       </c>
-      <c r="E90" s="543" t="s">
+      <c r="E90" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="539"/>
-      <c r="B91" s="543"/>
-      <c r="C91" s="543"/>
-      <c r="D91" s="543"/>
-      <c r="E91" s="543"/>
+      <c r="A91" s="602"/>
+      <c r="B91" s="600"/>
+      <c r="C91" s="600"/>
+      <c r="D91" s="600"/>
+      <c r="E91" s="600"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="539"/>
-      <c r="B92" s="543" t="s">
+      <c r="A92" s="602"/>
+      <c r="B92" s="600" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="543" t="s">
+      <c r="C92" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="543">
+      <c r="D92" s="600">
         <v>-22.6</v>
       </c>
-      <c r="E92" s="543" t="s">
+      <c r="E92" s="600" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="539"/>
-      <c r="B93" s="543"/>
-      <c r="C93" s="543"/>
-      <c r="D93" s="543"/>
-      <c r="E93" s="543"/>
+      <c r="A93" s="602"/>
+      <c r="B93" s="600"/>
+      <c r="C93" s="600"/>
+      <c r="D93" s="600"/>
+      <c r="E93" s="600"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="539"/>
-      <c r="B94" s="543" t="s">
+      <c r="A94" s="602"/>
+      <c r="B94" s="600" t="s">
         <v>152</v>
       </c>
-      <c r="C94" s="543" t="s">
+      <c r="C94" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="543">
+      <c r="D94" s="600">
         <v>-27</v>
       </c>
-      <c r="E94" s="543" t="s">
+      <c r="E94" s="600" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="539"/>
-      <c r="B95" s="543"/>
-      <c r="C95" s="543"/>
-      <c r="D95" s="543"/>
-      <c r="E95" s="543"/>
+      <c r="A95" s="602"/>
+      <c r="B95" s="600"/>
+      <c r="C95" s="600"/>
+      <c r="D95" s="600"/>
+      <c r="E95" s="600"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="539"/>
+      <c r="A96" s="602"/>
       <c r="B96" s="18" t="s">
         <v>153</v>
       </c>
@@ -17904,51 +17907,51 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="539"/>
-      <c r="B97" s="543" t="s">
+      <c r="A97" s="602"/>
+      <c r="B97" s="600" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="543" t="s">
+      <c r="C97" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="543">
+      <c r="D97" s="600">
         <v>1</v>
       </c>
-      <c r="E97" s="543" t="s">
+      <c r="E97" s="600" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="539"/>
-      <c r="B98" s="543"/>
-      <c r="C98" s="543"/>
-      <c r="D98" s="543"/>
-      <c r="E98" s="543"/>
+      <c r="A98" s="602"/>
+      <c r="B98" s="600"/>
+      <c r="C98" s="600"/>
+      <c r="D98" s="600"/>
+      <c r="E98" s="600"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="539"/>
-      <c r="B99" s="543" t="s">
+      <c r="A99" s="602"/>
+      <c r="B99" s="600" t="s">
         <v>150</v>
       </c>
-      <c r="C99" s="543" t="s">
+      <c r="C99" s="600" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="543">
+      <c r="D99" s="600">
         <v>2</v>
       </c>
-      <c r="E99" s="543" t="s">
+      <c r="E99" s="600" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="539"/>
-      <c r="B100" s="543"/>
-      <c r="C100" s="543"/>
-      <c r="D100" s="543"/>
-      <c r="E100" s="543"/>
+      <c r="A100" s="602"/>
+      <c r="B100" s="600"/>
+      <c r="C100" s="600"/>
+      <c r="D100" s="600"/>
+      <c r="E100" s="600"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="539"/>
+      <c r="A101" s="602"/>
       <c r="B101" s="18" t="s">
         <v>149</v>
       </c>
@@ -17963,7 +17966,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="539"/>
+      <c r="A102" s="602"/>
       <c r="B102" s="18" t="s">
         <v>149</v>
       </c>
@@ -17978,7 +17981,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="539"/>
+      <c r="A103" s="602"/>
       <c r="B103" s="18" t="s">
         <v>149</v>
       </c>
@@ -17993,7 +17996,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="539"/>
+      <c r="A104" s="602"/>
       <c r="B104" s="18" t="s">
         <v>149</v>
       </c>
@@ -18008,7 +18011,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="539"/>
+      <c r="A105" s="602"/>
       <c r="B105" s="18" t="s">
         <v>149</v>
       </c>
@@ -18023,7 +18026,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="539"/>
+      <c r="A106" s="602"/>
       <c r="B106" s="18" t="s">
         <v>149</v>
       </c>
@@ -18038,7 +18041,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="539"/>
+      <c r="A107" s="602"/>
       <c r="B107" s="54" t="s">
         <v>217</v>
       </c>
@@ -18053,7 +18056,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="539"/>
+      <c r="A108" s="602"/>
       <c r="B108" s="54" t="s">
         <v>217</v>
       </c>
@@ -18068,7 +18071,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="541" t="s">
+      <c r="A109" s="604" t="s">
         <v>148</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -18085,7 +18088,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="541"/>
+      <c r="A110" s="604"/>
       <c r="B110" s="18" t="s">
         <v>165</v>
       </c>
@@ -18100,7 +18103,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="541"/>
+      <c r="A111" s="604"/>
       <c r="B111" s="18" t="s">
         <v>165</v>
       </c>
@@ -18115,7 +18118,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="541"/>
+      <c r="A112" s="604"/>
       <c r="B112" s="18" t="s">
         <v>166</v>
       </c>
@@ -18130,7 +18133,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="541"/>
+      <c r="A113" s="604"/>
       <c r="B113" s="18" t="s">
         <v>167</v>
       </c>
@@ -18145,7 +18148,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="541"/>
+      <c r="A114" s="604"/>
       <c r="B114" s="18" t="s">
         <v>166</v>
       </c>
@@ -18160,7 +18163,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="541"/>
+      <c r="A115" s="604"/>
       <c r="B115" s="18" t="s">
         <v>168</v>
       </c>
@@ -18175,7 +18178,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="538" t="s">
+      <c r="A116" s="601" t="s">
         <v>178</v>
       </c>
       <c r="B116" s="18" t="s">
@@ -18192,7 +18195,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="539"/>
+      <c r="A117" s="602"/>
       <c r="B117" s="18" t="s">
         <v>154</v>
       </c>
@@ -18207,7 +18210,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="539"/>
+      <c r="A118" s="602"/>
       <c r="B118" s="18" t="s">
         <v>154</v>
       </c>
@@ -18222,7 +18225,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="539"/>
+      <c r="A119" s="602"/>
       <c r="B119" s="18" t="s">
         <v>156</v>
       </c>
@@ -18237,7 +18240,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="539"/>
+      <c r="A120" s="602"/>
       <c r="B120" s="18" t="s">
         <v>156</v>
       </c>
@@ -18252,7 +18255,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="539"/>
+      <c r="A121" s="602"/>
       <c r="B121" s="18" t="s">
         <v>156</v>
       </c>
@@ -18267,7 +18270,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="539"/>
+      <c r="A122" s="602"/>
       <c r="B122" s="18" t="s">
         <v>149</v>
       </c>
@@ -18282,7 +18285,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="539"/>
+      <c r="A123" s="602"/>
       <c r="B123" s="18" t="s">
         <v>149</v>
       </c>
@@ -18297,7 +18300,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="539"/>
+      <c r="A124" s="602"/>
       <c r="B124" s="18" t="s">
         <v>149</v>
       </c>
@@ -18312,7 +18315,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="539"/>
+      <c r="A125" s="602"/>
       <c r="B125" s="18" t="s">
         <v>157</v>
       </c>
@@ -18327,7 +18330,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="539"/>
+      <c r="A126" s="602"/>
       <c r="B126" s="18" t="s">
         <v>158</v>
       </c>
@@ -18342,7 +18345,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="539"/>
+      <c r="A127" s="602"/>
       <c r="B127" s="18" t="s">
         <v>159</v>
       </c>
@@ -18357,7 +18360,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="539"/>
+      <c r="A128" s="602"/>
       <c r="B128" s="18" t="s">
         <v>161</v>
       </c>
@@ -18372,7 +18375,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="539"/>
+      <c r="A129" s="602"/>
       <c r="B129" s="18" t="s">
         <v>162</v>
       </c>
@@ -18387,7 +18390,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="539"/>
+      <c r="A130" s="602"/>
       <c r="B130" s="18" t="s">
         <v>159</v>
       </c>
@@ -18402,7 +18405,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="539"/>
+      <c r="A131" s="602"/>
       <c r="B131" s="18" t="s">
         <v>161</v>
       </c>
@@ -18417,7 +18420,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="540"/>
+      <c r="A132" s="603"/>
       <c r="B132" s="18" t="s">
         <v>163</v>
       </c>
@@ -18432,7 +18435,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="433" t="s">
+      <c r="A133" s="457" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -18449,7 +18452,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="433"/>
+      <c r="A134" s="457"/>
       <c r="B134" s="6" t="s">
         <v>170</v>
       </c>
@@ -18464,7 +18467,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="433"/>
+      <c r="A135" s="457"/>
       <c r="B135" s="6" t="s">
         <v>170</v>
       </c>
@@ -18479,7 +18482,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="433"/>
+      <c r="A136" s="457"/>
       <c r="B136" s="52" t="s">
         <v>170</v>
       </c>
@@ -18501,62 +18504,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
     <mergeCell ref="A23:A80"/>
     <mergeCell ref="A133:A136"/>
     <mergeCell ref="A3:A4"/>
@@ -18573,6 +18520,62 @@
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18948,18 +18951,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="402" t="s">
+      <c r="A1" s="429" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="402"/>
-      <c r="C1" s="402"/>
-      <c r="D1" s="402"/>
-      <c r="E1" s="402"/>
-      <c r="F1" s="402"/>
-      <c r="G1" s="402"/>
-      <c r="H1" s="402"/>
-      <c r="I1" s="402"/>
-      <c r="J1" s="402"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -19064,15 +19067,15 @@
       <c r="J4" s="18">
         <v>26</v>
       </c>
-      <c r="L4" s="403" t="s">
+      <c r="L4" s="430" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="404"/>
-      <c r="N4" s="404"/>
-      <c r="O4" s="404"/>
-      <c r="P4" s="404"/>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="405"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="431"/>
+      <c r="O4" s="431"/>
+      <c r="P4" s="431"/>
+      <c r="Q4" s="431"/>
+      <c r="R4" s="432"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -19109,15 +19112,15 @@
       <c r="J5" s="18">
         <v>11</v>
       </c>
-      <c r="L5" s="406" t="s">
+      <c r="L5" s="433" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="407"/>
-      <c r="N5" s="407"/>
-      <c r="O5" s="407"/>
-      <c r="P5" s="407"/>
-      <c r="Q5" s="407"/>
-      <c r="R5" s="408"/>
+      <c r="M5" s="434"/>
+      <c r="N5" s="434"/>
+      <c r="O5" s="434"/>
+      <c r="P5" s="434"/>
+      <c r="Q5" s="434"/>
+      <c r="R5" s="435"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -19154,15 +19157,15 @@
       <c r="J6" s="18">
         <v>33</v>
       </c>
-      <c r="L6" s="409" t="s">
+      <c r="L6" s="436" t="s">
         <v>297</v>
       </c>
-      <c r="M6" s="410"/>
-      <c r="N6" s="410"/>
-      <c r="O6" s="410"/>
-      <c r="P6" s="410"/>
-      <c r="Q6" s="410"/>
-      <c r="R6" s="411"/>
+      <c r="M6" s="437"/>
+      <c r="N6" s="437"/>
+      <c r="O6" s="437"/>
+      <c r="P6" s="437"/>
+      <c r="Q6" s="437"/>
+      <c r="R6" s="438"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -19242,19 +19245,19 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="393" t="s">
+      <c r="A10" s="417" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="394"/>
-      <c r="C10" s="394"/>
-      <c r="D10" s="394"/>
-      <c r="E10" s="394"/>
-      <c r="F10" s="395"/>
-      <c r="H10" s="393" t="s">
+      <c r="B10" s="418"/>
+      <c r="C10" s="418"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="418"/>
+      <c r="F10" s="419"/>
+      <c r="H10" s="417" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="394"/>
-      <c r="J10" s="395"/>
+      <c r="I10" s="418"/>
+      <c r="J10" s="419"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -19308,7 +19311,7 @@
       <c r="I12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="399">
+      <c r="J12" s="426">
         <v>1</v>
       </c>
     </row>
@@ -19335,7 +19338,7 @@
       <c r="I13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="400"/>
+      <c r="J13" s="427"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -19362,7 +19365,7 @@
       <c r="I14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="400"/>
+      <c r="J14" s="427"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
@@ -19387,7 +19390,7 @@
       <c r="I15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="400"/>
+      <c r="J15" s="427"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
@@ -19414,7 +19417,7 @@
       <c r="I16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="400"/>
+      <c r="J16" s="427"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
@@ -19439,7 +19442,7 @@
       <c r="I17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="401"/>
+      <c r="J17" s="428"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -19536,10 +19539,10 @@
       <c r="F22" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="402" t="s">
+      <c r="A24" s="429" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="402"/>
+      <c r="B24" s="429"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -20243,11 +20246,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="417" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="395"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="419"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -20259,11 +20262,11 @@
       <c r="C2" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="421" t="s">
+      <c r="E2" s="448" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="422"/>
-      <c r="G2" s="423"/>
+      <c r="F2" s="449"/>
+      <c r="G2" s="450"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87">
@@ -20275,11 +20278,11 @@
       <c r="C3" s="87">
         <v>0.49</v>
       </c>
-      <c r="E3" s="424" t="s">
+      <c r="E3" s="451" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="425"/>
-      <c r="G3" s="426"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="453"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
@@ -20315,22 +20318,22 @@
       <c r="C6" s="136"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="417" t="s">
+      <c r="A8" s="444" t="s">
         <v>450</v>
       </c>
-      <c r="B8" s="418"/>
-      <c r="C8" s="419"/>
-      <c r="E8" s="389" t="s">
+      <c r="B8" s="445"/>
+      <c r="C8" s="446"/>
+      <c r="E8" s="425" t="s">
         <v>451</v>
       </c>
-      <c r="F8" s="389"/>
-      <c r="G8" s="389"/>
+      <c r="F8" s="425"/>
+      <c r="G8" s="425"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="415" t="s">
+      <c r="A9" s="442" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="416"/>
+      <c r="B9" s="443"/>
       <c r="C9" s="118"/>
       <c r="E9" s="119" t="s">
         <v>251</v>
@@ -20350,11 +20353,11 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="118"/>
-      <c r="E10" s="420" t="s">
+      <c r="E10" s="447" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="420"/>
-      <c r="G10" s="420"/>
+      <c r="F10" s="447"/>
+      <c r="G10" s="447"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
@@ -20411,10 +20414,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="413" t="s">
+      <c r="A14" s="440" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="414"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="118" t="s">
         <v>316</v>
       </c>
@@ -20456,11 +20459,11 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C16" s="118"/>
-      <c r="E16" s="420" t="s">
+      <c r="E16" s="447" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="420"/>
-      <c r="G16" s="420"/>
+      <c r="F16" s="447"/>
+      <c r="G16" s="447"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
@@ -20519,16 +20522,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="420" t="s">
+      <c r="A20" s="447" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="420"/>
+      <c r="B20" s="447"/>
       <c r="C20" s="118"/>
-      <c r="E20" s="417" t="s">
+      <c r="E20" s="444" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="418"/>
-      <c r="G20" s="419"/>
+      <c r="F20" s="445"/>
+      <c r="G20" s="446"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="122" t="s">
@@ -20588,14 +20591,14 @@
       <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="412" t="s">
+      <c r="A25" s="439" t="s">
         <v>452</v>
       </c>
-      <c r="B25" s="412"/>
-      <c r="C25" s="412"/>
-      <c r="D25" s="412"/>
-      <c r="E25" s="412"/>
-      <c r="F25" s="412"/>
+      <c r="B25" s="439"/>
+      <c r="C25" s="439"/>
+      <c r="D25" s="439"/>
+      <c r="E25" s="439"/>
+      <c r="F25" s="439"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
@@ -20624,7 +20627,7 @@
       <c r="B27" s="122">
         <v>8.2100000000000009</v>
       </c>
-      <c r="C27" s="427" t="s">
+      <c r="C27" s="454" t="s">
         <v>443</v>
       </c>
       <c r="D27" s="122">
@@ -20634,7 +20637,7 @@
         <f>B27/D27</f>
         <v>0.48839976204640106</v>
       </c>
-      <c r="F27" s="427" t="s">
+      <c r="F27" s="454" t="s">
         <v>444</v>
       </c>
     </row>
@@ -20645,7 +20648,7 @@
       <c r="B28" s="122">
         <v>8.67</v>
       </c>
-      <c r="C28" s="428"/>
+      <c r="C28" s="455"/>
       <c r="D28" s="122">
         <v>17.84</v>
       </c>
@@ -20653,7 +20656,7 @@
         <f t="shared" ref="E28:E29" si="0">B28/D28</f>
         <v>0.48598654708520178</v>
       </c>
-      <c r="F28" s="428"/>
+      <c r="F28" s="455"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="122" t="s">
@@ -20662,7 +20665,7 @@
       <c r="B29" s="122">
         <v>8.61</v>
       </c>
-      <c r="C29" s="428"/>
+      <c r="C29" s="455"/>
       <c r="D29" s="122">
         <v>17.600000000000001</v>
       </c>
@@ -20670,19 +20673,19 @@
         <f t="shared" si="0"/>
         <v>0.48920454545454539</v>
       </c>
-      <c r="F29" s="428"/>
+      <c r="F29" s="455"/>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="121" t="s">
         <v>440</v>
       </c>
       <c r="B30" s="122"/>
-      <c r="C30" s="429"/>
+      <c r="C30" s="456"/>
       <c r="D30" s="122"/>
       <c r="E30" s="82">
         <v>0.49</v>
       </c>
-      <c r="F30" s="429"/>
+      <c r="F30" s="456"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="132"/>
@@ -20690,10 +20693,10 @@
       <c r="C31" s="132"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="412" t="s">
+      <c r="A32" s="439" t="s">
         <v>453</v>
       </c>
-      <c r="B32" s="412"/>
+      <c r="B32" s="439"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="110" t="s">
@@ -20767,11 +20770,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="417" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="395"/>
+      <c r="B1" s="418"/>
+      <c r="C1" s="419"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
@@ -20804,15 +20807,15 @@
       <c r="C4" s="136"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="402" t="s">
+      <c r="A6" s="429" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="402"/>
-      <c r="C6" s="402"/>
-      <c r="D6" s="402"/>
-      <c r="E6" s="402"/>
-      <c r="F6" s="402"/>
-      <c r="G6" s="402"/>
+      <c r="B6" s="429"/>
+      <c r="C6" s="429"/>
+      <c r="D6" s="429"/>
+      <c r="E6" s="429"/>
+      <c r="F6" s="429"/>
+      <c r="G6" s="429"/>
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
     </row>
@@ -20843,7 +20846,7 @@
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="432" t="s">
+      <c r="A8" s="461" t="s">
         <v>229</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -20870,7 +20873,7 @@
       <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="432"/>
+      <c r="A9" s="461"/>
       <c r="B9" s="6" t="s">
         <v>244</v>
       </c>
@@ -20895,7 +20898,7 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="432"/>
+      <c r="A10" s="461"/>
       <c r="B10" s="6" t="s">
         <v>245</v>
       </c>
@@ -20920,7 +20923,7 @@
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="432" t="s">
+      <c r="A11" s="461" t="s">
         <v>232</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -20947,7 +20950,7 @@
       <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="432"/>
+      <c r="A12" s="461"/>
       <c r="B12" s="6" t="s">
         <v>235</v>
       </c>
@@ -20984,11 +20987,11 @@
       <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="389" t="s">
+      <c r="A14" s="425" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="389"/>
-      <c r="C14" s="389"/>
+      <c r="B14" s="425"/>
+      <c r="C14" s="425"/>
       <c r="D14" s="1"/>
       <c r="E14" s="75"/>
       <c r="F14" s="76"/>
@@ -21047,14 +21050,14 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="389" t="s">
+      <c r="A18" s="425" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="389"/>
-      <c r="C18" s="389"/>
-      <c r="D18" s="389"/>
-      <c r="E18" s="389"/>
-      <c r="F18" s="389"/>
+      <c r="B18" s="425"/>
+      <c r="C18" s="425"/>
+      <c r="D18" s="425"/>
+      <c r="E18" s="425"/>
+      <c r="F18" s="425"/>
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -21085,7 +21088,7 @@
       <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="431" t="s">
+      <c r="A20" s="460" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -21110,7 +21113,7 @@
       <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="431"/>
+      <c r="A21" s="460"/>
       <c r="B21" s="6" t="s">
         <v>284</v>
       </c>
@@ -21133,7 +21136,7 @@
       <c r="J21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="431"/>
+      <c r="A22" s="460"/>
       <c r="B22" s="6" t="s">
         <v>285</v>
       </c>
@@ -21156,7 +21159,7 @@
       <c r="J22" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="431" t="s">
+      <c r="A23" s="460" t="s">
         <v>256</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -21181,7 +21184,7 @@
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="431"/>
+      <c r="A24" s="460"/>
       <c r="B24" s="6" t="s">
         <v>284</v>
       </c>
@@ -21204,7 +21207,7 @@
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="431"/>
+      <c r="A25" s="460"/>
       <c r="B25" s="6" t="s">
         <v>285</v>
       </c>
@@ -21227,7 +21230,7 @@
       <c r="J25" s="76"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="431" t="s">
+      <c r="A26" s="460" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -21252,7 +21255,7 @@
       <c r="J26" s="76"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="431"/>
+      <c r="A27" s="460"/>
       <c r="B27" s="6" t="s">
         <v>284</v>
       </c>
@@ -21275,7 +21278,7 @@
       <c r="J27" s="76"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="431"/>
+      <c r="A28" s="460"/>
       <c r="B28" s="6" t="s">
         <v>285</v>
       </c>
@@ -21310,38 +21313,38 @@
       <c r="J29" s="76"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="393" t="s">
+      <c r="A30" s="417" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="394"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="394"/>
-      <c r="G30" s="394"/>
-      <c r="H30" s="394"/>
-      <c r="I30" s="394"/>
-      <c r="J30" s="395"/>
+      <c r="B30" s="418"/>
+      <c r="C30" s="418"/>
+      <c r="D30" s="418"/>
+      <c r="E30" s="418"/>
+      <c r="F30" s="418"/>
+      <c r="G30" s="418"/>
+      <c r="H30" s="418"/>
+      <c r="I30" s="418"/>
+      <c r="J30" s="419"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="432" t="s">
+      <c r="B31" s="461" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="432"/>
-      <c r="D31" s="432"/>
-      <c r="E31" s="432" t="s">
+      <c r="C31" s="461"/>
+      <c r="D31" s="461"/>
+      <c r="E31" s="461" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="432"/>
-      <c r="G31" s="432"/>
-      <c r="H31" s="432" t="s">
+      <c r="F31" s="461"/>
+      <c r="G31" s="461"/>
+      <c r="H31" s="461" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="432"/>
-      <c r="J31" s="432"/>
+      <c r="I31" s="461"/>
+      <c r="J31" s="461"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
@@ -21376,18 +21379,18 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="420" t="s">
+      <c r="A33" s="447" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="420"/>
-      <c r="C33" s="420"/>
-      <c r="D33" s="420"/>
-      <c r="E33" s="420"/>
-      <c r="F33" s="420"/>
-      <c r="G33" s="420"/>
-      <c r="H33" s="420"/>
-      <c r="I33" s="420"/>
-      <c r="J33" s="420"/>
+      <c r="B33" s="447"/>
+      <c r="C33" s="447"/>
+      <c r="D33" s="447"/>
+      <c r="E33" s="447"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="447"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
@@ -21518,18 +21521,18 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="413" t="s">
+      <c r="A38" s="440" t="s">
         <v>291</v>
       </c>
-      <c r="B38" s="434"/>
-      <c r="C38" s="434"/>
-      <c r="D38" s="434"/>
-      <c r="E38" s="434"/>
-      <c r="F38" s="434"/>
-      <c r="G38" s="434"/>
-      <c r="H38" s="434"/>
-      <c r="I38" s="434"/>
-      <c r="J38" s="414"/>
+      <c r="B38" s="458"/>
+      <c r="C38" s="458"/>
+      <c r="D38" s="458"/>
+      <c r="E38" s="458"/>
+      <c r="F38" s="458"/>
+      <c r="G38" s="458"/>
+      <c r="H38" s="458"/>
+      <c r="I38" s="458"/>
+      <c r="J38" s="441"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -21655,18 +21658,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="420" t="s">
+      <c r="A42" s="447" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="420"/>
-      <c r="C42" s="420"/>
-      <c r="D42" s="420"/>
-      <c r="E42" s="420"/>
-      <c r="F42" s="420"/>
-      <c r="G42" s="420"/>
-      <c r="H42" s="420"/>
-      <c r="I42" s="420"/>
-      <c r="J42" s="420"/>
+      <c r="B42" s="447"/>
+      <c r="C42" s="447"/>
+      <c r="D42" s="447"/>
+      <c r="E42" s="447"/>
+      <c r="F42" s="447"/>
+      <c r="G42" s="447"/>
+      <c r="H42" s="447"/>
+      <c r="I42" s="447"/>
+      <c r="J42" s="447"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
@@ -21699,10 +21702,10 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-      <c r="K43" s="433" t="s">
+      <c r="K43" s="457" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="433"/>
+      <c r="L43" s="457"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
@@ -21933,18 +21936,18 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="430" t="s">
+      <c r="A50" s="459" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="430"/>
-      <c r="C50" s="430"/>
-      <c r="D50" s="430"/>
-      <c r="E50" s="430"/>
-      <c r="F50" s="430"/>
-      <c r="G50" s="430"/>
-      <c r="H50" s="430"/>
-      <c r="I50" s="430"/>
-      <c r="J50" s="430"/>
+      <c r="B50" s="459"/>
+      <c r="C50" s="459"/>
+      <c r="D50" s="459"/>
+      <c r="E50" s="459"/>
+      <c r="F50" s="459"/>
+      <c r="G50" s="459"/>
+      <c r="H50" s="459"/>
+      <c r="I50" s="459"/>
+      <c r="J50" s="459"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
@@ -22234,18 +22237,18 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="430" t="s">
+      <c r="A58" s="459" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="430"/>
-      <c r="C58" s="430"/>
-      <c r="D58" s="430"/>
-      <c r="E58" s="430"/>
-      <c r="F58" s="430"/>
-      <c r="G58" s="430"/>
-      <c r="H58" s="430"/>
-      <c r="I58" s="430"/>
-      <c r="J58" s="430"/>
+      <c r="B58" s="459"/>
+      <c r="C58" s="459"/>
+      <c r="D58" s="459"/>
+      <c r="E58" s="459"/>
+      <c r="F58" s="459"/>
+      <c r="G58" s="459"/>
+      <c r="H58" s="459"/>
+      <c r="I58" s="459"/>
+      <c r="J58" s="459"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
@@ -22331,11 +22334,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A6:G6"/>
@@ -22350,6 +22348,11 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A42:J42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -22390,21 +22393,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="417" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="395"/>
-      <c r="E1" s="393" t="s">
+      <c r="B1" s="418"/>
+      <c r="C1" s="419"/>
+      <c r="E1" s="417" t="s">
         <v>423</v>
       </c>
-      <c r="F1" s="394"/>
-      <c r="G1" s="395"/>
-      <c r="I1" s="393" t="s">
+      <c r="F1" s="418"/>
+      <c r="G1" s="419"/>
+      <c r="I1" s="417" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="394"/>
-      <c r="K1" s="395"/>
+      <c r="J1" s="418"/>
+      <c r="K1" s="419"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -22466,38 +22469,38 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="421" t="s">
+      <c r="A5" s="448" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="422"/>
-      <c r="C5" s="423"/>
-      <c r="E5" s="421" t="s">
+      <c r="B5" s="449"/>
+      <c r="C5" s="450"/>
+      <c r="E5" s="448" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="422"/>
-      <c r="G5" s="423"/>
-      <c r="I5" s="421" t="s">
+      <c r="F5" s="449"/>
+      <c r="G5" s="450"/>
+      <c r="I5" s="448" t="s">
         <v>419</v>
       </c>
-      <c r="J5" s="422"/>
-      <c r="K5" s="423"/>
+      <c r="J5" s="449"/>
+      <c r="K5" s="450"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="451" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="425"/>
-      <c r="C6" s="426"/>
-      <c r="E6" s="424" t="s">
+      <c r="B6" s="452"/>
+      <c r="C6" s="453"/>
+      <c r="E6" s="451" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="425"/>
-      <c r="G6" s="426"/>
-      <c r="I6" s="424" t="s">
+      <c r="F6" s="452"/>
+      <c r="G6" s="453"/>
+      <c r="I6" s="451" t="s">
         <v>358</v>
       </c>
-      <c r="J6" s="425"/>
-      <c r="K6" s="426"/>
+      <c r="J6" s="452"/>
+      <c r="K6" s="453"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
@@ -22511,26 +22514,26 @@
       <c r="K7" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="439" t="s">
+      <c r="A9" s="462" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="439"/>
-      <c r="C9" s="439"/>
-      <c r="D9" s="439"/>
-      <c r="E9" s="439"/>
-      <c r="F9" s="439"/>
+      <c r="B9" s="462"/>
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="462"/>
       <c r="G9" s="104"/>
-      <c r="H9" s="439" t="s">
+      <c r="H9" s="462" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="439"/>
-      <c r="J9" s="439"/>
-      <c r="K9" s="439"/>
-      <c r="L9" s="439"/>
-      <c r="M9" s="439"/>
-      <c r="N9" s="439"/>
-      <c r="O9" s="439"/>
-      <c r="P9" s="439"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="462"/>
+      <c r="L9" s="462"/>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="462"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
@@ -22546,23 +22549,23 @@
       <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="425" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="389"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="389"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="425"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="425"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="389" t="s">
+      <c r="H11" s="425" t="s">
         <v>349</v>
       </c>
-      <c r="I11" s="389"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-      <c r="M11" s="389"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="425"/>
+      <c r="L11" s="425"/>
+      <c r="M11" s="425"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
@@ -22583,20 +22586,20 @@
       <c r="F12" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="448" t="s">
+      <c r="H12" s="464" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="420" t="s">
+      <c r="I12" s="447" t="s">
         <v>350</v>
       </c>
-      <c r="J12" s="420"/>
-      <c r="K12" s="435" t="s">
+      <c r="J12" s="447"/>
+      <c r="K12" s="463" t="s">
         <v>316</v>
       </c>
-      <c r="L12" s="420" t="s">
+      <c r="L12" s="447" t="s">
         <v>357</v>
       </c>
-      <c r="M12" s="420"/>
+      <c r="M12" s="447"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
@@ -22617,14 +22620,14 @@
       <c r="F13" s="97">
         <v>0.4</v>
       </c>
-      <c r="H13" s="449"/>
+      <c r="H13" s="465"/>
       <c r="I13" s="44" t="s">
         <v>354</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="435"/>
+      <c r="K13" s="463"/>
       <c r="L13" s="44" t="s">
         <v>354</v>
       </c>
@@ -22651,14 +22654,14 @@
       <c r="F14" s="97">
         <v>1998</v>
       </c>
-      <c r="H14" s="413" t="s">
+      <c r="H14" s="440" t="s">
         <v>352</v>
       </c>
-      <c r="I14" s="434"/>
-      <c r="J14" s="434"/>
-      <c r="K14" s="434"/>
-      <c r="L14" s="434"/>
-      <c r="M14" s="414"/>
+      <c r="I14" s="458"/>
+      <c r="J14" s="458"/>
+      <c r="K14" s="458"/>
+      <c r="L14" s="458"/>
+      <c r="M14" s="441"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
@@ -22758,14 +22761,14 @@
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
       <c r="F17" s="97"/>
-      <c r="H17" s="413" t="s">
+      <c r="H17" s="440" t="s">
         <v>353</v>
       </c>
-      <c r="I17" s="434"/>
-      <c r="J17" s="434"/>
-      <c r="K17" s="434"/>
-      <c r="L17" s="434"/>
-      <c r="M17" s="414"/>
+      <c r="I17" s="458"/>
+      <c r="J17" s="458"/>
+      <c r="K17" s="458"/>
+      <c r="L17" s="458"/>
+      <c r="M17" s="441"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -22938,12 +22941,12 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="389" t="s">
+      <c r="A22" s="425" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="389"/>
-      <c r="C22" s="389"/>
-      <c r="D22" s="389"/>
+      <c r="B22" s="425"/>
+      <c r="C22" s="425"/>
+      <c r="D22" s="425"/>
       <c r="E22" s="92"/>
       <c r="H22" s="6" t="s">
         <v>363</v>
@@ -22972,12 +22975,12 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="443" t="s">
+      <c r="A23" s="472" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="443"/>
-      <c r="C23" s="443"/>
-      <c r="D23" s="443"/>
+      <c r="B23" s="472"/>
+      <c r="C23" s="472"/>
+      <c r="D23" s="472"/>
       <c r="E23" s="90"/>
       <c r="H23" s="6" t="s">
         <v>364</v>
@@ -23061,14 +23064,14 @@
         <v>47.650293191999999</v>
       </c>
       <c r="E25" s="92"/>
-      <c r="H25" s="413" t="s">
+      <c r="H25" s="440" t="s">
         <v>314</v>
       </c>
-      <c r="I25" s="434"/>
-      <c r="J25" s="434"/>
-      <c r="K25" s="434"/>
-      <c r="L25" s="434"/>
-      <c r="M25" s="414"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="458"/>
+      <c r="K25" s="458"/>
+      <c r="L25" s="458"/>
+      <c r="M25" s="441"/>
       <c r="N25" s="13"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -23179,16 +23182,16 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
-      <c r="H29" s="412" t="s">
+      <c r="H29" s="439" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="412"/>
-      <c r="J29" s="412"/>
+      <c r="I29" s="439"/>
+      <c r="J29" s="439"/>
       <c r="K29" s="114"/>
-      <c r="L29" s="412" t="s">
+      <c r="L29" s="439" t="s">
         <v>368</v>
       </c>
-      <c r="M29" s="412"/>
+      <c r="M29" s="439"/>
       <c r="N29" s="114"/>
     </row>
     <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -23284,16 +23287,16 @@
       <c r="E33" s="92"/>
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
-      <c r="H33" s="389" t="s">
+      <c r="H33" s="425" t="s">
         <v>369</v>
       </c>
-      <c r="I33" s="389"/>
-      <c r="J33" s="389"/>
-      <c r="K33" s="389"/>
-      <c r="L33" s="389"/>
-      <c r="M33" s="389"/>
-      <c r="N33" s="389"/>
-      <c r="O33" s="389"/>
+      <c r="I33" s="425"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="425"/>
+      <c r="L33" s="425"/>
+      <c r="M33" s="425"/>
+      <c r="N33" s="425"/>
+      <c r="O33" s="425"/>
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -23309,10 +23312,10 @@
       <c r="E34" s="92"/>
       <c r="F34" s="92"/>
       <c r="G34" s="92"/>
-      <c r="H34" s="436" t="s">
+      <c r="H34" s="466" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="436"/>
+      <c r="I34" s="466"/>
       <c r="J34" s="15" t="s">
         <v>219</v>
       </c>
@@ -23343,15 +23346,15 @@
       <c r="E35" s="92"/>
       <c r="F35" s="92"/>
       <c r="G35" s="92"/>
-      <c r="H35" s="435" t="s">
+      <c r="H35" s="463" t="s">
         <v>341</v>
       </c>
-      <c r="I35" s="435"/>
-      <c r="J35" s="435"/>
-      <c r="K35" s="435"/>
-      <c r="L35" s="435"/>
-      <c r="M35" s="435"/>
-      <c r="N35" s="435"/>
+      <c r="I35" s="463"/>
+      <c r="J35" s="463"/>
+      <c r="K35" s="463"/>
+      <c r="L35" s="463"/>
+      <c r="M35" s="463"/>
+      <c r="N35" s="463"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -23391,12 +23394,12 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="440" t="s">
+      <c r="A37" s="469" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="441"/>
-      <c r="C37" s="441"/>
-      <c r="D37" s="442"/>
+      <c r="B37" s="470"/>
+      <c r="C37" s="470"/>
+      <c r="D37" s="471"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
       <c r="G37" s="92"/>
@@ -23598,15 +23601,15 @@
       <c r="E42" s="92"/>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
-      <c r="H42" s="435" t="s">
+      <c r="H42" s="463" t="s">
         <v>380</v>
       </c>
-      <c r="I42" s="435"/>
-      <c r="J42" s="435"/>
-      <c r="K42" s="435"/>
-      <c r="L42" s="435"/>
-      <c r="M42" s="435"/>
-      <c r="N42" s="435"/>
+      <c r="I42" s="463"/>
+      <c r="J42" s="463"/>
+      <c r="K42" s="463"/>
+      <c r="L42" s="463"/>
+      <c r="M42" s="463"/>
+      <c r="N42" s="463"/>
       <c r="O42" s="70" t="s">
         <v>390</v>
       </c>
@@ -23871,31 +23874,31 @@
       <c r="E49" s="92"/>
       <c r="F49" s="92"/>
       <c r="G49" s="92"/>
-      <c r="H49" s="435" t="s">
+      <c r="H49" s="463" t="s">
         <v>314</v>
       </c>
-      <c r="I49" s="435"/>
-      <c r="J49" s="435"/>
-      <c r="K49" s="435"/>
-      <c r="L49" s="435"/>
-      <c r="M49" s="435"/>
-      <c r="N49" s="435"/>
+      <c r="I49" s="463"/>
+      <c r="J49" s="463"/>
+      <c r="K49" s="463"/>
+      <c r="L49" s="463"/>
+      <c r="M49" s="463"/>
+      <c r="N49" s="463"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="443" t="s">
+      <c r="A50" s="472" t="s">
         <v>327</v>
       </c>
-      <c r="B50" s="443"/>
-      <c r="C50" s="443"/>
-      <c r="D50" s="443"/>
+      <c r="B50" s="472"/>
+      <c r="C50" s="472"/>
+      <c r="D50" s="472"/>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
       <c r="G50" s="92"/>
-      <c r="H50" s="433" t="s">
+      <c r="H50" s="457" t="s">
         <v>358</v>
       </c>
-      <c r="I50" s="433"/>
+      <c r="I50" s="457"/>
       <c r="J50" s="86">
         <f>J44/J43</f>
         <v>8.8461827956989245E-2</v>
@@ -23922,18 +23925,18 @@
       <c r="A51" s="127" t="s">
         <v>326</v>
       </c>
-      <c r="B51" s="447">
+      <c r="B51" s="476">
         <v>0.35</v>
       </c>
-      <c r="C51" s="447"/>
-      <c r="D51" s="447"/>
+      <c r="C51" s="476"/>
+      <c r="D51" s="476"/>
       <c r="E51" s="91"/>
       <c r="F51" s="92"/>
       <c r="G51" s="92"/>
-      <c r="H51" s="433" t="s">
+      <c r="H51" s="457" t="s">
         <v>391</v>
       </c>
-      <c r="I51" s="433"/>
+      <c r="I51" s="457"/>
       <c r="J51" s="86">
         <f>J45/J43</f>
         <v>0.15480322580645159</v>
@@ -23972,10 +23975,10 @@
       <c r="E52" s="91"/>
       <c r="F52" s="92"/>
       <c r="G52" s="92"/>
-      <c r="H52" s="433" t="s">
+      <c r="H52" s="457" t="s">
         <v>315</v>
       </c>
-      <c r="I52" s="433"/>
+      <c r="I52" s="457"/>
       <c r="J52" s="86">
         <f>SUM(J46:J48)/SUM(J43:J45)</f>
         <v>0.83349773164919105</v>
@@ -24016,10 +24019,10 @@
       <c r="E53" s="92"/>
       <c r="F53" s="92"/>
       <c r="G53" s="92"/>
-      <c r="H53" s="433" t="s">
+      <c r="H53" s="457" t="s">
         <v>359</v>
       </c>
-      <c r="I53" s="433"/>
+      <c r="I53" s="457"/>
       <c r="J53" s="86">
         <f>J46/J43</f>
         <v>0.87725806451612898</v>
@@ -24076,13 +24079,13 @@
       <c r="E55" s="92"/>
       <c r="F55" s="92"/>
       <c r="G55" s="92"/>
-      <c r="H55" s="389" t="s">
+      <c r="H55" s="425" t="s">
         <v>370</v>
       </c>
-      <c r="I55" s="389"/>
-      <c r="J55" s="389"/>
-      <c r="K55" s="389"/>
-      <c r="L55" s="389"/>
+      <c r="I55" s="425"/>
+      <c r="J55" s="425"/>
+      <c r="K55" s="425"/>
+      <c r="L55" s="425"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="99" t="s">
@@ -24121,21 +24124,21 @@
       <c r="E57" s="91"/>
       <c r="F57" s="92"/>
       <c r="G57" s="92"/>
-      <c r="H57" s="420" t="s">
+      <c r="H57" s="447" t="s">
         <v>341</v>
       </c>
-      <c r="I57" s="420"/>
-      <c r="J57" s="420"/>
-      <c r="K57" s="420"/>
+      <c r="I57" s="447"/>
+      <c r="J57" s="447"/>
+      <c r="K57" s="447"/>
       <c r="L57" s="71"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="443" t="s">
+      <c r="A58" s="472" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="443"/>
-      <c r="C58" s="443"/>
-      <c r="D58" s="443"/>
+      <c r="B58" s="472"/>
+      <c r="C58" s="472"/>
+      <c r="D58" s="472"/>
       <c r="E58" s="92"/>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
@@ -24157,11 +24160,11 @@
       <c r="A59" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="B59" s="444">
+      <c r="B59" s="473">
         <v>0.44</v>
       </c>
-      <c r="C59" s="445"/>
-      <c r="D59" s="446"/>
+      <c r="C59" s="474"/>
+      <c r="D59" s="475"/>
       <c r="E59" s="92"/>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
@@ -24339,12 +24342,12 @@
       <c r="E65" s="94"/>
       <c r="F65" s="94"/>
       <c r="G65" s="94"/>
-      <c r="H65" s="420" t="s">
+      <c r="H65" s="447" t="s">
         <v>380</v>
       </c>
-      <c r="I65" s="420"/>
-      <c r="J65" s="420"/>
-      <c r="K65" s="420"/>
+      <c r="I65" s="447"/>
+      <c r="J65" s="447"/>
+      <c r="K65" s="447"/>
       <c r="L65" s="71" t="s">
         <v>316</v>
       </c>
@@ -24377,13 +24380,13 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="437" t="s">
+      <c r="A67" s="467" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="438"/>
-      <c r="C67" s="438"/>
-      <c r="D67" s="438"/>
-      <c r="E67" s="438"/>
+      <c r="B67" s="468"/>
+      <c r="C67" s="468"/>
+      <c r="D67" s="468"/>
+      <c r="E67" s="468"/>
       <c r="H67" s="79" t="s">
         <v>398</v>
       </c>
@@ -24569,12 +24572,12 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H73" s="435" t="s">
+      <c r="H73" s="463" t="s">
         <v>314</v>
       </c>
-      <c r="I73" s="435"/>
-      <c r="J73" s="435"/>
-      <c r="K73" s="435"/>
+      <c r="I73" s="463"/>
+      <c r="J73" s="463"/>
+      <c r="K73" s="463"/>
       <c r="L73" s="71"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -24654,18 +24657,18 @@
       <c r="K78" s="73"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H79" s="393" t="s">
+      <c r="H79" s="417" t="s">
         <v>371</v>
       </c>
-      <c r="I79" s="394"/>
-      <c r="J79" s="395"/>
+      <c r="I79" s="418"/>
+      <c r="J79" s="419"/>
       <c r="K79" s="73"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H80" s="420" t="s">
+      <c r="H80" s="447" t="s">
         <v>341</v>
       </c>
-      <c r="I80" s="420"/>
+      <c r="I80" s="447"/>
       <c r="J80" s="17"/>
       <c r="K80" s="73"/>
     </row>
@@ -24744,10 +24747,10 @@
       <c r="J88" s="71"/>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H89" s="420" t="s">
+      <c r="H89" s="447" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="420"/>
+      <c r="I89" s="447"/>
       <c r="J89" s="71" t="s">
         <v>316</v>
       </c>
@@ -24858,10 +24861,10 @@
       </c>
     </row>
     <row r="99" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H99" s="420" t="s">
+      <c r="H99" s="447" t="s">
         <v>314</v>
       </c>
-      <c r="I99" s="420"/>
+      <c r="I99" s="447"/>
       <c r="J99" s="71"/>
     </row>
     <row r="100" spans="8:10" x14ac:dyDescent="0.25">
@@ -24909,21 +24912,22 @@
     <sortCondition ref="D101"/>
   </sortState>
   <mergeCells count="47">
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="H42:N42"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
@@ -24940,22 +24944,21 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="H25:M25"/>
     <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24975,7 +24978,7 @@
     <col min="24" max="24" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="84" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A1" s="299" t="s">
         <v>627</v>
       </c>

--- a/aeromaps/resources/cost_data/Biomass_Data.xlsx
+++ b/aeromaps/resources/cost_data/Biomass_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8341E68-C49D-4D0D-B3EE-D14B5BD82C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC2082-2AE4-497D-8F38-B3E3BD44B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthesis" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3015" uniqueCount="850">
   <si>
     <t>Forest residues</t>
   </si>
@@ -2607,7 +2607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2618,6 +2618,7 @@
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;????\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.000000\ &quot;€&quot;_-;\-* #,##0.000000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -3677,7 +3678,7 @@
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="609">
+  <cellXfs count="610">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4586,6 +4587,19 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4611,15 +4625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4715,12 +4720,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4730,16 +4729,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4750,6 +4746,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4775,109 +4774,19 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4899,6 +4808,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4934,43 +4846,97 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5021,37 +4987,70 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5090,32 +5089,56 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="19" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5144,27 +5167,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -7066,125 +7068,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="424" t="s">
+      <c r="A1" s="419" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="D1" s="425" t="s">
+      <c r="B1" s="419"/>
+      <c r="D1" s="420" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="425"/>
-      <c r="F1" s="425"/>
+      <c r="E1" s="420"/>
+      <c r="F1" s="420"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="424"/>
-      <c r="B2" s="424"/>
+      <c r="A2" s="419"/>
+      <c r="B2" s="419"/>
       <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="423" t="s">
+      <c r="E2" s="418" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="423"/>
+      <c r="F2" s="418"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="424"/>
-      <c r="B3" s="424"/>
+      <c r="A3" s="419"/>
+      <c r="B3" s="419"/>
       <c r="D3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="423" t="s">
+      <c r="E3" s="418" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="423"/>
+      <c r="F3" s="418"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="424"/>
-      <c r="B4" s="424"/>
+      <c r="A4" s="419"/>
+      <c r="B4" s="419"/>
       <c r="D4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="423" t="s">
+      <c r="E4" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="423"/>
+      <c r="F4" s="418"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="424"/>
-      <c r="B5" s="424"/>
+      <c r="A5" s="419"/>
+      <c r="B5" s="419"/>
       <c r="D5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="423" t="s">
+      <c r="E5" s="418" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="423"/>
+      <c r="F5" s="418"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="424"/>
-      <c r="B6" s="424"/>
+      <c r="A6" s="419"/>
+      <c r="B6" s="419"/>
       <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="423" t="s">
+      <c r="E6" s="418" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="423"/>
+      <c r="F6" s="418"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="424"/>
-      <c r="B7" s="424"/>
+      <c r="A7" s="419"/>
+      <c r="B7" s="419"/>
       <c r="D7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="423" t="s">
+      <c r="E7" s="418" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="423"/>
+      <c r="F7" s="418"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="424"/>
-      <c r="B8" s="424"/>
+      <c r="A8" s="419"/>
+      <c r="B8" s="419"/>
       <c r="D8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="423" t="s">
+      <c r="E8" s="418" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="423"/>
+      <c r="F8" s="418"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="424"/>
-      <c r="B9" s="424"/>
+      <c r="A9" s="419"/>
+      <c r="B9" s="419"/>
       <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="423" t="s">
+      <c r="E9" s="418" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="423"/>
+      <c r="F9" s="418"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="424"/>
-      <c r="B10" s="424"/>
+      <c r="A10" s="419"/>
+      <c r="B10" s="419"/>
       <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="423" t="s">
+      <c r="E10" s="418" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="423"/>
+      <c r="F10" s="418"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="424"/>
-      <c r="B11" s="424"/>
+      <c r="A11" s="419"/>
+      <c r="B11" s="419"/>
       <c r="D11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="423" t="s">
+      <c r="E11" s="418" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="423"/>
+      <c r="F11" s="418"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -7195,14 +7197,14 @@
       <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="414" t="s">
+      <c r="A13" s="421" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="415"/>
-      <c r="C13" s="415"/>
-      <c r="D13" s="415"/>
-      <c r="E13" s="415"/>
-      <c r="F13" s="416"/>
+      <c r="B13" s="422"/>
+      <c r="C13" s="422"/>
+      <c r="D13" s="422"/>
+      <c r="E13" s="422"/>
+      <c r="F13" s="423"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -7293,13 +7295,13 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="417" t="s">
+      <c r="A19" s="424" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="418"/>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="419"/>
+      <c r="B19" s="425"/>
+      <c r="C19" s="425"/>
+      <c r="D19" s="425"/>
+      <c r="E19" s="426"/>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -7342,12 +7344,12 @@
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="420" t="s">
+      <c r="B22" s="427" t="s">
         <v>308</v>
       </c>
-      <c r="C22" s="421"/>
-      <c r="D22" s="421"/>
-      <c r="E22" s="422"/>
+      <c r="C22" s="428"/>
+      <c r="D22" s="428"/>
+      <c r="E22" s="429"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -7359,13 +7361,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="417" t="s">
+      <c r="A24" s="424" t="s">
         <v>309</v>
       </c>
-      <c r="B24" s="418"/>
-      <c r="C24" s="418"/>
-      <c r="D24" s="418"/>
-      <c r="E24" s="419"/>
+      <c r="B24" s="425"/>
+      <c r="C24" s="425"/>
+      <c r="D24" s="425"/>
+      <c r="E24" s="426"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -7413,14 +7415,14 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="417" t="s">
+      <c r="A28" s="424" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="418"/>
-      <c r="C28" s="418"/>
-      <c r="D28" s="418"/>
-      <c r="E28" s="418"/>
-      <c r="F28" s="419"/>
+      <c r="B28" s="425"/>
+      <c r="C28" s="425"/>
+      <c r="D28" s="425"/>
+      <c r="E28" s="425"/>
+      <c r="F28" s="426"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
@@ -7481,12 +7483,12 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="417" t="s">
+      <c r="A33" s="424" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="418"/>
-      <c r="C33" s="418"/>
-      <c r="D33" s="419"/>
+      <c r="B33" s="425"/>
+      <c r="C33" s="425"/>
+      <c r="D33" s="426"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
@@ -7544,6 +7546,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="A1:B11"/>
@@ -7556,12 +7564,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7575,8 +7577,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,65 +7598,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="509" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="505"/>
-      <c r="I1" s="505"/>
-      <c r="J1" s="505"/>
-      <c r="K1" s="505"/>
-      <c r="L1" s="506"/>
+      <c r="B1" s="510"/>
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="511"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="507"/>
-      <c r="B2" s="508"/>
-      <c r="C2" s="508"/>
-      <c r="D2" s="508"/>
-      <c r="E2" s="508"/>
-      <c r="F2" s="508"/>
-      <c r="G2" s="508"/>
-      <c r="H2" s="508"/>
-      <c r="I2" s="508"/>
-      <c r="J2" s="508"/>
-      <c r="K2" s="508"/>
-      <c r="L2" s="509"/>
+      <c r="A2" s="512"/>
+      <c r="B2" s="513"/>
+      <c r="C2" s="513"/>
+      <c r="D2" s="513"/>
+      <c r="E2" s="513"/>
+      <c r="F2" s="513"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
+      <c r="K2" s="513"/>
+      <c r="L2" s="514"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="490" t="s">
+      <c r="A3" s="515" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="491"/>
-      <c r="C3" s="491"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="491"/>
-      <c r="F3" s="491"/>
-      <c r="G3" s="491"/>
-      <c r="H3" s="491"/>
-      <c r="I3" s="491"/>
-      <c r="J3" s="491"/>
-      <c r="K3" s="491"/>
-      <c r="L3" s="492"/>
+      <c r="B3" s="516"/>
+      <c r="C3" s="516"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="516"/>
+      <c r="F3" s="516"/>
+      <c r="G3" s="516"/>
+      <c r="H3" s="516"/>
+      <c r="I3" s="516"/>
+      <c r="J3" s="516"/>
+      <c r="K3" s="516"/>
+      <c r="L3" s="517"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="481" t="s">
         <v>420</v>
       </c>
-      <c r="B4" s="478"/>
-      <c r="C4" s="479"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="483"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="E4" s="518"/>
+      <c r="F4" s="518"/>
+      <c r="G4" s="518"/>
       <c r="H4" s="141"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="511"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="518"/>
+      <c r="K4" s="518"/>
       <c r="L4" s="249" t="s">
         <v>462</v>
       </c>
@@ -7677,7 +7679,7 @@
       <c r="I5" s="211"/>
       <c r="J5" s="211"/>
       <c r="K5" s="211"/>
-      <c r="L5" s="497" t="s">
+      <c r="L5" s="523" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7699,23 +7701,23 @@
       <c r="I6" s="212"/>
       <c r="J6" s="212"/>
       <c r="K6" s="212"/>
-      <c r="L6" s="498"/>
+      <c r="L6" s="524"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="490" t="s">
+      <c r="A7" s="515" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-      <c r="F7" s="491"/>
-      <c r="G7" s="491"/>
-      <c r="H7" s="491"/>
-      <c r="I7" s="491"/>
-      <c r="J7" s="491"/>
-      <c r="K7" s="491"/>
-      <c r="L7" s="492"/>
+      <c r="B7" s="516"/>
+      <c r="C7" s="516"/>
+      <c r="D7" s="516"/>
+      <c r="E7" s="516"/>
+      <c r="F7" s="516"/>
+      <c r="G7" s="516"/>
+      <c r="H7" s="516"/>
+      <c r="I7" s="516"/>
+      <c r="J7" s="516"/>
+      <c r="K7" s="516"/>
+      <c r="L7" s="517"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -7748,7 +7750,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="493" t="s">
+      <c r="A9" s="519" t="s">
         <v>565</v>
       </c>
       <c r="B9" s="250" t="s">
@@ -7775,7 +7777,7 @@
       <c r="L9" s="245"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="494"/>
+      <c r="A10" s="520"/>
       <c r="B10" s="151" t="s">
         <v>203</v>
       </c>
@@ -7810,22 +7812,22 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499" t="s">
+      <c r="A11" s="525" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="500"/>
-      <c r="C11" s="501">
+      <c r="B11" s="526"/>
+      <c r="C11" s="527">
         <v>86.8</v>
       </c>
-      <c r="D11" s="502"/>
-      <c r="E11" s="503"/>
+      <c r="D11" s="528"/>
+      <c r="E11" s="529"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="501">
+      <c r="G11" s="527">
         <f>C11*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H11" s="502"/>
-      <c r="I11" s="503"/>
+      <c r="H11" s="528"/>
+      <c r="I11" s="529"/>
       <c r="J11" s="141"/>
       <c r="K11" s="141"/>
       <c r="L11" s="167" t="s">
@@ -7833,20 +7835,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="490" t="s">
+      <c r="A12" s="515" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="491"/>
-      <c r="C12" s="491"/>
-      <c r="D12" s="491"/>
-      <c r="E12" s="491"/>
-      <c r="F12" s="491"/>
-      <c r="G12" s="491"/>
-      <c r="H12" s="491"/>
-      <c r="I12" s="491"/>
-      <c r="J12" s="491"/>
-      <c r="K12" s="491"/>
-      <c r="L12" s="492"/>
+      <c r="B12" s="516"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="516"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="516"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="517"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="246" t="s">
@@ -7889,20 +7891,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="490" t="s">
+      <c r="A15" s="515" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="491"/>
-      <c r="C15" s="491"/>
-      <c r="D15" s="491"/>
-      <c r="E15" s="491"/>
-      <c r="F15" s="491"/>
-      <c r="G15" s="491"/>
-      <c r="H15" s="491"/>
-      <c r="I15" s="491"/>
-      <c r="J15" s="491"/>
-      <c r="K15" s="491"/>
-      <c r="L15" s="492"/>
+      <c r="B15" s="516"/>
+      <c r="C15" s="516"/>
+      <c r="D15" s="516"/>
+      <c r="E15" s="516"/>
+      <c r="F15" s="516"/>
+      <c r="G15" s="516"/>
+      <c r="H15" s="516"/>
+      <c r="I15" s="516"/>
+      <c r="J15" s="516"/>
+      <c r="K15" s="516"/>
+      <c r="L15" s="517"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="246" t="s">
@@ -8044,20 +8046,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="495" t="s">
+      <c r="A21" s="521" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="491"/>
-      <c r="C21" s="491"/>
-      <c r="D21" s="491"/>
-      <c r="E21" s="491"/>
-      <c r="F21" s="491"/>
-      <c r="G21" s="491"/>
-      <c r="H21" s="491"/>
-      <c r="I21" s="491"/>
-      <c r="J21" s="491"/>
-      <c r="K21" s="491"/>
-      <c r="L21" s="496"/>
+      <c r="B21" s="516"/>
+      <c r="C21" s="516"/>
+      <c r="D21" s="516"/>
+      <c r="E21" s="516"/>
+      <c r="F21" s="516"/>
+      <c r="G21" s="516"/>
+      <c r="H21" s="516"/>
+      <c r="I21" s="516"/>
+      <c r="J21" s="516"/>
+      <c r="K21" s="516"/>
+      <c r="L21" s="522"/>
     </row>
     <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
@@ -8126,7 +8128,7 @@
         <f>Biomass_Cost!C10</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I23" s="607">
+      <c r="I23" s="415">
         <f>D23*$B$6/35.3</f>
         <v>9.9256789367767502E-3</v>
       </c>
@@ -8170,7 +8172,7 @@
         <f>Biomass_Cost!C11</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I24" s="607">
+      <c r="I24" s="415">
         <f>D24*$B$6/35.3</f>
         <v>4.2212657547211459E-3</v>
       </c>
@@ -8214,7 +8216,7 @@
         <f>Biomass_Cost!C12</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I25" s="607">
+      <c r="I25" s="415">
         <f t="shared" ref="I25:I30" si="0">D25*$B$6/35.3</f>
         <v>0</v>
       </c>
@@ -8258,7 +8260,7 @@
         <f>Biomass_Cost!C13</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I26" s="607">
+      <c r="I26" s="415">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8302,8 +8304,8 @@
         <f>Biomass_Cost!C14</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I27" s="607">
-        <f t="shared" si="0"/>
+      <c r="I27" s="415">
+        <f>D27*$B$6/35.3</f>
         <v>8.5566197730834043E-3</v>
       </c>
       <c r="J27" s="141"/>
@@ -8336,7 +8338,7 @@
       </c>
       <c r="F28" s="209">
         <f>Biomass_Cost!Z53</f>
-        <v>1180363.0780797016</v>
+        <v>3500081.6342325201</v>
       </c>
       <c r="G28" s="206">
         <f>Biomass_Cost!AA53</f>
@@ -8346,7 +8348,7 @@
         <f>Biomass_Cost!C53</f>
         <v>FT-MSW</v>
       </c>
-      <c r="I28" s="607">
+      <c r="I28" s="415">
         <f t="shared" si="0"/>
         <v>9.2323139184951403E-6</v>
       </c>
@@ -8380,7 +8382,7 @@
       </c>
       <c r="F29" s="209">
         <f>Biomass_Cost!Z54</f>
-        <v>1180363.0780797016</v>
+        <v>3528082.28730638</v>
       </c>
       <c r="G29" s="206">
         <f>Biomass_Cost!AA54</f>
@@ -8390,7 +8392,7 @@
         <f>Biomass_Cost!C54</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I29" s="607">
+      <c r="I29" s="415">
         <f t="shared" si="0"/>
         <v>5.6383060001478982E-3</v>
       </c>
@@ -8424,7 +8426,7 @@
       </c>
       <c r="F30" s="209">
         <f>Biomass_Cost!Z55</f>
-        <v>1180363.0780797016</v>
+        <v>3528082.28730638</v>
       </c>
       <c r="G30" s="206">
         <f>Biomass_Cost!AA55</f>
@@ -8434,7 +8436,7 @@
         <f>Biomass_Cost!C55</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I30" s="607">
+      <c r="I30" s="415">
         <f t="shared" si="0"/>
         <v>6.9736942633408976E-3</v>
       </c>
@@ -8475,7 +8477,7 @@
         <f>Biomass_Cost!C62</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I31" s="607" t="s">
+      <c r="I31" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J31" s="141"/>
@@ -8515,7 +8517,7 @@
         <f>Biomass_Cost!C63</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I32" s="607" t="s">
+      <c r="I32" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J32" s="141"/>
@@ -8555,7 +8557,7 @@
         <f>Biomass_Cost!C64</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I33" s="607" t="s">
+      <c r="I33" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J33" s="141"/>
@@ -8595,7 +8597,7 @@
         <f>Biomass_Cost!C65</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I34" s="607" t="s">
+      <c r="I34" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J34" s="141"/>
@@ -8635,7 +8637,7 @@
         <f>Biomass_Cost!C66</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I35" s="607" t="s">
+      <c r="I35" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J35" s="141"/>
@@ -8675,7 +8677,7 @@
         <f>Biomass_Cost!C67</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I36" s="607" t="s">
+      <c r="I36" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J36" s="141"/>
@@ -8715,7 +8717,7 @@
         <f>Biomass_Cost!C68</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I37" s="607" t="s">
+      <c r="I37" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J37" s="141"/>
@@ -8755,7 +8757,7 @@
         <f>Biomass_Cost!C69</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I38" s="607" t="s">
+      <c r="I38" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J38" s="141"/>
@@ -8795,7 +8797,7 @@
         <f>Biomass_Cost!C70</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I39" s="607" t="s">
+      <c r="I39" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J39" s="141"/>
@@ -8835,7 +8837,7 @@
         <f>Biomass_Cost!C71</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I40" s="607" t="s">
+      <c r="I40" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J40" s="141"/>
@@ -8875,7 +8877,7 @@
         <f>Biomass_Cost!C72</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I41" s="607" t="s">
+      <c r="I41" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J41" s="141"/>
@@ -8915,7 +8917,7 @@
         <f>Biomass_Cost!C73</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I42" s="607" t="s">
+      <c r="I42" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J42" s="141"/>
@@ -8955,7 +8957,7 @@
         <f>Biomass_Cost!C74</f>
         <v>FT-Biomass</v>
       </c>
-      <c r="I43" s="607" t="s">
+      <c r="I43" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J43" s="141"/>
@@ -8995,7 +8997,7 @@
         <f>Biomass_Cost!C75</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I44" s="607" t="s">
+      <c r="I44" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J44" s="141"/>
@@ -9035,7 +9037,7 @@
         <f>Biomass_Cost!C76</f>
         <v>FT-Residue</v>
       </c>
-      <c r="I45" s="608" t="s">
+      <c r="I45" s="416" t="s">
         <v>482</v>
       </c>
       <c r="J45" s="142"/>
@@ -9046,17 +9048,17 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="510" t="s">
+      <c r="A46" s="481" t="s">
         <v>501</v>
       </c>
-      <c r="B46" s="478"/>
-      <c r="C46" s="478"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="467" t="s">
+      <c r="B46" s="482"/>
+      <c r="C46" s="482"/>
+      <c r="D46" s="483"/>
+      <c r="E46" s="468" t="s">
         <v>502</v>
       </c>
-      <c r="F46" s="468"/>
-      <c r="G46" s="512"/>
+      <c r="F46" s="469"/>
+      <c r="G46" s="484"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -9109,15 +9111,15 @@
       </c>
       <c r="E48" s="384">
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,1)</f>
-        <v>1180363.0780797016</v>
+        <v>1478401.9890089601</v>
       </c>
       <c r="F48" s="402">
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,2)</f>
-        <v>1663828.6791558466</v>
+        <v>2093222.6681607424</v>
       </c>
       <c r="G48" s="402">
         <f>+_xlfn.QUARTILE.EXC($F23:$F45,3)</f>
-        <v>2748207.2958534299</v>
+        <v>3368780.2315711956</v>
       </c>
       <c r="H48" s="141"/>
       <c r="I48" s="401"/>
@@ -9143,15 +9145,15 @@
       </c>
       <c r="E49" s="400">
         <f>_xlfn.QUARTILE.EXC(($F24,$F27,$F30:$F33,$F36:$F40,$F43),1)</f>
-        <v>1169512.0108316932</v>
+        <v>1213683.8446474303</v>
       </c>
       <c r="F49" s="188">
         <f>_xlfn.QUARTILE.EXC(($F24,$F27,$F30:$F33,$F36:$F40,$F43),2)</f>
-        <v>2256141.3937558876</v>
+        <v>2583633.7076022313</v>
       </c>
       <c r="G49" s="188">
         <f>_xlfn.QUARTILE.EXC(($F24,$F27,$F30:$F33,$F36:$F40,$F43),3)</f>
-        <v>3310399.7827109178</v>
+        <v>3488256.773372584</v>
       </c>
       <c r="H49" s="401"/>
       <c r="I49" s="401"/>
@@ -9177,15 +9179,15 @@
       </c>
       <c r="E50" s="400">
         <f>_xlfn.QUARTILE.EXC(($F23,$F29,$F34:$F35,$F41:$F42,$F44:$F45),1)</f>
-        <v>1254872.8058120161</v>
+        <v>1500327.4422357879</v>
       </c>
       <c r="F50" s="188">
         <f>_xlfn.QUARTILE.EXC(($F23,$F29,$F34:$F35,$F41:$F42,$F44:$F45),2)</f>
-        <v>1601895.5606446574</v>
+        <v>1650757.9992644452</v>
       </c>
       <c r="G50" s="188">
         <f>_xlfn.QUARTILE.EXC(($F23,$F29,$F34:$F35,$F41:$F42,$F44:$F45),3)</f>
-        <v>1934451.4161269781</v>
+        <v>2051551.7967573812</v>
       </c>
       <c r="H50" s="401"/>
       <c r="I50" s="401"/>
@@ -9211,20 +9213,20 @@
       </c>
       <c r="E51" s="400">
         <f>+_xlfn.QUARTILE.EXC(($F$23:$F$24,$F$27,$F$29:$F$45),1)</f>
-        <v>1180363.0780797016</v>
+        <v>1387388.3072592281</v>
       </c>
       <c r="F51" s="188">
         <f>+_xlfn.QUARTILE.EXC(($F$23:$F$24,$F$27,$F$29:$F$45),2)</f>
-        <v>1650757.9992644452</v>
+        <v>2042587.5295440392</v>
       </c>
       <c r="G51" s="188">
         <f>+_xlfn.QUARTILE.EXC(($F$23:$F$24,$F$27,$F$29:$F$45),3)</f>
-        <v>2665920.5017278306</v>
-      </c>
-      <c r="H51" s="486" t="s">
+        <v>3310399.7827109178</v>
+      </c>
+      <c r="H51" s="530" t="s">
         <v>844</v>
       </c>
-      <c r="I51" s="487"/>
+      <c r="I51" s="531"/>
       <c r="J51" s="141"/>
       <c r="K51" s="141"/>
       <c r="L51" s="222"/>
@@ -9247,29 +9249,29 @@
       </c>
       <c r="E52" s="403">
         <f>_xlfn.QUARTILE.EXC(($F25:$F26,$F28),1)</f>
-        <v>1180363.0780797016</v>
+        <v>2191342.4807307739</v>
       </c>
       <c r="F52" s="190">
         <f>_xlfn.QUARTILE.EXC(($F25:$F26,$F28),2)</f>
-        <v>2191342.4807307739</v>
+        <v>3041714.1896710731</v>
       </c>
       <c r="G52" s="190">
         <f>_xlfn.QUARTILE.EXC(($F25:$F26,$F28),3)</f>
-        <v>3041714.1896710731</v>
-      </c>
-      <c r="H52" s="488"/>
-      <c r="I52" s="489"/>
+        <v>3500081.6342325201</v>
+      </c>
+      <c r="H52" s="532"/>
+      <c r="I52" s="533"/>
       <c r="J52" s="141"/>
       <c r="K52" s="141"/>
       <c r="L52" s="222"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="527" t="s">
+      <c r="A53" s="500" t="s">
         <v>841</v>
       </c>
-      <c r="B53" s="528"/>
-      <c r="C53" s="528"/>
-      <c r="D53" s="529"/>
+      <c r="B53" s="501"/>
+      <c r="C53" s="501"/>
+      <c r="D53" s="502"/>
       <c r="E53" s="396"/>
       <c r="F53" s="397"/>
       <c r="G53" s="398"/>
@@ -9295,11 +9297,11 @@
         <f>+_xlfn.QUARTILE.EXC(($C$23:$C$24,$C$27,$C$29:$C$45),3)</f>
         <v>0.49028191209945715</v>
       </c>
-      <c r="E54" s="480" t="s">
+      <c r="E54" s="503" t="s">
         <v>842</v>
       </c>
-      <c r="F54" s="481"/>
-      <c r="G54" s="482"/>
+      <c r="F54" s="504"/>
+      <c r="G54" s="505"/>
       <c r="H54" s="141"/>
       <c r="I54" s="141"/>
       <c r="J54" s="141"/>
@@ -9322,9 +9324,9 @@
         <f>_xlfn.QUARTILE.EXC((C25:C26,C28),3)</f>
         <v>0.2976711609175276</v>
       </c>
-      <c r="E55" s="483"/>
-      <c r="F55" s="484"/>
-      <c r="G55" s="485"/>
+      <c r="E55" s="506"/>
+      <c r="F55" s="507"/>
+      <c r="G55" s="508"/>
       <c r="H55" s="141"/>
       <c r="I55" s="141"/>
       <c r="J55" s="141"/>
@@ -9332,12 +9334,12 @@
       <c r="L55" s="222"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="477" t="s">
+      <c r="A56" s="491" t="s">
         <v>849</v>
       </c>
-      <c r="B56" s="478"/>
-      <c r="C56" s="478"/>
-      <c r="D56" s="479"/>
+      <c r="B56" s="482"/>
+      <c r="C56" s="482"/>
+      <c r="D56" s="483"/>
       <c r="E56" s="395"/>
       <c r="F56" s="387"/>
       <c r="G56" s="388"/>
@@ -9363,11 +9365,11 @@
         <f>+_xlfn.QUARTILE.EXC(($I$23:$I$24,$I$27,$I$29:$I$45),3)</f>
         <v>9.2411493549300772E-3</v>
       </c>
-      <c r="E57" s="480" t="s">
+      <c r="E57" s="503" t="s">
         <v>843</v>
       </c>
-      <c r="F57" s="481"/>
-      <c r="G57" s="482"/>
+      <c r="F57" s="504"/>
+      <c r="G57" s="505"/>
       <c r="H57" s="141"/>
       <c r="I57" s="141"/>
       <c r="J57" s="141"/>
@@ -9390,9 +9392,9 @@
         <f>_xlfn.QUARTILE.EXC(($I$25:$I$26,$I$28),3)</f>
         <v>9.2323139184951403E-6</v>
       </c>
-      <c r="E58" s="483"/>
-      <c r="F58" s="484"/>
-      <c r="G58" s="485"/>
+      <c r="E58" s="506"/>
+      <c r="F58" s="507"/>
+      <c r="G58" s="508"/>
       <c r="H58" s="141"/>
       <c r="I58" s="141"/>
       <c r="J58" s="141"/>
@@ -9400,20 +9402,20 @@
       <c r="L58" s="222"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="522" t="s">
+      <c r="A59" s="495" t="s">
         <v>491</v>
       </c>
-      <c r="B59" s="523"/>
-      <c r="C59" s="523"/>
-      <c r="D59" s="523"/>
-      <c r="E59" s="523"/>
-      <c r="F59" s="523"/>
-      <c r="G59" s="523"/>
-      <c r="H59" s="523"/>
-      <c r="I59" s="523"/>
-      <c r="J59" s="523"/>
-      <c r="K59" s="523"/>
-      <c r="L59" s="524"/>
+      <c r="B59" s="496"/>
+      <c r="C59" s="496"/>
+      <c r="D59" s="496"/>
+      <c r="E59" s="496"/>
+      <c r="F59" s="496"/>
+      <c r="G59" s="496"/>
+      <c r="H59" s="496"/>
+      <c r="I59" s="496"/>
+      <c r="J59" s="496"/>
+      <c r="K59" s="496"/>
+      <c r="L59" s="497"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="225" t="s">
@@ -9435,10 +9437,10 @@
       <c r="L60" s="231"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="525" t="s">
+      <c r="A61" s="498" t="s">
         <v>531</v>
       </c>
-      <c r="B61" s="526"/>
+      <c r="B61" s="499"/>
       <c r="C61" s="141"/>
       <c r="D61" s="141"/>
       <c r="E61" s="141"/>
@@ -9453,26 +9455,26 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="226"/>
       <c r="B62" s="154"/>
-      <c r="C62" s="477" t="s">
+      <c r="C62" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="D62" s="478"/>
-      <c r="E62" s="478"/>
-      <c r="F62" s="467" t="s">
+      <c r="D62" s="482"/>
+      <c r="E62" s="482"/>
+      <c r="F62" s="468" t="s">
         <v>609</v>
       </c>
-      <c r="G62" s="468"/>
-      <c r="H62" s="468"/>
+      <c r="G62" s="469"/>
+      <c r="H62" s="469"/>
       <c r="I62" s="141"/>
       <c r="J62" s="141"/>
       <c r="K62" s="141"/>
       <c r="L62" s="222"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="521" t="s">
+      <c r="A63" s="494" t="s">
         <v>251</v>
       </c>
-      <c r="B63" s="419"/>
+      <c r="B63" s="426"/>
       <c r="C63" s="14" t="s">
         <v>588</v>
       </c>
@@ -9497,7 +9499,7 @@
       <c r="L63" s="222"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="519" t="s">
+      <c r="A64" s="492" t="s">
         <v>591</v>
       </c>
       <c r="B64" s="210" t="s">
@@ -9527,7 +9529,7 @@
       <c r="L64" s="222"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="520"/>
+      <c r="A65" s="493"/>
       <c r="B65" s="147" t="s">
         <v>595</v>
       </c>
@@ -9561,7 +9563,7 @@
       <c r="L65" s="222"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="520"/>
+      <c r="A66" s="493"/>
       <c r="B66" s="147" t="s">
         <v>596</v>
       </c>
@@ -9589,7 +9591,7 @@
       <c r="L66" s="222"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="520" t="s">
+      <c r="A67" s="493" t="s">
         <v>592</v>
       </c>
       <c r="B67" s="210" t="s">
@@ -9619,7 +9621,7 @@
       <c r="L67" s="222"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="520"/>
+      <c r="A68" s="493"/>
       <c r="B68" s="147" t="s">
         <v>595</v>
       </c>
@@ -9653,7 +9655,7 @@
       <c r="L68" s="222"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="520"/>
+      <c r="A69" s="493"/>
       <c r="B69" s="147" t="s">
         <v>596</v>
       </c>
@@ -9681,7 +9683,7 @@
       <c r="L69" s="222"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="520" t="s">
+      <c r="A70" s="493" t="s">
         <v>593</v>
       </c>
       <c r="B70" s="210" t="s">
@@ -9711,7 +9713,7 @@
       <c r="L70" s="222"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="520"/>
+      <c r="A71" s="493"/>
       <c r="B71" s="147" t="s">
         <v>595</v>
       </c>
@@ -9745,7 +9747,7 @@
       <c r="L71" s="222"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="520"/>
+      <c r="A72" s="493"/>
       <c r="B72" s="147" t="s">
         <v>596</v>
       </c>
@@ -9803,7 +9805,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G78" s="513" t="s">
+      <c r="G78" s="485" t="s">
         <v>104</v>
       </c>
       <c r="H78" s="257" t="s">
@@ -9823,7 +9825,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G79" s="514"/>
+      <c r="G79" s="486"/>
       <c r="H79" s="257" t="s">
         <v>36</v>
       </c>
@@ -9841,7 +9843,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G80" s="515"/>
+      <c r="G80" s="487"/>
       <c r="H80" s="277" t="s">
         <v>37</v>
       </c>
@@ -9859,7 +9861,7 @@
       </c>
     </row>
     <row r="81" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G81" s="516" t="s">
+      <c r="G81" s="488" t="s">
         <v>1</v>
       </c>
       <c r="H81" s="257" t="s">
@@ -9879,7 +9881,7 @@
       </c>
     </row>
     <row r="82" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G82" s="517"/>
+      <c r="G82" s="489"/>
       <c r="H82" s="257" t="s">
         <v>36</v>
       </c>
@@ -9897,7 +9899,7 @@
       </c>
     </row>
     <row r="83" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G83" s="518"/>
+      <c r="G83" s="490"/>
       <c r="H83" s="277" t="s">
         <v>37</v>
       </c>
@@ -9915,7 +9917,7 @@
       </c>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G84" s="516" t="s">
+      <c r="G84" s="488" t="s">
         <v>0</v>
       </c>
       <c r="H84" s="257" t="s">
@@ -9935,7 +9937,7 @@
       </c>
     </row>
     <row r="85" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G85" s="517"/>
+      <c r="G85" s="489"/>
       <c r="H85" s="257" t="s">
         <v>36</v>
       </c>
@@ -9953,7 +9955,7 @@
       </c>
     </row>
     <row r="86" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="517"/>
+      <c r="G86" s="489"/>
       <c r="H86" s="277" t="s">
         <v>37</v>
       </c>
@@ -9971,7 +9973,7 @@
       </c>
     </row>
     <row r="87" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G87" s="433" t="s">
+      <c r="G87" s="437" t="s">
         <v>34</v>
       </c>
       <c r="H87" s="257" t="s">
@@ -9991,7 +9993,7 @@
       </c>
     </row>
     <row r="88" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G88" s="433"/>
+      <c r="G88" s="437"/>
       <c r="H88" s="257" t="s">
         <v>36</v>
       </c>
@@ -10009,7 +10011,7 @@
       </c>
     </row>
     <row r="89" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="436"/>
+      <c r="G89" s="440"/>
       <c r="H89" s="277" t="s">
         <v>37</v>
       </c>
@@ -10028,6 +10030,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E57:G58"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
     <mergeCell ref="G87:G89"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="A46:D46"/>
@@ -10044,23 +10063,6 @@
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="E54:G55"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A21:L21"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E57:G58"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A15:L15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10077,7 +10079,7 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10097,69 +10099,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="546" t="s">
+      <c r="A1" s="537" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="547"/>
-      <c r="C1" s="547"/>
-      <c r="D1" s="547"/>
-      <c r="E1" s="547"/>
-      <c r="F1" s="547"/>
-      <c r="G1" s="547"/>
-      <c r="H1" s="547"/>
-      <c r="I1" s="547"/>
-      <c r="J1" s="547"/>
-      <c r="K1" s="547"/>
-      <c r="L1" s="548"/>
+      <c r="B1" s="538"/>
+      <c r="C1" s="538"/>
+      <c r="D1" s="538"/>
+      <c r="E1" s="538"/>
+      <c r="F1" s="538"/>
+      <c r="G1" s="538"/>
+      <c r="H1" s="538"/>
+      <c r="I1" s="538"/>
+      <c r="J1" s="538"/>
+      <c r="K1" s="538"/>
+      <c r="L1" s="539"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="549"/>
-      <c r="B2" s="550"/>
-      <c r="C2" s="550"/>
-      <c r="D2" s="550"/>
-      <c r="E2" s="550"/>
-      <c r="F2" s="550"/>
-      <c r="G2" s="550"/>
-      <c r="H2" s="550"/>
-      <c r="I2" s="550"/>
-      <c r="J2" s="550"/>
-      <c r="K2" s="550"/>
-      <c r="L2" s="551"/>
+      <c r="A2" s="540"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
+      <c r="K2" s="541"/>
+      <c r="L2" s="542"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="556" t="s">
+      <c r="A3" s="547" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="557"/>
-      <c r="C3" s="557"/>
-      <c r="D3" s="557"/>
-      <c r="E3" s="557"/>
-      <c r="F3" s="557"/>
-      <c r="G3" s="557"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="557"/>
-      <c r="J3" s="557"/>
-      <c r="K3" s="557"/>
-      <c r="L3" s="558"/>
+      <c r="B3" s="548"/>
+      <c r="C3" s="548"/>
+      <c r="D3" s="548"/>
+      <c r="E3" s="548"/>
+      <c r="F3" s="548"/>
+      <c r="G3" s="548"/>
+      <c r="H3" s="548"/>
+      <c r="I3" s="548"/>
+      <c r="J3" s="548"/>
+      <c r="K3" s="548"/>
+      <c r="L3" s="549"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="481" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="478"/>
-      <c r="C4" s="479"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="483"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="477" t="s">
+      <c r="E4" s="491" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="478"/>
-      <c r="G4" s="479"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="483"/>
       <c r="H4" s="138"/>
-      <c r="I4" s="477" t="s">
+      <c r="I4" s="491" t="s">
         <v>424</v>
       </c>
-      <c r="J4" s="478"/>
-      <c r="K4" s="479"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="483"/>
       <c r="L4" s="162" t="s">
         <v>462</v>
       </c>
@@ -10194,7 +10196,7 @@
       <c r="K5" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="L5" s="497" t="s">
+      <c r="L5" s="523" t="s">
         <v>465</v>
       </c>
     </row>
@@ -10228,23 +10230,23 @@
       <c r="K6" s="140">
         <v>0.11</v>
       </c>
-      <c r="L6" s="554"/>
+      <c r="L6" s="545"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="538" t="s">
+      <c r="A7" s="550" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="539"/>
-      <c r="C7" s="539"/>
-      <c r="D7" s="539"/>
-      <c r="E7" s="539"/>
-      <c r="F7" s="539"/>
-      <c r="G7" s="539"/>
-      <c r="H7" s="539"/>
-      <c r="I7" s="539"/>
-      <c r="J7" s="539"/>
-      <c r="K7" s="539"/>
-      <c r="L7" s="540"/>
+      <c r="B7" s="551"/>
+      <c r="C7" s="551"/>
+      <c r="D7" s="551"/>
+      <c r="E7" s="551"/>
+      <c r="F7" s="551"/>
+      <c r="G7" s="551"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="551"/>
+      <c r="J7" s="551"/>
+      <c r="K7" s="551"/>
+      <c r="L7" s="552"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -10277,7 +10279,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="552" t="s">
+      <c r="A9" s="543" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="153" t="s">
@@ -10312,7 +10314,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="553"/>
+      <c r="A10" s="544"/>
       <c r="B10" s="153" t="s">
         <v>205</v>
       </c>
@@ -10345,22 +10347,22 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="499" t="s">
+      <c r="A11" s="525" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="555"/>
-      <c r="C11" s="501">
+      <c r="B11" s="546"/>
+      <c r="C11" s="527">
         <v>86.8</v>
       </c>
-      <c r="D11" s="502"/>
-      <c r="E11" s="503"/>
+      <c r="D11" s="528"/>
+      <c r="E11" s="529"/>
       <c r="F11" s="145"/>
-      <c r="G11" s="501">
+      <c r="G11" s="527">
         <f>C11*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H11" s="502"/>
-      <c r="I11" s="503"/>
+      <c r="H11" s="528"/>
+      <c r="I11" s="529"/>
       <c r="J11" s="141"/>
       <c r="K11" s="141"/>
       <c r="L11" s="167" t="s">
@@ -10368,20 +10370,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="538" t="s">
+      <c r="A12" s="550" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="539"/>
-      <c r="C12" s="539"/>
-      <c r="D12" s="539"/>
-      <c r="E12" s="539"/>
-      <c r="F12" s="539"/>
-      <c r="G12" s="539"/>
-      <c r="H12" s="539"/>
-      <c r="I12" s="539"/>
-      <c r="J12" s="539"/>
-      <c r="K12" s="539"/>
-      <c r="L12" s="540"/>
+      <c r="B12" s="551"/>
+      <c r="C12" s="551"/>
+      <c r="D12" s="551"/>
+      <c r="E12" s="551"/>
+      <c r="F12" s="551"/>
+      <c r="G12" s="551"/>
+      <c r="H12" s="551"/>
+      <c r="I12" s="551"/>
+      <c r="J12" s="551"/>
+      <c r="K12" s="551"/>
+      <c r="L12" s="552"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="168" t="s">
@@ -10426,20 +10428,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="538" t="s">
+      <c r="A15" s="550" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="539"/>
-      <c r="C15" s="539"/>
-      <c r="D15" s="539"/>
-      <c r="E15" s="539"/>
-      <c r="F15" s="539"/>
-      <c r="G15" s="539"/>
-      <c r="H15" s="539"/>
-      <c r="I15" s="539"/>
-      <c r="J15" s="539"/>
-      <c r="K15" s="539"/>
-      <c r="L15" s="540"/>
+      <c r="B15" s="551"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="551"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="551"/>
+      <c r="G15" s="551"/>
+      <c r="H15" s="551"/>
+      <c r="I15" s="551"/>
+      <c r="J15" s="551"/>
+      <c r="K15" s="551"/>
+      <c r="L15" s="552"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="168" t="s">
@@ -10529,20 +10531,20 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="538" t="s">
+      <c r="A19" s="550" t="s">
         <v>473</v>
       </c>
-      <c r="B19" s="539"/>
-      <c r="C19" s="539"/>
-      <c r="D19" s="539"/>
-      <c r="E19" s="539"/>
-      <c r="F19" s="539"/>
-      <c r="G19" s="539"/>
-      <c r="H19" s="539"/>
-      <c r="I19" s="539"/>
-      <c r="J19" s="539"/>
-      <c r="K19" s="539"/>
-      <c r="L19" s="540"/>
+      <c r="B19" s="551"/>
+      <c r="C19" s="551"/>
+      <c r="D19" s="551"/>
+      <c r="E19" s="551"/>
+      <c r="F19" s="551"/>
+      <c r="G19" s="551"/>
+      <c r="H19" s="551"/>
+      <c r="I19" s="551"/>
+      <c r="J19" s="551"/>
+      <c r="K19" s="551"/>
+      <c r="L19" s="552"/>
     </row>
     <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="168" t="s">
@@ -10788,7 +10790,7 @@
         <v>HEFA-Energy</v>
       </c>
       <c r="I25" s="390">
-        <f t="shared" ref="I25:I26" si="0">D25*($F$6*$B$6)/35.3</f>
+        <f>D25*($F$6*$B$6)/35.3</f>
         <v>2.9818108585241043E-2</v>
       </c>
       <c r="J25" s="141"/>
@@ -10832,7 +10834,7 @@
         <v>HEFA-Energy</v>
       </c>
       <c r="I26" s="390">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I25:I26" si="0">D26*($F$6*$B$6)/35.3</f>
         <v>1.4981078709493088E-2</v>
       </c>
       <c r="J26" s="141"/>
@@ -10952,7 +10954,7 @@
       </c>
       <c r="F29" s="175">
         <f>Biomass_Cost!Z49</f>
-        <v>276426.90888362238</v>
+        <v>1064024.8168066801</v>
       </c>
       <c r="G29" s="206">
         <f>Biomass_Cost!AA49</f>
@@ -10996,7 +10998,7 @@
       </c>
       <c r="F30" s="175">
         <f>Biomass_Cost!Z50</f>
-        <v>276426.90888362238</v>
+        <v>1064024.8168066801</v>
       </c>
       <c r="G30" s="206">
         <f>Biomass_Cost!AA50</f>
@@ -11040,7 +11042,7 @@
       </c>
       <c r="F31" s="175">
         <f>Biomass_Cost!Z51</f>
-        <v>276426.90888362238</v>
+        <v>1008023.51065896</v>
       </c>
       <c r="G31" s="206">
         <f>Biomass_Cost!AA51</f>
@@ -11084,7 +11086,7 @@
       </c>
       <c r="F32" s="175">
         <f>Biomass_Cost!Z52</f>
-        <v>276426.90888362238</v>
+        <v>1064024.8168066801</v>
       </c>
       <c r="G32" s="206">
         <f>Biomass_Cost!AA52</f>
@@ -11306,17 +11308,17 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="536" t="s">
+      <c r="A38" s="553" t="s">
         <v>501</v>
       </c>
-      <c r="B38" s="528"/>
-      <c r="C38" s="528"/>
-      <c r="D38" s="529"/>
-      <c r="E38" s="444" t="s">
+      <c r="B38" s="501"/>
+      <c r="C38" s="501"/>
+      <c r="D38" s="502"/>
+      <c r="E38" s="448" t="s">
         <v>502</v>
       </c>
-      <c r="F38" s="445"/>
-      <c r="G38" s="537"/>
+      <c r="F38" s="449"/>
+      <c r="G38" s="560"/>
       <c r="H38" s="141"/>
       <c r="I38" s="141"/>
       <c r="J38" s="141"/>
@@ -11369,20 +11371,20 @@
       </c>
       <c r="E40" s="181">
         <f>_xlfn.QUARTILE.EXC($F21:$F37,1)</f>
-        <v>276426.90888362238</v>
+        <v>292556.68528385519</v>
       </c>
       <c r="F40" s="182">
         <f>_xlfn.QUARTILE.EXC($F21:$F37,2)</f>
-        <v>294359.43771010416</v>
+        <v>654132.08380023192</v>
       </c>
       <c r="G40" s="217">
         <f>_xlfn.QUARTILE.EXC($F21:$F37,3)</f>
-        <v>654132.08380023192</v>
-      </c>
-      <c r="H40" s="486" t="s">
+        <v>1064024.8168066801</v>
+      </c>
+      <c r="H40" s="530" t="s">
         <v>844</v>
       </c>
-      <c r="I40" s="487"/>
+      <c r="I40" s="531"/>
       <c r="J40" s="141"/>
       <c r="K40" s="141"/>
       <c r="L40" s="222"/>
@@ -11405,18 +11407,18 @@
       </c>
       <c r="E41" s="184">
         <f>_xlfn.QUARTILE.EXC(($F24:$F27,$F29:$F31,$F33:$F36),1)</f>
-        <v>276426.90888362238</v>
+        <v>290753.93285760621</v>
       </c>
       <c r="F41" s="175">
         <f>_xlfn.QUARTILE.EXC(($F24:$F27,$F29:$F31,$F33:$F36),2)</f>
-        <v>290753.93285760621</v>
+        <v>654132.08380023192</v>
       </c>
       <c r="G41" s="187">
         <f>_xlfn.QUARTILE.EXC(($F24:$F27,$F29:$F31,$F33:$F36),3)</f>
-        <v>654132.08380023192</v>
-      </c>
-      <c r="H41" s="541"/>
-      <c r="I41" s="542"/>
+        <v>1064024.8168066801</v>
+      </c>
+      <c r="H41" s="561"/>
+      <c r="I41" s="562"/>
       <c r="J41" s="141"/>
       <c r="K41" s="141"/>
       <c r="L41" s="222"/>
@@ -11439,29 +11441,29 @@
       </c>
       <c r="E42" s="185">
         <f>_xlfn.QUARTILE.EXC(($F21:$F23,$F28,$F37,$F32),1)</f>
-        <v>261051.77591173322</v>
+        <v>299031.1256741031</v>
       </c>
       <c r="F42" s="178">
         <f>_xlfn.QUARTILE.EXC(($F21:$F23,$F28,$F37,$F32),2)</f>
-        <v>327066.04190011555</v>
+        <v>490599.06285017374</v>
       </c>
       <c r="G42" s="378">
         <f>_xlfn.QUARTILE.EXC(($F21:$F23,$F28,$F37,$F32),3)</f>
-        <v>654132.08380023192</v>
-      </c>
-      <c r="H42" s="488"/>
-      <c r="I42" s="489"/>
+        <v>756605.26705184393</v>
+      </c>
+      <c r="H42" s="532"/>
+      <c r="I42" s="533"/>
       <c r="J42" s="141"/>
       <c r="K42" s="141"/>
       <c r="L42" s="222"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="527" t="s">
+      <c r="A43" s="500" t="s">
         <v>841</v>
       </c>
-      <c r="B43" s="528"/>
-      <c r="C43" s="528"/>
-      <c r="D43" s="529"/>
+      <c r="B43" s="501"/>
+      <c r="C43" s="501"/>
+      <c r="D43" s="502"/>
       <c r="E43" s="396"/>
       <c r="F43" s="397"/>
       <c r="G43" s="398"/>
@@ -11487,11 +11489,11 @@
         <f>_xlfn.QUARTILE.EXC($C21:$C37,3)</f>
         <v>0.16634564874803009</v>
       </c>
-      <c r="E44" s="480" t="s">
+      <c r="E44" s="503" t="s">
         <v>842</v>
       </c>
-      <c r="F44" s="481"/>
-      <c r="G44" s="482"/>
+      <c r="F44" s="504"/>
+      <c r="G44" s="505"/>
       <c r="H44" s="141"/>
       <c r="I44" s="141"/>
       <c r="J44" s="141"/>
@@ -11514,9 +11516,9 @@
         <f>_xlfn.QUARTILE.EXC(($C24:$C27,$C29:$C31,$C33:$C36),3)</f>
         <v>0.1488355804587638</v>
       </c>
-      <c r="E45" s="530"/>
-      <c r="F45" s="531"/>
-      <c r="G45" s="532"/>
+      <c r="E45" s="554"/>
+      <c r="F45" s="555"/>
+      <c r="G45" s="556"/>
       <c r="H45" s="141"/>
       <c r="I45" s="141"/>
       <c r="J45" s="141"/>
@@ -11539,9 +11541,9 @@
         <f>_xlfn.QUARTILE.EXC(($C21:$C23,$C28,$C32,$C37),3)</f>
         <v>0.19698826825424617</v>
       </c>
-      <c r="E46" s="483"/>
-      <c r="F46" s="484"/>
-      <c r="G46" s="485"/>
+      <c r="E46" s="506"/>
+      <c r="F46" s="507"/>
+      <c r="G46" s="508"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -11549,12 +11551,12 @@
       <c r="L46" s="222"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="477" t="s">
+      <c r="A47" s="491" t="s">
         <v>848</v>
       </c>
-      <c r="B47" s="478"/>
-      <c r="C47" s="478"/>
-      <c r="D47" s="479"/>
+      <c r="B47" s="482"/>
+      <c r="C47" s="482"/>
+      <c r="D47" s="483"/>
       <c r="E47" s="395"/>
       <c r="F47" s="387"/>
       <c r="G47" s="388"/>
@@ -11580,11 +11582,11 @@
         <f>_xlfn.QUARTILE.EXC($I21:$I37,3)</f>
         <v>1.8060668170316912E-2</v>
       </c>
-      <c r="E48" s="480" t="s">
+      <c r="E48" s="503" t="s">
         <v>843</v>
       </c>
-      <c r="F48" s="481"/>
-      <c r="G48" s="482"/>
+      <c r="F48" s="504"/>
+      <c r="G48" s="505"/>
       <c r="H48" s="141"/>
       <c r="I48" s="141"/>
       <c r="J48" s="141"/>
@@ -11607,9 +11609,9 @@
         <f>_xlfn.QUARTILE.EXC(($I24:$I27,$I29:$I31,$I33:$I36),3)</f>
         <v>2.2903764565475007E-2</v>
       </c>
-      <c r="E49" s="530"/>
-      <c r="F49" s="531"/>
-      <c r="G49" s="532"/>
+      <c r="E49" s="554"/>
+      <c r="F49" s="555"/>
+      <c r="G49" s="556"/>
       <c r="H49" s="141"/>
       <c r="I49" s="141"/>
       <c r="J49" s="141"/>
@@ -11632,9 +11634,9 @@
         <f>_xlfn.QUARTILE.EXC(($I21:$I23,$I28,$I32,$I37),3)</f>
         <v>1.7351336792026519E-2</v>
       </c>
-      <c r="E50" s="483"/>
-      <c r="F50" s="484"/>
-      <c r="G50" s="485"/>
+      <c r="E50" s="506"/>
+      <c r="F50" s="507"/>
+      <c r="G50" s="508"/>
       <c r="H50" s="141"/>
       <c r="I50" s="141"/>
       <c r="J50" s="141"/>
@@ -11642,20 +11644,20 @@
       <c r="L50" s="222"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="533" t="s">
+      <c r="A51" s="557" t="s">
         <v>491</v>
       </c>
-      <c r="B51" s="534"/>
-      <c r="C51" s="534"/>
-      <c r="D51" s="534"/>
-      <c r="E51" s="534"/>
-      <c r="F51" s="534"/>
-      <c r="G51" s="534"/>
-      <c r="H51" s="534"/>
-      <c r="I51" s="534"/>
-      <c r="J51" s="534"/>
-      <c r="K51" s="534"/>
-      <c r="L51" s="535"/>
+      <c r="B51" s="558"/>
+      <c r="C51" s="558"/>
+      <c r="D51" s="558"/>
+      <c r="E51" s="558"/>
+      <c r="F51" s="558"/>
+      <c r="G51" s="558"/>
+      <c r="H51" s="558"/>
+      <c r="I51" s="558"/>
+      <c r="J51" s="558"/>
+      <c r="K51" s="558"/>
+      <c r="L51" s="559"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="225" t="s">
@@ -11677,10 +11679,10 @@
       <c r="L52" s="231"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="525" t="s">
+      <c r="A53" s="498" t="s">
         <v>531</v>
       </c>
-      <c r="B53" s="526"/>
+      <c r="B53" s="499"/>
       <c r="C53" s="141"/>
       <c r="D53" s="141"/>
       <c r="E53" s="141"/>
@@ -11695,15 +11697,15 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="226"/>
       <c r="B54" s="154"/>
-      <c r="C54" s="527" t="s">
+      <c r="C54" s="500" t="s">
         <v>810</v>
       </c>
-      <c r="D54" s="528"/>
-      <c r="E54" s="529"/>
-      <c r="F54" s="444" t="s">
+      <c r="D54" s="501"/>
+      <c r="E54" s="502"/>
+      <c r="F54" s="448" t="s">
         <v>605</v>
       </c>
-      <c r="G54" s="446"/>
+      <c r="G54" s="450"/>
       <c r="H54" s="235"/>
       <c r="I54" s="141"/>
       <c r="J54" s="141"/>
@@ -11711,10 +11713,10 @@
       <c r="L54" s="222"/>
     </row>
     <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="536" t="s">
+      <c r="A55" s="553" t="s">
         <v>251</v>
       </c>
-      <c r="B55" s="528"/>
+      <c r="B55" s="501"/>
       <c r="C55" s="290" t="s">
         <v>533</v>
       </c>
@@ -12057,7 +12059,7 @@
       <c r="D68" s="294"/>
       <c r="E68" s="294"/>
       <c r="F68" s="295"/>
-      <c r="H68" s="543" t="s">
+      <c r="H68" s="534" t="s">
         <v>795</v>
       </c>
       <c r="I68" s="257" t="s">
@@ -12084,7 +12086,7 @@
       <c r="D69" s="141"/>
       <c r="E69" s="141"/>
       <c r="F69" s="222"/>
-      <c r="H69" s="544"/>
+      <c r="H69" s="535"/>
       <c r="I69" s="257" t="s">
         <v>36</v>
       </c>
@@ -12109,7 +12111,7 @@
       <c r="D70" s="233"/>
       <c r="E70" s="233"/>
       <c r="F70" s="234"/>
-      <c r="H70" s="545"/>
+      <c r="H70" s="536"/>
       <c r="I70" s="189" t="s">
         <v>37</v>
       </c>
@@ -12164,6 +12166,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E48:G50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E44:G46"/>
+    <mergeCell ref="H40:I42"/>
     <mergeCell ref="H68:H70"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="A1:L2"/>
@@ -12180,17 +12193,6 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C54:E54"/>
-    <mergeCell ref="E48:G50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E44:G46"/>
-    <mergeCell ref="H40:I42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12548,15 +12550,15 @@
       </c>
       <c r="E14" s="379">
         <f>'Cost Analysis-HEFA'!E41</f>
-        <v>276426.90888362238</v>
+        <v>290753.93285760621</v>
       </c>
       <c r="F14" s="379">
         <f>'Cost Analysis-HEFA'!F41</f>
-        <v>290753.93285760621</v>
+        <v>654132.08380023192</v>
       </c>
       <c r="G14" s="379">
         <f>'Cost Analysis-HEFA'!G41</f>
-        <v>654132.08380023192</v>
+        <v>1064024.8168066801</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12574,15 +12576,15 @@
       </c>
       <c r="E15" s="379">
         <f>'Cost Analysis-HEFA'!E42</f>
-        <v>261051.77591173322</v>
+        <v>299031.1256741031</v>
       </c>
       <c r="F15" s="379">
         <f>'Cost Analysis-HEFA'!F42</f>
-        <v>327066.04190011555</v>
+        <v>490599.06285017374</v>
       </c>
       <c r="G15" s="379">
         <f>'Cost Analysis-HEFA'!G42</f>
-        <v>654132.08380023192</v>
+        <v>756605.26705184393</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12724,15 +12726,15 @@
       </c>
       <c r="E21" s="379">
         <f>'Cost Analysis-AtJ'!E45</f>
-        <v>867421.58664967155</v>
+        <v>1211244.562979558</v>
       </c>
       <c r="F21" s="379">
         <f>'Cost Analysis-AtJ'!F45</f>
-        <v>1211572.2928284132</v>
+        <v>1547663.8683208446</v>
       </c>
       <c r="G21" s="379">
         <f>'Cost Analysis-AtJ'!G45</f>
-        <v>1560222.6833102</v>
+        <v>2403935.407965851</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13122,15 +13124,15 @@
       </c>
       <c r="E37" s="379">
         <f>'Cost Analysis-FT'!E50</f>
-        <v>1254872.8058120161</v>
+        <v>1500327.4422357879</v>
       </c>
       <c r="F37" s="379">
         <f>'Cost Analysis-FT'!F50</f>
-        <v>1601895.5606446574</v>
+        <v>1650757.9992644452</v>
       </c>
       <c r="G37" s="379">
         <f>'Cost Analysis-FT'!G50</f>
-        <v>1934451.4161269781</v>
+        <v>2051551.7967573812</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -13148,15 +13150,15 @@
       </c>
       <c r="E38" s="379">
         <f>'Cost Analysis-FT'!E52</f>
-        <v>1180363.0780797016</v>
+        <v>2191342.4807307739</v>
       </c>
       <c r="F38" s="379">
         <f>'Cost Analysis-FT'!F52</f>
-        <v>2191342.4807307739</v>
+        <v>3041714.1896710731</v>
       </c>
       <c r="G38" s="379">
         <f>'Cost Analysis-FT'!G52</f>
-        <v>3041714.1896710731</v>
+        <v>3500081.6342325201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -13174,15 +13176,15 @@
       </c>
       <c r="E39" s="379">
         <f>'Cost Analysis-FT'!E49</f>
-        <v>1169512.0108316932</v>
+        <v>1213683.8446474303</v>
       </c>
       <c r="F39" s="379">
         <f>'Cost Analysis-FT'!F49</f>
-        <v>2256141.3937558876</v>
+        <v>2583633.7076022313</v>
       </c>
       <c r="G39" s="379">
         <f>'Cost Analysis-FT'!G49</f>
-        <v>3310399.7827109178</v>
+        <v>3488256.773372584</v>
       </c>
     </row>
   </sheetData>
@@ -14437,8 +14439,8 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14458,65 +14460,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="563" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="583"/>
-      <c r="C1" s="583"/>
-      <c r="D1" s="583"/>
-      <c r="E1" s="583"/>
-      <c r="F1" s="583"/>
-      <c r="G1" s="583"/>
-      <c r="H1" s="583"/>
-      <c r="I1" s="583"/>
-      <c r="J1" s="583"/>
-      <c r="K1" s="583"/>
-      <c r="L1" s="584"/>
+      <c r="B1" s="564"/>
+      <c r="C1" s="564"/>
+      <c r="D1" s="564"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
+      <c r="K1" s="564"/>
+      <c r="L1" s="565"/>
     </row>
     <row r="2" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="585"/>
-      <c r="B2" s="586"/>
-      <c r="C2" s="586"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="586"/>
-      <c r="F2" s="586"/>
-      <c r="G2" s="586"/>
-      <c r="H2" s="586"/>
-      <c r="I2" s="586"/>
-      <c r="J2" s="586"/>
-      <c r="K2" s="586"/>
-      <c r="L2" s="587"/>
+      <c r="A2" s="566"/>
+      <c r="B2" s="567"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="567"/>
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="567"/>
+      <c r="I2" s="567"/>
+      <c r="J2" s="567"/>
+      <c r="K2" s="567"/>
+      <c r="L2" s="568"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="588" t="s">
+      <c r="A3" s="569" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="589"/>
-      <c r="C3" s="589"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="589"/>
-      <c r="F3" s="589"/>
-      <c r="G3" s="589"/>
-      <c r="H3" s="589"/>
-      <c r="I3" s="589"/>
-      <c r="J3" s="589"/>
-      <c r="K3" s="589"/>
-      <c r="L3" s="590"/>
+      <c r="B3" s="570"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="570"/>
+      <c r="F3" s="570"/>
+      <c r="G3" s="570"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="570"/>
+      <c r="J3" s="570"/>
+      <c r="K3" s="570"/>
+      <c r="L3" s="571"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="521" t="s">
+      <c r="A4" s="494" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="418"/>
-      <c r="C4" s="419"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="426"/>
       <c r="D4" s="141"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="E4" s="518"/>
+      <c r="F4" s="518"/>
+      <c r="G4" s="518"/>
       <c r="H4" s="141"/>
-      <c r="I4" s="511"/>
-      <c r="J4" s="511"/>
-      <c r="K4" s="511"/>
+      <c r="I4" s="518"/>
+      <c r="J4" s="518"/>
+      <c r="K4" s="518"/>
       <c r="L4" s="239" t="s">
         <v>462</v>
       </c>
@@ -14539,7 +14541,7 @@
       <c r="I5" s="211"/>
       <c r="J5" s="211"/>
       <c r="K5" s="211"/>
-      <c r="L5" s="497" t="s">
+      <c r="L5" s="523" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14561,23 +14563,23 @@
       <c r="I6" s="212"/>
       <c r="J6" s="212"/>
       <c r="K6" s="212"/>
-      <c r="L6" s="498"/>
+      <c r="L6" s="524"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="574" t="s">
+      <c r="A7" s="576" t="s">
         <v>461</v>
       </c>
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="575"/>
-      <c r="E7" s="575"/>
-      <c r="F7" s="575"/>
-      <c r="G7" s="575"/>
-      <c r="H7" s="575"/>
-      <c r="I7" s="575"/>
-      <c r="J7" s="575"/>
-      <c r="K7" s="575"/>
-      <c r="L7" s="576"/>
+      <c r="B7" s="577"/>
+      <c r="C7" s="577"/>
+      <c r="D7" s="577"/>
+      <c r="E7" s="577"/>
+      <c r="F7" s="577"/>
+      <c r="G7" s="577"/>
+      <c r="H7" s="577"/>
+      <c r="I7" s="577"/>
+      <c r="J7" s="577"/>
+      <c r="K7" s="577"/>
+      <c r="L7" s="578"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
@@ -14647,22 +14649,22 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="499" t="s">
+      <c r="A10" s="525" t="s">
         <v>489</v>
       </c>
-      <c r="B10" s="500"/>
-      <c r="C10" s="501">
+      <c r="B10" s="526"/>
+      <c r="C10" s="527">
         <v>86.8</v>
       </c>
-      <c r="D10" s="502"/>
-      <c r="E10" s="503"/>
+      <c r="D10" s="528"/>
+      <c r="E10" s="529"/>
       <c r="F10" s="145"/>
-      <c r="G10" s="501">
+      <c r="G10" s="527">
         <f>C10*35.3</f>
         <v>3064.0399999999995</v>
       </c>
-      <c r="H10" s="502"/>
-      <c r="I10" s="503"/>
+      <c r="H10" s="528"/>
+      <c r="I10" s="529"/>
       <c r="J10" s="141"/>
       <c r="K10" s="141"/>
       <c r="L10" s="167" t="s">
@@ -14670,20 +14672,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="574" t="s">
+      <c r="A11" s="576" t="s">
         <v>468</v>
       </c>
-      <c r="B11" s="575"/>
-      <c r="C11" s="575"/>
-      <c r="D11" s="575"/>
-      <c r="E11" s="575"/>
-      <c r="F11" s="575"/>
-      <c r="G11" s="575"/>
-      <c r="H11" s="575"/>
-      <c r="I11" s="575"/>
-      <c r="J11" s="575"/>
-      <c r="K11" s="575"/>
-      <c r="L11" s="576"/>
+      <c r="B11" s="577"/>
+      <c r="C11" s="577"/>
+      <c r="D11" s="577"/>
+      <c r="E11" s="577"/>
+      <c r="F11" s="577"/>
+      <c r="G11" s="577"/>
+      <c r="H11" s="577"/>
+      <c r="I11" s="577"/>
+      <c r="J11" s="577"/>
+      <c r="K11" s="577"/>
+      <c r="L11" s="578"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="246" t="s">
@@ -14726,20 +14728,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="577" t="s">
+      <c r="A14" s="579" t="s">
         <v>469</v>
       </c>
-      <c r="B14" s="578"/>
-      <c r="C14" s="578"/>
-      <c r="D14" s="578"/>
-      <c r="E14" s="578"/>
-      <c r="F14" s="578"/>
-      <c r="G14" s="578"/>
-      <c r="H14" s="578"/>
-      <c r="I14" s="578"/>
-      <c r="J14" s="578"/>
-      <c r="K14" s="578"/>
-      <c r="L14" s="579"/>
+      <c r="B14" s="580"/>
+      <c r="C14" s="580"/>
+      <c r="D14" s="580"/>
+      <c r="E14" s="580"/>
+      <c r="F14" s="580"/>
+      <c r="G14" s="580"/>
+      <c r="H14" s="580"/>
+      <c r="I14" s="580"/>
+      <c r="J14" s="580"/>
+      <c r="K14" s="580"/>
+      <c r="L14" s="581"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="168" t="s">
@@ -14803,20 +14805,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="580" t="s">
+      <c r="A17" s="582" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="575"/>
-      <c r="C17" s="575"/>
-      <c r="D17" s="575"/>
-      <c r="E17" s="575"/>
-      <c r="F17" s="575"/>
-      <c r="G17" s="575"/>
-      <c r="H17" s="575"/>
-      <c r="I17" s="575"/>
-      <c r="J17" s="575"/>
-      <c r="K17" s="575"/>
-      <c r="L17" s="581"/>
+      <c r="B17" s="577"/>
+      <c r="C17" s="577"/>
+      <c r="D17" s="577"/>
+      <c r="E17" s="577"/>
+      <c r="F17" s="577"/>
+      <c r="G17" s="577"/>
+      <c r="H17" s="577"/>
+      <c r="I17" s="577"/>
+      <c r="J17" s="577"/>
+      <c r="K17" s="577"/>
+      <c r="L17" s="583"/>
     </row>
     <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="168" t="s">
@@ -14859,7 +14861,7 @@
       </c>
       <c r="B19" s="181">
         <f>Biomass_Cost!F20</f>
-        <v>0.50779198038872342</v>
+        <v>0.50779198038872297</v>
       </c>
       <c r="C19" s="182">
         <f>Biomass_Cost!H20</f>
@@ -14884,7 +14886,7 @@
       <c r="H19" s="214" t="s">
         <v>561</v>
       </c>
-      <c r="I19" s="606">
+      <c r="I19" s="414">
         <f>D19*$B$6/35.3</f>
         <v>1.3214397145214022E-2</v>
       </c>
@@ -14926,7 +14928,7 @@
       <c r="H20" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I20" s="607">
+      <c r="I20" s="415">
         <f>D20*$B$6/35.3</f>
         <v>1.4642980620372295E-2</v>
       </c>
@@ -14968,7 +14970,7 @@
       <c r="H21" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I21" s="607">
+      <c r="I21" s="415">
         <f t="shared" ref="I21:I26" si="0">D21*$B$6/35.3</f>
         <v>1.6428709964320134E-2</v>
       </c>
@@ -15010,7 +15012,7 @@
       <c r="H22" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I22" s="607">
+      <c r="I22" s="415">
         <f t="shared" si="0"/>
         <v>1.6428709964320134E-2</v>
       </c>
@@ -15053,7 +15055,7 @@
       <c r="H23" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I23" s="607">
+      <c r="I23" s="415">
         <f t="shared" si="0"/>
         <v>1.2262008161775173E-2</v>
       </c>
@@ -15096,7 +15098,7 @@
       <c r="H24" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I24" s="607">
+      <c r="I24" s="415">
         <f t="shared" si="0"/>
         <v>1.0119132949037764E-2</v>
       </c>
@@ -15139,7 +15141,7 @@
       <c r="H25" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I25" s="607">
+      <c r="I25" s="415">
         <f t="shared" si="0"/>
         <v>9.761987080248195E-3</v>
       </c>
@@ -15182,7 +15184,7 @@
       <c r="H26" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I26" s="607">
+      <c r="I26" s="415">
         <f t="shared" si="0"/>
         <v>6.5476742611420835E-3</v>
       </c>
@@ -15225,7 +15227,7 @@
       <c r="H27" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I27" s="607" t="s">
+      <c r="I27" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J27" s="141"/>
@@ -15267,7 +15269,7 @@
       <c r="H28" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I28" s="607" t="s">
+      <c r="I28" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J28" s="141"/>
@@ -15309,7 +15311,7 @@
       <c r="H29" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I29" s="607" t="s">
+      <c r="I29" s="415" t="s">
         <v>482</v>
       </c>
       <c r="J29" s="141"/>
@@ -15351,7 +15353,7 @@
       <c r="H30" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I30" s="607">
+      <c r="I30" s="415">
         <f>D30*$B$6/35.3</f>
         <v>1.1190570555406469E-2</v>
       </c>
@@ -15385,7 +15387,7 @@
       </c>
       <c r="F31" s="175">
         <f>Biomass_Cost!Z57</f>
-        <v>716288.70550135733</v>
+        <v>3052071.1850507502</v>
       </c>
       <c r="G31" s="206">
         <f>Biomass_Cost!AA57</f>
@@ -15394,7 +15396,7 @@
       <c r="H31" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I31" s="607">
+      <c r="I31" s="415">
         <f t="shared" ref="I31:I34" si="1">D31*$B$6/35.3</f>
         <v>7.7413812359010369E-3</v>
       </c>
@@ -15428,7 +15430,7 @@
       </c>
       <c r="F32" s="175">
         <f>Biomass_Cost!Z58</f>
-        <v>716288.70550135733</v>
+        <v>2324054.2051303899</v>
       </c>
       <c r="G32" s="206">
         <f>Biomass_Cost!AA58</f>
@@ -15437,7 +15439,7 @@
       <c r="H32" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I32" s="607">
+      <c r="I32" s="415">
         <f t="shared" si="1"/>
         <v>1.021862323138931E-2</v>
       </c>
@@ -15471,7 +15473,7 @@
       </c>
       <c r="F33" s="175">
         <f>Biomass_Cost!Z59</f>
-        <v>1105707.6355344895</v>
+        <v>6412149.5539139695</v>
       </c>
       <c r="G33" s="206">
         <f>Biomass_Cost!AA59</f>
@@ -15480,7 +15482,7 @@
       <c r="H33" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I33" s="607">
+      <c r="I33" s="415">
         <f t="shared" si="1"/>
         <v>5.2641392404126032E-3</v>
       </c>
@@ -15514,7 +15516,7 @@
       </c>
       <c r="F34" s="175">
         <f>Biomass_Cost!Z60</f>
-        <v>1105707.6355344895</v>
+        <v>6412149.5539139695</v>
       </c>
       <c r="G34" s="206">
         <f>Biomass_Cost!AA60</f>
@@ -15523,7 +15525,7 @@
       <c r="H34" s="215" t="s">
         <v>561</v>
       </c>
-      <c r="I34" s="607">
+      <c r="I34" s="415">
         <f t="shared" si="1"/>
         <v>6.5027602381567875E-3</v>
       </c>
@@ -15847,17 +15849,17 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="521" t="s">
+      <c r="A43" s="494" t="s">
         <v>501</v>
       </c>
-      <c r="B43" s="418"/>
-      <c r="C43" s="418"/>
-      <c r="D43" s="419"/>
-      <c r="E43" s="444" t="s">
+      <c r="B43" s="425"/>
+      <c r="C43" s="425"/>
+      <c r="D43" s="426"/>
+      <c r="E43" s="448" t="s">
         <v>502</v>
       </c>
-      <c r="F43" s="445"/>
-      <c r="G43" s="537"/>
+      <c r="F43" s="449"/>
+      <c r="G43" s="560"/>
       <c r="H43" s="141"/>
       <c r="I43" s="141"/>
       <c r="J43" s="141"/>
@@ -15909,34 +15911,34 @@
       </c>
       <c r="E45" s="406">
         <f>_xlfn.QUARTILE.EXC($F19:$F42,1)</f>
-        <v>867421.58664967155</v>
+        <v>1211244.562979558</v>
       </c>
       <c r="F45" s="406">
         <f>_xlfn.QUARTILE.EXC($F19:$F42,2)</f>
-        <v>1211572.2928284132</v>
+        <v>1547663.8683208446</v>
       </c>
       <c r="G45" s="144">
         <f>_xlfn.QUARTILE.EXC($F19:$F42,3)</f>
-        <v>1560222.6833102</v>
-      </c>
-      <c r="H45" s="562" t="s">
+        <v>2403935.407965851</v>
+      </c>
+      <c r="H45" s="587" t="s">
         <v>844</v>
       </c>
-      <c r="I45" s="563"/>
+      <c r="I45" s="588"/>
       <c r="J45" s="141"/>
       <c r="K45" s="141"/>
       <c r="L45" s="222"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="527" t="s">
+      <c r="A46" s="500" t="s">
         <v>841</v>
       </c>
-      <c r="B46" s="528"/>
-      <c r="C46" s="528"/>
-      <c r="D46" s="529"/>
-      <c r="E46" s="559"/>
-      <c r="F46" s="560"/>
-      <c r="G46" s="561"/>
+      <c r="B46" s="501"/>
+      <c r="C46" s="501"/>
+      <c r="D46" s="502"/>
+      <c r="E46" s="584"/>
+      <c r="F46" s="585"/>
+      <c r="G46" s="586"/>
       <c r="H46" s="141"/>
       <c r="I46" s="141"/>
       <c r="J46" s="141"/>
@@ -15981,11 +15983,11 @@
         <f>_xlfn.QUARTILE.EXC($C19:$C42,3)</f>
         <v>0.38522150236385921</v>
       </c>
-      <c r="E48" s="567" t="s">
+      <c r="E48" s="592" t="s">
         <v>842</v>
       </c>
-      <c r="F48" s="568"/>
-      <c r="G48" s="569"/>
+      <c r="F48" s="593"/>
+      <c r="G48" s="594"/>
       <c r="H48" s="141"/>
       <c r="I48" s="141"/>
       <c r="J48" s="141"/>
@@ -15993,15 +15995,15 @@
       <c r="L48" s="222"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="477" t="s">
+      <c r="A49" s="491" t="s">
         <v>849</v>
       </c>
-      <c r="B49" s="478"/>
-      <c r="C49" s="478"/>
-      <c r="D49" s="479"/>
-      <c r="E49" s="559"/>
-      <c r="F49" s="560"/>
-      <c r="G49" s="561"/>
+      <c r="B49" s="482"/>
+      <c r="C49" s="482"/>
+      <c r="D49" s="483"/>
+      <c r="E49" s="584"/>
+      <c r="F49" s="585"/>
+      <c r="G49" s="586"/>
       <c r="H49" s="141"/>
       <c r="I49" s="141"/>
       <c r="J49" s="141"/>
@@ -16046,11 +16048,11 @@
         <f>_xlfn.QUARTILE.EXC($I19:$I42,3)</f>
         <v>1.392868888279316E-2</v>
       </c>
-      <c r="E51" s="564" t="s">
+      <c r="E51" s="589" t="s">
         <v>843</v>
       </c>
-      <c r="F51" s="565"/>
-      <c r="G51" s="566"/>
+      <c r="F51" s="590"/>
+      <c r="G51" s="591"/>
       <c r="H51" s="141"/>
       <c r="I51" s="141"/>
       <c r="J51" s="141"/>
@@ -16058,20 +16060,20 @@
       <c r="L51" s="222"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="570" t="s">
+      <c r="A52" s="572" t="s">
         <v>491</v>
       </c>
-      <c r="B52" s="571"/>
-      <c r="C52" s="571"/>
-      <c r="D52" s="571"/>
-      <c r="E52" s="571"/>
-      <c r="F52" s="571"/>
-      <c r="G52" s="571"/>
-      <c r="H52" s="571"/>
-      <c r="I52" s="571"/>
-      <c r="J52" s="571"/>
-      <c r="K52" s="571"/>
-      <c r="L52" s="572"/>
+      <c r="B52" s="573"/>
+      <c r="C52" s="573"/>
+      <c r="D52" s="573"/>
+      <c r="E52" s="573"/>
+      <c r="F52" s="573"/>
+      <c r="G52" s="573"/>
+      <c r="H52" s="573"/>
+      <c r="I52" s="573"/>
+      <c r="J52" s="573"/>
+      <c r="K52" s="573"/>
+      <c r="L52" s="574"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="225" t="s">
@@ -16093,10 +16095,10 @@
       <c r="L53" s="231"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="525" t="s">
+      <c r="A54" s="498" t="s">
         <v>531</v>
       </c>
-      <c r="B54" s="526"/>
+      <c r="B54" s="499"/>
       <c r="C54" s="141"/>
       <c r="D54" s="141"/>
       <c r="E54" s="141"/>
@@ -16127,10 +16129,10 @@
       <c r="L55" s="222"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="521" t="s">
+      <c r="A56" s="494" t="s">
         <v>251</v>
       </c>
-      <c r="B56" s="419"/>
+      <c r="B56" s="426"/>
       <c r="C56" s="14" t="s">
         <v>10</v>
       </c>
@@ -16393,7 +16395,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G71" s="543" t="s">
+      <c r="B71" s="417"/>
+      <c r="G71" s="534" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="257" t="s">
@@ -16413,7 +16416,8 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G72" s="544"/>
+      <c r="B72" s="385"/>
+      <c r="G72" s="535"/>
       <c r="H72" s="257" t="s">
         <v>36</v>
       </c>
@@ -16433,9 +16437,9 @@
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="385">
         <f>AVERAGE(B19,B23:B26,B30:B34)</f>
-        <v>0.8197080549267326</v>
-      </c>
-      <c r="G73" s="573"/>
+        <v>0.81970805492673249</v>
+      </c>
+      <c r="G73" s="575"/>
       <c r="H73" s="277" t="s">
         <v>37</v>
       </c>
@@ -16454,11 +16458,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E48:G48"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="A52:L52"/>
     <mergeCell ref="A54:B54"/>
@@ -16475,11 +16479,11 @@
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="E46:G46"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="I4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16509,13 +16513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="425" t="s">
+      <c r="A1" s="420" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="425"/>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="420"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -16533,16 +16537,16 @@
       <c r="E2" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="591" t="s">
+      <c r="G2" s="601" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="592"/>
-      <c r="I2" s="592"/>
-      <c r="J2" s="592"/>
-      <c r="K2" s="593"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="602"/>
+      <c r="J2" s="602"/>
+      <c r="K2" s="603"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="457" t="s">
+      <c r="A3" s="464" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -16557,16 +16561,16 @@
       <c r="E3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="594" t="s">
+      <c r="G3" s="604" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="595"/>
-      <c r="I3" s="595"/>
-      <c r="J3" s="595"/>
-      <c r="K3" s="596"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="605"/>
+      <c r="K3" s="606"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="457"/>
+      <c r="A4" s="464"/>
       <c r="B4" s="61" t="s">
         <v>203</v>
       </c>
@@ -16579,16 +16583,16 @@
       <c r="E4" s="64">
         <v>12.6</v>
       </c>
-      <c r="G4" s="597" t="s">
+      <c r="G4" s="607" t="s">
         <v>200</v>
       </c>
-      <c r="H4" s="598"/>
-      <c r="I4" s="598"/>
-      <c r="J4" s="598"/>
-      <c r="K4" s="599"/>
+      <c r="H4" s="608"/>
+      <c r="I4" s="608"/>
+      <c r="J4" s="608"/>
+      <c r="K4" s="609"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="457" t="s">
+      <c r="A5" s="464" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="45" t="s">
@@ -16605,7 +16609,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="457"/>
+      <c r="A6" s="464"/>
       <c r="B6" s="45" t="s">
         <v>205</v>
       </c>
@@ -16649,13 +16653,13 @@
       <c r="E9" s="132"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="429" t="s">
+      <c r="A10" s="433" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="429"/>
-      <c r="C10" s="429"/>
-      <c r="D10" s="429"/>
-      <c r="E10" s="429"/>
+      <c r="B10" s="433"/>
+      <c r="C10" s="433"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="433"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
@@ -16675,7 +16679,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="457" t="s">
+      <c r="A12" s="464" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -16692,7 +16696,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="457"/>
+      <c r="A13" s="464"/>
       <c r="B13" s="18" t="s">
         <v>123</v>
       </c>
@@ -16707,7 +16711,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="457"/>
+      <c r="A14" s="464"/>
       <c r="B14" s="18" t="s">
         <v>124</v>
       </c>
@@ -16722,7 +16726,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="457"/>
+      <c r="A15" s="464"/>
       <c r="B15" s="18" t="s">
         <v>179</v>
       </c>
@@ -16737,7 +16741,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="457"/>
+      <c r="A16" s="464"/>
       <c r="B16" s="18" t="s">
         <v>174</v>
       </c>
@@ -16752,7 +16756,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="457"/>
+      <c r="A17" s="464"/>
       <c r="B17" s="18" t="s">
         <v>125</v>
       </c>
@@ -16767,7 +16771,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="457" t="s">
+      <c r="A18" s="464" t="s">
         <v>175</v>
       </c>
       <c r="B18" s="600" t="s">
@@ -16784,14 +16788,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="457"/>
+      <c r="A19" s="464"/>
       <c r="B19" s="600"/>
       <c r="C19" s="600"/>
       <c r="D19" s="600"/>
       <c r="E19" s="600"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="457"/>
+      <c r="A20" s="464"/>
       <c r="B20" s="600" t="s">
         <v>127</v>
       </c>
@@ -16806,14 +16810,14 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="457"/>
+      <c r="A21" s="464"/>
       <c r="B21" s="600"/>
       <c r="C21" s="600"/>
       <c r="D21" s="600"/>
       <c r="E21" s="600"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="457"/>
+      <c r="A22" s="464"/>
       <c r="B22" s="18" t="s">
         <v>32</v>
       </c>
@@ -16828,7 +16832,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="601" t="s">
+      <c r="A23" s="595" t="s">
         <v>128</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -16845,7 +16849,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="602"/>
+      <c r="A24" s="596"/>
       <c r="B24" s="600" t="s">
         <v>130</v>
       </c>
@@ -16860,14 +16864,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="602"/>
+      <c r="A25" s="596"/>
       <c r="B25" s="600"/>
       <c r="C25" s="600"/>
       <c r="D25" s="600"/>
       <c r="E25" s="600"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="602"/>
+      <c r="A26" s="596"/>
       <c r="B26" s="600" t="s">
         <v>131</v>
       </c>
@@ -16882,14 +16886,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="602"/>
+      <c r="A27" s="596"/>
       <c r="B27" s="600"/>
       <c r="C27" s="600"/>
       <c r="D27" s="600"/>
       <c r="E27" s="600"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="602"/>
+      <c r="A28" s="596"/>
       <c r="B28" s="18" t="s">
         <v>132</v>
       </c>
@@ -16904,7 +16908,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="602"/>
+      <c r="A29" s="596"/>
       <c r="B29" s="600" t="s">
         <v>133</v>
       </c>
@@ -16919,7 +16923,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="602"/>
+      <c r="A30" s="596"/>
       <c r="B30" s="600"/>
       <c r="C30" s="600"/>
       <c r="D30" s="600"/>
@@ -16934,7 +16938,7 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="602"/>
+      <c r="A31" s="596"/>
       <c r="B31" s="600"/>
       <c r="C31" s="600"/>
       <c r="D31" s="600"/>
@@ -16949,7 +16953,7 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="602"/>
+      <c r="A32" s="596"/>
       <c r="B32" s="18" t="s">
         <v>134</v>
       </c>
@@ -16972,7 +16976,7 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="602"/>
+      <c r="A33" s="596"/>
       <c r="B33" s="18" t="s">
         <v>135</v>
       </c>
@@ -16995,7 +16999,7 @@
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="602"/>
+      <c r="A34" s="596"/>
       <c r="B34" s="18" t="s">
         <v>136</v>
       </c>
@@ -17018,7 +17022,7 @@
       <c r="O34" s="62"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="602"/>
+      <c r="A35" s="596"/>
       <c r="B35" s="600" t="s">
         <v>137</v>
       </c>
@@ -17041,7 +17045,7 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="602"/>
+      <c r="A36" s="596"/>
       <c r="B36" s="600"/>
       <c r="C36" s="600"/>
       <c r="D36" s="600"/>
@@ -17049,7 +17053,7 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="602"/>
+      <c r="A37" s="596"/>
       <c r="B37" s="600" t="s">
         <v>138</v>
       </c>
@@ -17064,14 +17068,14 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="602"/>
+      <c r="A38" s="596"/>
       <c r="B38" s="600"/>
       <c r="C38" s="600"/>
       <c r="D38" s="600"/>
       <c r="E38" s="600"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="602"/>
+      <c r="A39" s="596"/>
       <c r="B39" s="600" t="s">
         <v>139</v>
       </c>
@@ -17086,14 +17090,14 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="602"/>
+      <c r="A40" s="596"/>
       <c r="B40" s="600"/>
       <c r="C40" s="600"/>
       <c r="D40" s="600"/>
       <c r="E40" s="600"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="602"/>
+      <c r="A41" s="596"/>
       <c r="B41" s="18" t="s">
         <v>140</v>
       </c>
@@ -17108,7 +17112,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="602"/>
+      <c r="A42" s="596"/>
       <c r="B42" s="18" t="s">
         <v>141</v>
       </c>
@@ -17123,7 +17127,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="602"/>
+      <c r="A43" s="596"/>
       <c r="B43" s="18" t="s">
         <v>142</v>
       </c>
@@ -17138,7 +17142,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="602"/>
+      <c r="A44" s="596"/>
       <c r="B44" s="18" t="s">
         <v>143</v>
       </c>
@@ -17153,7 +17157,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="602"/>
+      <c r="A45" s="596"/>
       <c r="B45" s="18" t="s">
         <v>130</v>
       </c>
@@ -17168,7 +17172,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="602"/>
+      <c r="A46" s="596"/>
       <c r="B46" s="18" t="s">
         <v>130</v>
       </c>
@@ -17183,7 +17187,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="602"/>
+      <c r="A47" s="596"/>
       <c r="B47" s="18" t="s">
         <v>130</v>
       </c>
@@ -17198,7 +17202,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="602"/>
+      <c r="A48" s="596"/>
       <c r="B48" s="18" t="s">
         <v>130</v>
       </c>
@@ -17213,7 +17217,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="602"/>
+      <c r="A49" s="596"/>
       <c r="B49" s="18" t="s">
         <v>130</v>
       </c>
@@ -17228,7 +17232,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="602"/>
+      <c r="A50" s="596"/>
       <c r="B50" s="18" t="s">
         <v>130</v>
       </c>
@@ -17243,7 +17247,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="602"/>
+      <c r="A51" s="596"/>
       <c r="B51" s="18" t="s">
         <v>130</v>
       </c>
@@ -17258,7 +17262,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="602"/>
+      <c r="A52" s="596"/>
       <c r="B52" s="18" t="s">
         <v>130</v>
       </c>
@@ -17273,7 +17277,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="602"/>
+      <c r="A53" s="596"/>
       <c r="B53" s="18" t="s">
         <v>130</v>
       </c>
@@ -17288,7 +17292,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="602"/>
+      <c r="A54" s="596"/>
       <c r="B54" s="18" t="s">
         <v>169</v>
       </c>
@@ -17303,7 +17307,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="602"/>
+      <c r="A55" s="596"/>
       <c r="B55" s="18" t="s">
         <v>169</v>
       </c>
@@ -17318,7 +17322,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="602"/>
+      <c r="A56" s="596"/>
       <c r="B56" s="18" t="s">
         <v>169</v>
       </c>
@@ -17333,7 +17337,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="602"/>
+      <c r="A57" s="596"/>
       <c r="B57" s="18" t="s">
         <v>169</v>
       </c>
@@ -17348,7 +17352,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="602"/>
+      <c r="A58" s="596"/>
       <c r="B58" s="18" t="s">
         <v>169</v>
       </c>
@@ -17363,7 +17367,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="602"/>
+      <c r="A59" s="596"/>
       <c r="B59" s="18" t="s">
         <v>169</v>
       </c>
@@ -17378,7 +17382,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="602"/>
+      <c r="A60" s="596"/>
       <c r="B60" s="18" t="s">
         <v>169</v>
       </c>
@@ -17393,7 +17397,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="602"/>
+      <c r="A61" s="596"/>
       <c r="B61" s="18" t="s">
         <v>169</v>
       </c>
@@ -17408,7 +17412,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="602"/>
+      <c r="A62" s="596"/>
       <c r="B62" s="18" t="s">
         <v>169</v>
       </c>
@@ -17423,7 +17427,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="602"/>
+      <c r="A63" s="596"/>
       <c r="B63" s="18" t="s">
         <v>169</v>
       </c>
@@ -17438,7 +17442,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="602"/>
+      <c r="A64" s="596"/>
       <c r="B64" s="18" t="s">
         <v>169</v>
       </c>
@@ -17453,7 +17457,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="602"/>
+      <c r="A65" s="596"/>
       <c r="B65" s="18" t="s">
         <v>169</v>
       </c>
@@ -17468,7 +17472,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="602"/>
+      <c r="A66" s="596"/>
       <c r="B66" s="18" t="s">
         <v>131</v>
       </c>
@@ -17483,7 +17487,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="602"/>
+      <c r="A67" s="596"/>
       <c r="B67" s="18" t="s">
         <v>131</v>
       </c>
@@ -17498,7 +17502,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="602"/>
+      <c r="A68" s="596"/>
       <c r="B68" s="18" t="s">
         <v>131</v>
       </c>
@@ -17513,7 +17517,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="602"/>
+      <c r="A69" s="596"/>
       <c r="B69" s="18" t="s">
         <v>131</v>
       </c>
@@ -17528,7 +17532,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="602"/>
+      <c r="A70" s="596"/>
       <c r="B70" s="18" t="s">
         <v>131</v>
       </c>
@@ -17543,7 +17547,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="602"/>
+      <c r="A71" s="596"/>
       <c r="B71" s="18" t="s">
         <v>131</v>
       </c>
@@ -17558,7 +17562,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="602"/>
+      <c r="A72" s="596"/>
       <c r="B72" s="18" t="s">
         <v>142</v>
       </c>
@@ -17573,7 +17577,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="602"/>
+      <c r="A73" s="596"/>
       <c r="B73" s="18" t="s">
         <v>142</v>
       </c>
@@ -17588,7 +17592,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="602"/>
+      <c r="A74" s="596"/>
       <c r="B74" s="18" t="s">
         <v>142</v>
       </c>
@@ -17603,7 +17607,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="602"/>
+      <c r="A75" s="596"/>
       <c r="B75" s="6" t="s">
         <v>171</v>
       </c>
@@ -17618,7 +17622,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="602"/>
+      <c r="A76" s="596"/>
       <c r="B76" s="18" t="s">
         <v>171</v>
       </c>
@@ -17633,7 +17637,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="602"/>
+      <c r="A77" s="596"/>
       <c r="B77" s="18" t="s">
         <v>171</v>
       </c>
@@ -17648,7 +17652,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="602"/>
+      <c r="A78" s="596"/>
       <c r="B78" s="18" t="s">
         <v>171</v>
       </c>
@@ -17663,7 +17667,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="602"/>
+      <c r="A79" s="596"/>
       <c r="B79" s="18" t="s">
         <v>171</v>
       </c>
@@ -17678,7 +17682,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="603"/>
+      <c r="A80" s="597"/>
       <c r="B80" s="18" t="s">
         <v>171</v>
       </c>
@@ -17693,7 +17697,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="493" t="s">
+      <c r="A81" s="519" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="18" t="s">
@@ -17710,7 +17714,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="494"/>
+      <c r="A82" s="520"/>
       <c r="B82" s="18" t="s">
         <v>146</v>
       </c>
@@ -17725,7 +17729,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="493" t="s">
+      <c r="A83" s="519" t="s">
         <v>0</v>
       </c>
       <c r="B83" s="18" t="s">
@@ -17742,7 +17746,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="605"/>
+      <c r="A84" s="599"/>
       <c r="B84" s="18" t="s">
         <v>0</v>
       </c>
@@ -17757,7 +17761,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="605"/>
+      <c r="A85" s="599"/>
       <c r="B85" s="6" t="s">
         <v>0</v>
       </c>
@@ -17772,7 +17776,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="494"/>
+      <c r="A86" s="520"/>
       <c r="B86" s="54" t="s">
         <v>0</v>
       </c>
@@ -17787,7 +17791,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="601" t="s">
+      <c r="A87" s="595" t="s">
         <v>148</v>
       </c>
       <c r="B87" s="18" t="s">
@@ -17804,7 +17808,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="602"/>
+      <c r="A88" s="596"/>
       <c r="B88" s="600" t="s">
         <v>150</v>
       </c>
@@ -17819,14 +17823,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="602"/>
+      <c r="A89" s="596"/>
       <c r="B89" s="600"/>
       <c r="C89" s="600"/>
       <c r="D89" s="600"/>
       <c r="E89" s="600"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="602"/>
+      <c r="A90" s="596"/>
       <c r="B90" s="600" t="s">
         <v>151</v>
       </c>
@@ -17841,14 +17845,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="602"/>
+      <c r="A91" s="596"/>
       <c r="B91" s="600"/>
       <c r="C91" s="600"/>
       <c r="D91" s="600"/>
       <c r="E91" s="600"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="602"/>
+      <c r="A92" s="596"/>
       <c r="B92" s="600" t="s">
         <v>152</v>
       </c>
@@ -17863,14 +17867,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="602"/>
+      <c r="A93" s="596"/>
       <c r="B93" s="600"/>
       <c r="C93" s="600"/>
       <c r="D93" s="600"/>
       <c r="E93" s="600"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="602"/>
+      <c r="A94" s="596"/>
       <c r="B94" s="600" t="s">
         <v>152</v>
       </c>
@@ -17885,14 +17889,14 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="602"/>
+      <c r="A95" s="596"/>
       <c r="B95" s="600"/>
       <c r="C95" s="600"/>
       <c r="D95" s="600"/>
       <c r="E95" s="600"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="602"/>
+      <c r="A96" s="596"/>
       <c r="B96" s="18" t="s">
         <v>153</v>
       </c>
@@ -17907,7 +17911,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="602"/>
+      <c r="A97" s="596"/>
       <c r="B97" s="600" t="s">
         <v>151</v>
       </c>
@@ -17922,14 +17926,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="602"/>
+      <c r="A98" s="596"/>
       <c r="B98" s="600"/>
       <c r="C98" s="600"/>
       <c r="D98" s="600"/>
       <c r="E98" s="600"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="602"/>
+      <c r="A99" s="596"/>
       <c r="B99" s="600" t="s">
         <v>150</v>
       </c>
@@ -17944,14 +17948,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="602"/>
+      <c r="A100" s="596"/>
       <c r="B100" s="600"/>
       <c r="C100" s="600"/>
       <c r="D100" s="600"/>
       <c r="E100" s="600"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="602"/>
+      <c r="A101" s="596"/>
       <c r="B101" s="18" t="s">
         <v>149</v>
       </c>
@@ -17966,7 +17970,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="602"/>
+      <c r="A102" s="596"/>
       <c r="B102" s="18" t="s">
         <v>149</v>
       </c>
@@ -17981,7 +17985,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="602"/>
+      <c r="A103" s="596"/>
       <c r="B103" s="18" t="s">
         <v>149</v>
       </c>
@@ -17996,7 +18000,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="602"/>
+      <c r="A104" s="596"/>
       <c r="B104" s="18" t="s">
         <v>149</v>
       </c>
@@ -18011,7 +18015,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="602"/>
+      <c r="A105" s="596"/>
       <c r="B105" s="18" t="s">
         <v>149</v>
       </c>
@@ -18026,7 +18030,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="602"/>
+      <c r="A106" s="596"/>
       <c r="B106" s="18" t="s">
         <v>149</v>
       </c>
@@ -18041,7 +18045,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="602"/>
+      <c r="A107" s="596"/>
       <c r="B107" s="54" t="s">
         <v>217</v>
       </c>
@@ -18056,7 +18060,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="602"/>
+      <c r="A108" s="596"/>
       <c r="B108" s="54" t="s">
         <v>217</v>
       </c>
@@ -18071,7 +18075,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="604" t="s">
+      <c r="A109" s="598" t="s">
         <v>148</v>
       </c>
       <c r="B109" s="18" t="s">
@@ -18088,7 +18092,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="604"/>
+      <c r="A110" s="598"/>
       <c r="B110" s="18" t="s">
         <v>165</v>
       </c>
@@ -18103,7 +18107,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="604"/>
+      <c r="A111" s="598"/>
       <c r="B111" s="18" t="s">
         <v>165</v>
       </c>
@@ -18118,7 +18122,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="604"/>
+      <c r="A112" s="598"/>
       <c r="B112" s="18" t="s">
         <v>166</v>
       </c>
@@ -18133,7 +18137,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="604"/>
+      <c r="A113" s="598"/>
       <c r="B113" s="18" t="s">
         <v>167</v>
       </c>
@@ -18148,7 +18152,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="604"/>
+      <c r="A114" s="598"/>
       <c r="B114" s="18" t="s">
         <v>166</v>
       </c>
@@ -18163,7 +18167,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="604"/>
+      <c r="A115" s="598"/>
       <c r="B115" s="18" t="s">
         <v>168</v>
       </c>
@@ -18178,7 +18182,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="601" t="s">
+      <c r="A116" s="595" t="s">
         <v>178</v>
       </c>
       <c r="B116" s="18" t="s">
@@ -18195,7 +18199,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="602"/>
+      <c r="A117" s="596"/>
       <c r="B117" s="18" t="s">
         <v>154</v>
       </c>
@@ -18210,7 +18214,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="602"/>
+      <c r="A118" s="596"/>
       <c r="B118" s="18" t="s">
         <v>154</v>
       </c>
@@ -18225,7 +18229,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="602"/>
+      <c r="A119" s="596"/>
       <c r="B119" s="18" t="s">
         <v>156</v>
       </c>
@@ -18240,7 +18244,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="602"/>
+      <c r="A120" s="596"/>
       <c r="B120" s="18" t="s">
         <v>156</v>
       </c>
@@ -18255,7 +18259,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="602"/>
+      <c r="A121" s="596"/>
       <c r="B121" s="18" t="s">
         <v>156</v>
       </c>
@@ -18270,7 +18274,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="602"/>
+      <c r="A122" s="596"/>
       <c r="B122" s="18" t="s">
         <v>149</v>
       </c>
@@ -18285,7 +18289,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="602"/>
+      <c r="A123" s="596"/>
       <c r="B123" s="18" t="s">
         <v>149</v>
       </c>
@@ -18300,7 +18304,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="602"/>
+      <c r="A124" s="596"/>
       <c r="B124" s="18" t="s">
         <v>149</v>
       </c>
@@ -18315,7 +18319,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="602"/>
+      <c r="A125" s="596"/>
       <c r="B125" s="18" t="s">
         <v>157</v>
       </c>
@@ -18330,7 +18334,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="602"/>
+      <c r="A126" s="596"/>
       <c r="B126" s="18" t="s">
         <v>158</v>
       </c>
@@ -18345,7 +18349,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="602"/>
+      <c r="A127" s="596"/>
       <c r="B127" s="18" t="s">
         <v>159</v>
       </c>
@@ -18360,7 +18364,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="602"/>
+      <c r="A128" s="596"/>
       <c r="B128" s="18" t="s">
         <v>161</v>
       </c>
@@ -18375,7 +18379,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="602"/>
+      <c r="A129" s="596"/>
       <c r="B129" s="18" t="s">
         <v>162</v>
       </c>
@@ -18390,7 +18394,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="602"/>
+      <c r="A130" s="596"/>
       <c r="B130" s="18" t="s">
         <v>159</v>
       </c>
@@ -18405,7 +18409,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="602"/>
+      <c r="A131" s="596"/>
       <c r="B131" s="18" t="s">
         <v>161</v>
       </c>
@@ -18420,7 +18424,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="603"/>
+      <c r="A132" s="597"/>
       <c r="B132" s="18" t="s">
         <v>163</v>
       </c>
@@ -18435,7 +18439,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="457" t="s">
+      <c r="A133" s="464" t="s">
         <v>2</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -18452,7 +18456,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="457"/>
+      <c r="A134" s="464"/>
       <c r="B134" s="6" t="s">
         <v>170</v>
       </c>
@@ -18467,7 +18471,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="457"/>
+      <c r="A135" s="464"/>
       <c r="B135" s="6" t="s">
         <v>170</v>
       </c>
@@ -18482,7 +18486,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="457"/>
+      <c r="A136" s="464"/>
       <c r="B136" s="52" t="s">
         <v>170</v>
       </c>
@@ -18504,6 +18508,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="E97:E98"/>
     <mergeCell ref="A23:A80"/>
     <mergeCell ref="A133:A136"/>
     <mergeCell ref="A3:A4"/>
@@ -18520,62 +18580,6 @@
     <mergeCell ref="B99:B100"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:D100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18951,18 +18955,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="429" t="s">
+      <c r="A1" s="433" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
-      <c r="H1" s="429"/>
-      <c r="I1" s="429"/>
-      <c r="J1" s="429"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -19067,15 +19071,15 @@
       <c r="J4" s="18">
         <v>26</v>
       </c>
-      <c r="L4" s="430" t="s">
+      <c r="L4" s="434" t="s">
         <v>211</v>
       </c>
-      <c r="M4" s="431"/>
-      <c r="N4" s="431"/>
-      <c r="O4" s="431"/>
-      <c r="P4" s="431"/>
-      <c r="Q4" s="431"/>
-      <c r="R4" s="432"/>
+      <c r="M4" s="435"/>
+      <c r="N4" s="435"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="435"/>
+      <c r="Q4" s="435"/>
+      <c r="R4" s="436"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -19112,15 +19116,15 @@
       <c r="J5" s="18">
         <v>11</v>
       </c>
-      <c r="L5" s="433" t="s">
+      <c r="L5" s="437" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="434"/>
-      <c r="N5" s="434"/>
-      <c r="O5" s="434"/>
-      <c r="P5" s="434"/>
-      <c r="Q5" s="434"/>
-      <c r="R5" s="435"/>
+      <c r="M5" s="438"/>
+      <c r="N5" s="438"/>
+      <c r="O5" s="438"/>
+      <c r="P5" s="438"/>
+      <c r="Q5" s="438"/>
+      <c r="R5" s="439"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -19157,15 +19161,15 @@
       <c r="J6" s="18">
         <v>33</v>
       </c>
-      <c r="L6" s="436" t="s">
+      <c r="L6" s="440" t="s">
         <v>297</v>
       </c>
-      <c r="M6" s="437"/>
-      <c r="N6" s="437"/>
-      <c r="O6" s="437"/>
-      <c r="P6" s="437"/>
-      <c r="Q6" s="437"/>
-      <c r="R6" s="438"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="442"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
@@ -19245,19 +19249,19 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="417" t="s">
+      <c r="A10" s="424" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="418"/>
-      <c r="C10" s="418"/>
-      <c r="D10" s="418"/>
-      <c r="E10" s="418"/>
-      <c r="F10" s="419"/>
-      <c r="H10" s="417" t="s">
+      <c r="B10" s="425"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="425"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="426"/>
+      <c r="H10" s="424" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="418"/>
-      <c r="J10" s="419"/>
+      <c r="I10" s="425"/>
+      <c r="J10" s="426"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
@@ -19311,7 +19315,7 @@
       <c r="I12" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="426">
+      <c r="J12" s="430">
         <v>1</v>
       </c>
     </row>
@@ -19338,7 +19342,7 @@
       <c r="I13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="427"/>
+      <c r="J13" s="431"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -19365,7 +19369,7 @@
       <c r="I14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="427"/>
+      <c r="J14" s="431"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
@@ -19390,7 +19394,7 @@
       <c r="I15" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="427"/>
+      <c r="J15" s="431"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
@@ -19417,7 +19421,7 @@
       <c r="I16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="427"/>
+      <c r="J16" s="431"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
@@ -19442,7 +19446,7 @@
       <c r="I17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="428"/>
+      <c r="J17" s="432"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
@@ -19539,10 +19543,10 @@
       <c r="F22" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="429" t="s">
+      <c r="A24" s="433" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="429"/>
+      <c r="B24" s="433"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
@@ -20246,11 +20250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="424" t="s">
         <v>420</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="419"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="426"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -20262,11 +20266,11 @@
       <c r="C2" s="64" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="448" t="s">
+      <c r="E2" s="452" t="s">
         <v>454</v>
       </c>
-      <c r="F2" s="449"/>
-      <c r="G2" s="450"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="454"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="87">
@@ -20278,11 +20282,11 @@
       <c r="C3" s="87">
         <v>0.49</v>
       </c>
-      <c r="E3" s="451" t="s">
+      <c r="E3" s="455" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="452"/>
-      <c r="G3" s="453"/>
+      <c r="F3" s="456"/>
+      <c r="G3" s="457"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
@@ -20318,22 +20322,22 @@
       <c r="C6" s="136"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="444" t="s">
+      <c r="A8" s="448" t="s">
         <v>450</v>
       </c>
-      <c r="B8" s="445"/>
-      <c r="C8" s="446"/>
-      <c r="E8" s="425" t="s">
+      <c r="B8" s="449"/>
+      <c r="C8" s="450"/>
+      <c r="E8" s="420" t="s">
         <v>451</v>
       </c>
-      <c r="F8" s="425"/>
-      <c r="G8" s="425"/>
+      <c r="F8" s="420"/>
+      <c r="G8" s="420"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="442" t="s">
+      <c r="A9" s="446" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="443"/>
+      <c r="B9" s="447"/>
       <c r="C9" s="118"/>
       <c r="E9" s="119" t="s">
         <v>251</v>
@@ -20353,11 +20357,11 @@
         <v>0.01</v>
       </c>
       <c r="C10" s="118"/>
-      <c r="E10" s="447" t="s">
+      <c r="E10" s="451" t="s">
         <v>341</v>
       </c>
-      <c r="F10" s="447"/>
-      <c r="G10" s="447"/>
+      <c r="F10" s="451"/>
+      <c r="G10" s="451"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
@@ -20414,10 +20418,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="440" t="s">
+      <c r="A14" s="444" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="441"/>
+      <c r="B14" s="445"/>
       <c r="C14" s="118" t="s">
         <v>316</v>
       </c>
@@ -20459,11 +20463,11 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C16" s="118"/>
-      <c r="E16" s="447" t="s">
+      <c r="E16" s="451" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="447"/>
-      <c r="G16" s="447"/>
+      <c r="F16" s="451"/>
+      <c r="G16" s="451"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
@@ -20522,16 +20526,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="447" t="s">
+      <c r="A20" s="451" t="s">
         <v>314</v>
       </c>
-      <c r="B20" s="447"/>
+      <c r="B20" s="451"/>
       <c r="C20" s="118"/>
-      <c r="E20" s="444" t="s">
+      <c r="E20" s="448" t="s">
         <v>428</v>
       </c>
-      <c r="F20" s="445"/>
-      <c r="G20" s="446"/>
+      <c r="F20" s="449"/>
+      <c r="G20" s="450"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="122" t="s">
@@ -20591,14 +20595,14 @@
       <c r="C24" s="131"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="439" t="s">
+      <c r="A25" s="443" t="s">
         <v>452</v>
       </c>
-      <c r="B25" s="439"/>
-      <c r="C25" s="439"/>
-      <c r="D25" s="439"/>
-      <c r="E25" s="439"/>
-      <c r="F25" s="439"/>
+      <c r="B25" s="443"/>
+      <c r="C25" s="443"/>
+      <c r="D25" s="443"/>
+      <c r="E25" s="443"/>
+      <c r="F25" s="443"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
@@ -20627,7 +20631,7 @@
       <c r="B27" s="122">
         <v>8.2100000000000009</v>
       </c>
-      <c r="C27" s="454" t="s">
+      <c r="C27" s="458" t="s">
         <v>443</v>
       </c>
       <c r="D27" s="122">
@@ -20637,7 +20641,7 @@
         <f>B27/D27</f>
         <v>0.48839976204640106</v>
       </c>
-      <c r="F27" s="454" t="s">
+      <c r="F27" s="458" t="s">
         <v>444</v>
       </c>
     </row>
@@ -20648,7 +20652,7 @@
       <c r="B28" s="122">
         <v>8.67</v>
       </c>
-      <c r="C28" s="455"/>
+      <c r="C28" s="459"/>
       <c r="D28" s="122">
         <v>17.84</v>
       </c>
@@ -20656,7 +20660,7 @@
         <f t="shared" ref="E28:E29" si="0">B28/D28</f>
         <v>0.48598654708520178</v>
       </c>
-      <c r="F28" s="455"/>
+      <c r="F28" s="459"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="122" t="s">
@@ -20665,7 +20669,7 @@
       <c r="B29" s="122">
         <v>8.61</v>
       </c>
-      <c r="C29" s="455"/>
+      <c r="C29" s="459"/>
       <c r="D29" s="122">
         <v>17.600000000000001</v>
       </c>
@@ -20673,19 +20677,19 @@
         <f t="shared" si="0"/>
         <v>0.48920454545454539</v>
       </c>
-      <c r="F29" s="455"/>
+      <c r="F29" s="459"/>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="121" t="s">
         <v>440</v>
       </c>
       <c r="B30" s="122"/>
-      <c r="C30" s="456"/>
+      <c r="C30" s="460"/>
       <c r="D30" s="122"/>
       <c r="E30" s="82">
         <v>0.49</v>
       </c>
-      <c r="F30" s="456"/>
+      <c r="F30" s="460"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="132"/>
@@ -20693,10 +20697,10 @@
       <c r="C31" s="132"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="439" t="s">
+      <c r="A32" s="443" t="s">
         <v>453</v>
       </c>
-      <c r="B32" s="439"/>
+      <c r="B32" s="443"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="110" t="s">
@@ -20770,11 +20774,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="424" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="419"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="426"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
@@ -20807,15 +20811,15 @@
       <c r="C4" s="136"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="429" t="s">
+      <c r="A6" s="433" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="429"/>
-      <c r="C6" s="429"/>
-      <c r="D6" s="429"/>
-      <c r="E6" s="429"/>
-      <c r="F6" s="429"/>
-      <c r="G6" s="429"/>
+      <c r="B6" s="433"/>
+      <c r="C6" s="433"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="433"/>
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
     </row>
@@ -20846,7 +20850,7 @@
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="461" t="s">
+      <c r="A8" s="463" t="s">
         <v>229</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -20873,7 +20877,7 @@
       <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="461"/>
+      <c r="A9" s="463"/>
       <c r="B9" s="6" t="s">
         <v>244</v>
       </c>
@@ -20898,7 +20902,7 @@
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="461"/>
+      <c r="A10" s="463"/>
       <c r="B10" s="6" t="s">
         <v>245</v>
       </c>
@@ -20923,7 +20927,7 @@
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="461" t="s">
+      <c r="A11" s="463" t="s">
         <v>232</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -20950,7 +20954,7 @@
       <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="461"/>
+      <c r="A12" s="463"/>
       <c r="B12" s="6" t="s">
         <v>235</v>
       </c>
@@ -20987,11 +20991,11 @@
       <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="425" t="s">
+      <c r="A14" s="420" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="425"/>
-      <c r="C14" s="425"/>
+      <c r="B14" s="420"/>
+      <c r="C14" s="420"/>
       <c r="D14" s="1"/>
       <c r="E14" s="75"/>
       <c r="F14" s="76"/>
@@ -21050,14 +21054,14 @@
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="425" t="s">
+      <c r="A18" s="420" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="425"/>
-      <c r="C18" s="425"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="425"/>
+      <c r="B18" s="420"/>
+      <c r="C18" s="420"/>
+      <c r="D18" s="420"/>
+      <c r="E18" s="420"/>
+      <c r="F18" s="420"/>
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -21088,7 +21092,7 @@
       <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="460" t="s">
+      <c r="A20" s="462" t="s">
         <v>255</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -21113,7 +21117,7 @@
       <c r="J20" s="76"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="460"/>
+      <c r="A21" s="462"/>
       <c r="B21" s="6" t="s">
         <v>284</v>
       </c>
@@ -21136,7 +21140,7 @@
       <c r="J21" s="76"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="460"/>
+      <c r="A22" s="462"/>
       <c r="B22" s="6" t="s">
         <v>285</v>
       </c>
@@ -21159,7 +21163,7 @@
       <c r="J22" s="76"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="460" t="s">
+      <c r="A23" s="462" t="s">
         <v>256</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -21184,7 +21188,7 @@
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="460"/>
+      <c r="A24" s="462"/>
       <c r="B24" s="6" t="s">
         <v>284</v>
       </c>
@@ -21207,7 +21211,7 @@
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="460"/>
+      <c r="A25" s="462"/>
       <c r="B25" s="6" t="s">
         <v>285</v>
       </c>
@@ -21230,7 +21234,7 @@
       <c r="J25" s="76"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="460" t="s">
+      <c r="A26" s="462" t="s">
         <v>164</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -21255,7 +21259,7 @@
       <c r="J26" s="76"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="460"/>
+      <c r="A27" s="462"/>
       <c r="B27" s="6" t="s">
         <v>284</v>
       </c>
@@ -21278,7 +21282,7 @@
       <c r="J27" s="76"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="460"/>
+      <c r="A28" s="462"/>
       <c r="B28" s="6" t="s">
         <v>285</v>
       </c>
@@ -21313,38 +21317,38 @@
       <c r="J29" s="76"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="417" t="s">
+      <c r="A30" s="424" t="s">
         <v>252</v>
       </c>
-      <c r="B30" s="418"/>
-      <c r="C30" s="418"/>
-      <c r="D30" s="418"/>
-      <c r="E30" s="418"/>
-      <c r="F30" s="418"/>
-      <c r="G30" s="418"/>
-      <c r="H30" s="418"/>
-      <c r="I30" s="418"/>
-      <c r="J30" s="419"/>
+      <c r="B30" s="425"/>
+      <c r="C30" s="425"/>
+      <c r="D30" s="425"/>
+      <c r="E30" s="425"/>
+      <c r="F30" s="425"/>
+      <c r="G30" s="425"/>
+      <c r="H30" s="425"/>
+      <c r="I30" s="425"/>
+      <c r="J30" s="426"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B31" s="461" t="s">
+      <c r="B31" s="463" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="461"/>
-      <c r="D31" s="461"/>
-      <c r="E31" s="461" t="s">
+      <c r="C31" s="463"/>
+      <c r="D31" s="463"/>
+      <c r="E31" s="463" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="461"/>
-      <c r="G31" s="461"/>
-      <c r="H31" s="461" t="s">
+      <c r="F31" s="463"/>
+      <c r="G31" s="463"/>
+      <c r="H31" s="463" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="461"/>
-      <c r="J31" s="461"/>
+      <c r="I31" s="463"/>
+      <c r="J31" s="463"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
@@ -21379,18 +21383,18 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="447" t="s">
+      <c r="A33" s="451" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="447"/>
-      <c r="C33" s="447"/>
-      <c r="D33" s="447"/>
-      <c r="E33" s="447"/>
-      <c r="F33" s="447"/>
-      <c r="G33" s="447"/>
-      <c r="H33" s="447"/>
-      <c r="I33" s="447"/>
-      <c r="J33" s="447"/>
+      <c r="B33" s="451"/>
+      <c r="C33" s="451"/>
+      <c r="D33" s="451"/>
+      <c r="E33" s="451"/>
+      <c r="F33" s="451"/>
+      <c r="G33" s="451"/>
+      <c r="H33" s="451"/>
+      <c r="I33" s="451"/>
+      <c r="J33" s="451"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
@@ -21521,18 +21525,18 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="440" t="s">
+      <c r="A38" s="444" t="s">
         <v>291</v>
       </c>
-      <c r="B38" s="458"/>
-      <c r="C38" s="458"/>
-      <c r="D38" s="458"/>
-      <c r="E38" s="458"/>
-      <c r="F38" s="458"/>
-      <c r="G38" s="458"/>
-      <c r="H38" s="458"/>
-      <c r="I38" s="458"/>
-      <c r="J38" s="441"/>
+      <c r="B38" s="465"/>
+      <c r="C38" s="465"/>
+      <c r="D38" s="465"/>
+      <c r="E38" s="465"/>
+      <c r="F38" s="465"/>
+      <c r="G38" s="465"/>
+      <c r="H38" s="465"/>
+      <c r="I38" s="465"/>
+      <c r="J38" s="445"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
@@ -21658,18 +21662,18 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="447" t="s">
+      <c r="A42" s="451" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="447"/>
-      <c r="C42" s="447"/>
-      <c r="D42" s="447"/>
-      <c r="E42" s="447"/>
-      <c r="F42" s="447"/>
-      <c r="G42" s="447"/>
-      <c r="H42" s="447"/>
-      <c r="I42" s="447"/>
-      <c r="J42" s="447"/>
+      <c r="B42" s="451"/>
+      <c r="C42" s="451"/>
+      <c r="D42" s="451"/>
+      <c r="E42" s="451"/>
+      <c r="F42" s="451"/>
+      <c r="G42" s="451"/>
+      <c r="H42" s="451"/>
+      <c r="I42" s="451"/>
+      <c r="J42" s="451"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
@@ -21702,10 +21706,10 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-      <c r="K43" s="457" t="s">
+      <c r="K43" s="464" t="s">
         <v>276</v>
       </c>
-      <c r="L43" s="457"/>
+      <c r="L43" s="464"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
@@ -21936,18 +21940,18 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="459" t="s">
+      <c r="A50" s="461" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="459"/>
-      <c r="C50" s="459"/>
-      <c r="D50" s="459"/>
-      <c r="E50" s="459"/>
-      <c r="F50" s="459"/>
-      <c r="G50" s="459"/>
-      <c r="H50" s="459"/>
-      <c r="I50" s="459"/>
-      <c r="J50" s="459"/>
+      <c r="B50" s="461"/>
+      <c r="C50" s="461"/>
+      <c r="D50" s="461"/>
+      <c r="E50" s="461"/>
+      <c r="F50" s="461"/>
+      <c r="G50" s="461"/>
+      <c r="H50" s="461"/>
+      <c r="I50" s="461"/>
+      <c r="J50" s="461"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
@@ -22237,18 +22241,18 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="459" t="s">
+      <c r="A58" s="461" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="459"/>
-      <c r="C58" s="459"/>
-      <c r="D58" s="459"/>
-      <c r="E58" s="459"/>
-      <c r="F58" s="459"/>
-      <c r="G58" s="459"/>
-      <c r="H58" s="459"/>
-      <c r="I58" s="459"/>
-      <c r="J58" s="459"/>
+      <c r="B58" s="461"/>
+      <c r="C58" s="461"/>
+      <c r="D58" s="461"/>
+      <c r="E58" s="461"/>
+      <c r="F58" s="461"/>
+      <c r="G58" s="461"/>
+      <c r="H58" s="461"/>
+      <c r="I58" s="461"/>
+      <c r="J58" s="461"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="59" t="s">
@@ -22334,6 +22338,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A58:J58"/>
     <mergeCell ref="A50:J50"/>
     <mergeCell ref="A6:G6"/>
@@ -22348,11 +22357,6 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A42:J42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -22393,21 +22397,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="417" t="s">
+      <c r="A1" s="424" t="s">
         <v>422</v>
       </c>
-      <c r="B1" s="418"/>
-      <c r="C1" s="419"/>
-      <c r="E1" s="417" t="s">
+      <c r="B1" s="425"/>
+      <c r="C1" s="426"/>
+      <c r="E1" s="424" t="s">
         <v>423</v>
       </c>
-      <c r="F1" s="418"/>
-      <c r="G1" s="419"/>
-      <c r="I1" s="417" t="s">
+      <c r="F1" s="425"/>
+      <c r="G1" s="426"/>
+      <c r="I1" s="424" t="s">
         <v>424</v>
       </c>
-      <c r="J1" s="418"/>
-      <c r="K1" s="419"/>
+      <c r="J1" s="425"/>
+      <c r="K1" s="426"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -22469,38 +22473,38 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="448" t="s">
+      <c r="A5" s="452" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="449"/>
-      <c r="C5" s="450"/>
-      <c r="E5" s="448" t="s">
+      <c r="B5" s="453"/>
+      <c r="C5" s="454"/>
+      <c r="E5" s="452" t="s">
         <v>419</v>
       </c>
-      <c r="F5" s="449"/>
-      <c r="G5" s="450"/>
-      <c r="I5" s="448" t="s">
+      <c r="F5" s="453"/>
+      <c r="G5" s="454"/>
+      <c r="I5" s="452" t="s">
         <v>419</v>
       </c>
-      <c r="J5" s="449"/>
-      <c r="K5" s="450"/>
+      <c r="J5" s="453"/>
+      <c r="K5" s="454"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="451" t="s">
+      <c r="A6" s="455" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="452"/>
-      <c r="C6" s="453"/>
-      <c r="E6" s="451" t="s">
+      <c r="B6" s="456"/>
+      <c r="C6" s="457"/>
+      <c r="E6" s="455" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="452"/>
-      <c r="G6" s="453"/>
-      <c r="I6" s="451" t="s">
+      <c r="F6" s="456"/>
+      <c r="G6" s="457"/>
+      <c r="I6" s="455" t="s">
         <v>358</v>
       </c>
-      <c r="J6" s="452"/>
-      <c r="K6" s="453"/>
+      <c r="J6" s="456"/>
+      <c r="K6" s="457"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
@@ -22514,26 +22518,26 @@
       <c r="K7" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="462" t="s">
+      <c r="A9" s="470" t="s">
         <v>347</v>
       </c>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
-      <c r="F9" s="462"/>
+      <c r="B9" s="470"/>
+      <c r="C9" s="470"/>
+      <c r="D9" s="470"/>
+      <c r="E9" s="470"/>
+      <c r="F9" s="470"/>
       <c r="G9" s="104"/>
-      <c r="H9" s="462" t="s">
+      <c r="H9" s="470" t="s">
         <v>356</v>
       </c>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="462"/>
-      <c r="L9" s="462"/>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="462"/>
-      <c r="P9" s="462"/>
+      <c r="I9" s="470"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="470"/>
+      <c r="L9" s="470"/>
+      <c r="M9" s="470"/>
+      <c r="N9" s="470"/>
+      <c r="O9" s="470"/>
+      <c r="P9" s="470"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
@@ -22549,23 +22553,23 @@
       <c r="K10" s="73"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="425" t="s">
+      <c r="A11" s="420" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="425"/>
-      <c r="C11" s="425"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="425"/>
-      <c r="F11" s="425"/>
+      <c r="B11" s="420"/>
+      <c r="C11" s="420"/>
+      <c r="D11" s="420"/>
+      <c r="E11" s="420"/>
+      <c r="F11" s="420"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="425" t="s">
+      <c r="H11" s="420" t="s">
         <v>349</v>
       </c>
-      <c r="I11" s="425"/>
-      <c r="J11" s="425"/>
-      <c r="K11" s="425"/>
-      <c r="L11" s="425"/>
-      <c r="M11" s="425"/>
+      <c r="I11" s="420"/>
+      <c r="J11" s="420"/>
+      <c r="K11" s="420"/>
+      <c r="L11" s="420"/>
+      <c r="M11" s="420"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
@@ -22586,20 +22590,20 @@
       <c r="F12" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="H12" s="464" t="s">
+      <c r="H12" s="479" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="447" t="s">
+      <c r="I12" s="451" t="s">
         <v>350</v>
       </c>
-      <c r="J12" s="447"/>
-      <c r="K12" s="463" t="s">
+      <c r="J12" s="451"/>
+      <c r="K12" s="466" t="s">
         <v>316</v>
       </c>
-      <c r="L12" s="447" t="s">
+      <c r="L12" s="451" t="s">
         <v>357</v>
       </c>
-      <c r="M12" s="447"/>
+      <c r="M12" s="451"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
@@ -22620,14 +22624,14 @@
       <c r="F13" s="97">
         <v>0.4</v>
       </c>
-      <c r="H13" s="465"/>
+      <c r="H13" s="480"/>
       <c r="I13" s="44" t="s">
         <v>354</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="463"/>
+      <c r="K13" s="466"/>
       <c r="L13" s="44" t="s">
         <v>354</v>
       </c>
@@ -22654,14 +22658,14 @@
       <c r="F14" s="97">
         <v>1998</v>
       </c>
-      <c r="H14" s="440" t="s">
+      <c r="H14" s="444" t="s">
         <v>352</v>
       </c>
-      <c r="I14" s="458"/>
-      <c r="J14" s="458"/>
-      <c r="K14" s="458"/>
-      <c r="L14" s="458"/>
-      <c r="M14" s="441"/>
+      <c r="I14" s="465"/>
+      <c r="J14" s="465"/>
+      <c r="K14" s="465"/>
+      <c r="L14" s="465"/>
+      <c r="M14" s="445"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
@@ -22761,14 +22765,14 @@
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
       <c r="F17" s="97"/>
-      <c r="H17" s="440" t="s">
+      <c r="H17" s="444" t="s">
         <v>353</v>
       </c>
-      <c r="I17" s="458"/>
-      <c r="J17" s="458"/>
-      <c r="K17" s="458"/>
-      <c r="L17" s="458"/>
-      <c r="M17" s="441"/>
+      <c r="I17" s="465"/>
+      <c r="J17" s="465"/>
+      <c r="K17" s="465"/>
+      <c r="L17" s="465"/>
+      <c r="M17" s="445"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -22941,12 +22945,12 @@
       <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="425" t="s">
+      <c r="A22" s="420" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="425"/>
-      <c r="C22" s="425"/>
-      <c r="D22" s="425"/>
+      <c r="B22" s="420"/>
+      <c r="C22" s="420"/>
+      <c r="D22" s="420"/>
       <c r="E22" s="92"/>
       <c r="H22" s="6" t="s">
         <v>363</v>
@@ -22975,12 +22979,12 @@
       <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="472" t="s">
+      <c r="A23" s="474" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="472"/>
-      <c r="C23" s="472"/>
-      <c r="D23" s="472"/>
+      <c r="B23" s="474"/>
+      <c r="C23" s="474"/>
+      <c r="D23" s="474"/>
       <c r="E23" s="90"/>
       <c r="H23" s="6" t="s">
         <v>364</v>
@@ -23064,14 +23068,14 @@
         <v>47.650293191999999</v>
       </c>
       <c r="E25" s="92"/>
-      <c r="H25" s="440" t="s">
+      <c r="H25" s="444" t="s">
         <v>314</v>
       </c>
-      <c r="I25" s="458"/>
-      <c r="J25" s="458"/>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
-      <c r="M25" s="441"/>
+      <c r="I25" s="465"/>
+      <c r="J25" s="465"/>
+      <c r="K25" s="465"/>
+      <c r="L25" s="465"/>
+      <c r="M25" s="445"/>
       <c r="N25" s="13"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -23182,16 +23186,16 @@
       <c r="E29" s="92"/>
       <c r="F29" s="92"/>
       <c r="G29" s="92"/>
-      <c r="H29" s="439" t="s">
+      <c r="H29" s="443" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="439"/>
-      <c r="J29" s="439"/>
+      <c r="I29" s="443"/>
+      <c r="J29" s="443"/>
       <c r="K29" s="114"/>
-      <c r="L29" s="439" t="s">
+      <c r="L29" s="443" t="s">
         <v>368</v>
       </c>
-      <c r="M29" s="439"/>
+      <c r="M29" s="443"/>
       <c r="N29" s="114"/>
     </row>
     <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -23287,16 +23291,16 @@
       <c r="E33" s="92"/>
       <c r="F33" s="92"/>
       <c r="G33" s="92"/>
-      <c r="H33" s="425" t="s">
+      <c r="H33" s="420" t="s">
         <v>369</v>
       </c>
-      <c r="I33" s="425"/>
-      <c r="J33" s="425"/>
-      <c r="K33" s="425"/>
-      <c r="L33" s="425"/>
-      <c r="M33" s="425"/>
-      <c r="N33" s="425"/>
-      <c r="O33" s="425"/>
+      <c r="I33" s="420"/>
+      <c r="J33" s="420"/>
+      <c r="K33" s="420"/>
+      <c r="L33" s="420"/>
+      <c r="M33" s="420"/>
+      <c r="N33" s="420"/>
+      <c r="O33" s="420"/>
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -23312,10 +23316,10 @@
       <c r="E34" s="92"/>
       <c r="F34" s="92"/>
       <c r="G34" s="92"/>
-      <c r="H34" s="466" t="s">
+      <c r="H34" s="467" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="466"/>
+      <c r="I34" s="467"/>
       <c r="J34" s="15" t="s">
         <v>219</v>
       </c>
@@ -23346,15 +23350,15 @@
       <c r="E35" s="92"/>
       <c r="F35" s="92"/>
       <c r="G35" s="92"/>
-      <c r="H35" s="463" t="s">
+      <c r="H35" s="466" t="s">
         <v>341</v>
       </c>
-      <c r="I35" s="463"/>
-      <c r="J35" s="463"/>
-      <c r="K35" s="463"/>
-      <c r="L35" s="463"/>
-      <c r="M35" s="463"/>
-      <c r="N35" s="463"/>
+      <c r="I35" s="466"/>
+      <c r="J35" s="466"/>
+      <c r="K35" s="466"/>
+      <c r="L35" s="466"/>
+      <c r="M35" s="466"/>
+      <c r="N35" s="466"/>
       <c r="O35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -23394,12 +23398,12 @@
       <c r="O36" s="14"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="469" t="s">
+      <c r="A37" s="471" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="470"/>
-      <c r="C37" s="470"/>
-      <c r="D37" s="471"/>
+      <c r="B37" s="472"/>
+      <c r="C37" s="472"/>
+      <c r="D37" s="473"/>
       <c r="E37" s="92"/>
       <c r="F37" s="92"/>
       <c r="G37" s="92"/>
@@ -23601,15 +23605,15 @@
       <c r="E42" s="92"/>
       <c r="F42" s="92"/>
       <c r="G42" s="92"/>
-      <c r="H42" s="463" t="s">
+      <c r="H42" s="466" t="s">
         <v>380</v>
       </c>
-      <c r="I42" s="463"/>
-      <c r="J42" s="463"/>
-      <c r="K42" s="463"/>
-      <c r="L42" s="463"/>
-      <c r="M42" s="463"/>
-      <c r="N42" s="463"/>
+      <c r="I42" s="466"/>
+      <c r="J42" s="466"/>
+      <c r="K42" s="466"/>
+      <c r="L42" s="466"/>
+      <c r="M42" s="466"/>
+      <c r="N42" s="466"/>
       <c r="O42" s="70" t="s">
         <v>390</v>
       </c>
@@ -23874,31 +23878,31 @@
       <c r="E49" s="92"/>
       <c r="F49" s="92"/>
       <c r="G49" s="92"/>
-      <c r="H49" s="463" t="s">
+      <c r="H49" s="466" t="s">
         <v>314</v>
       </c>
-      <c r="I49" s="463"/>
-      <c r="J49" s="463"/>
-      <c r="K49" s="463"/>
-      <c r="L49" s="463"/>
-      <c r="M49" s="463"/>
-      <c r="N49" s="463"/>
+      <c r="I49" s="466"/>
+      <c r="J49" s="466"/>
+      <c r="K49" s="466"/>
+      <c r="L49" s="466"/>
+      <c r="M49" s="466"/>
+      <c r="N49" s="466"/>
       <c r="O49" s="14"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="472" t="s">
+      <c r="A50" s="474" t="s">
         <v>327</v>
       </c>
-      <c r="B50" s="472"/>
-      <c r="C50" s="472"/>
-      <c r="D50" s="472"/>
+      <c r="B50" s="474"/>
+      <c r="C50" s="474"/>
+      <c r="D50" s="474"/>
       <c r="E50" s="92"/>
       <c r="F50" s="92"/>
       <c r="G50" s="92"/>
-      <c r="H50" s="457" t="s">
+      <c r="H50" s="464" t="s">
         <v>358</v>
       </c>
-      <c r="I50" s="457"/>
+      <c r="I50" s="464"/>
       <c r="J50" s="86">
         <f>J44/J43</f>
         <v>8.8461827956989245E-2</v>
@@ -23925,18 +23929,18 @@
       <c r="A51" s="127" t="s">
         <v>326</v>
       </c>
-      <c r="B51" s="476">
+      <c r="B51" s="478">
         <v>0.35</v>
       </c>
-      <c r="C51" s="476"/>
-      <c r="D51" s="476"/>
+      <c r="C51" s="478"/>
+      <c r="D51" s="478"/>
       <c r="E51" s="91"/>
       <c r="F51" s="92"/>
       <c r="G51" s="92"/>
-      <c r="H51" s="457" t="s">
+      <c r="H51" s="464" t="s">
         <v>391</v>
       </c>
-      <c r="I51" s="457"/>
+      <c r="I51" s="464"/>
       <c r="J51" s="86">
         <f>J45/J43</f>
         <v>0.15480322580645159</v>
@@ -23975,10 +23979,10 @@
       <c r="E52" s="91"/>
       <c r="F52" s="92"/>
       <c r="G52" s="92"/>
-      <c r="H52" s="457" t="s">
+      <c r="H52" s="464" t="s">
         <v>315</v>
       </c>
-      <c r="I52" s="457"/>
+      <c r="I52" s="464"/>
       <c r="J52" s="86">
         <f>SUM(J46:J48)/SUM(J43:J45)</f>
         <v>0.83349773164919105</v>
@@ -24019,10 +24023,10 @@
       <c r="E53" s="92"/>
       <c r="F53" s="92"/>
       <c r="G53" s="92"/>
-      <c r="H53" s="457" t="s">
+      <c r="H53" s="464" t="s">
         <v>359</v>
       </c>
-      <c r="I53" s="457"/>
+      <c r="I53" s="464"/>
       <c r="J53" s="86">
         <f>J46/J43</f>
         <v>0.87725806451612898</v>
@@ -24079,13 +24083,13 @@
       <c r="E55" s="92"/>
       <c r="F55" s="92"/>
       <c r="G55" s="92"/>
-      <c r="H55" s="425" t="s">
+      <c r="H55" s="420" t="s">
         <v>370</v>
       </c>
-      <c r="I55" s="425"/>
-      <c r="J55" s="425"/>
-      <c r="K55" s="425"/>
-      <c r="L55" s="425"/>
+      <c r="I55" s="420"/>
+      <c r="J55" s="420"/>
+      <c r="K55" s="420"/>
+      <c r="L55" s="420"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="99" t="s">
@@ -24124,21 +24128,21 @@
       <c r="E57" s="91"/>
       <c r="F57" s="92"/>
       <c r="G57" s="92"/>
-      <c r="H57" s="447" t="s">
+      <c r="H57" s="451" t="s">
         <v>341</v>
       </c>
-      <c r="I57" s="447"/>
-      <c r="J57" s="447"/>
-      <c r="K57" s="447"/>
+      <c r="I57" s="451"/>
+      <c r="J57" s="451"/>
+      <c r="K57" s="451"/>
       <c r="L57" s="71"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="472" t="s">
+      <c r="A58" s="474" t="s">
         <v>325</v>
       </c>
-      <c r="B58" s="472"/>
-      <c r="C58" s="472"/>
-      <c r="D58" s="472"/>
+      <c r="B58" s="474"/>
+      <c r="C58" s="474"/>
+      <c r="D58" s="474"/>
       <c r="E58" s="92"/>
       <c r="F58" s="92"/>
       <c r="G58" s="92"/>
@@ -24160,11 +24164,11 @@
       <c r="A59" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="B59" s="473">
+      <c r="B59" s="475">
         <v>0.44</v>
       </c>
-      <c r="C59" s="474"/>
-      <c r="D59" s="475"/>
+      <c r="C59" s="476"/>
+      <c r="D59" s="477"/>
       <c r="E59" s="92"/>
       <c r="F59" s="92"/>
       <c r="G59" s="92"/>
@@ -24342,12 +24346,12 @@
       <c r="E65" s="94"/>
       <c r="F65" s="94"/>
       <c r="G65" s="94"/>
-      <c r="H65" s="447" t="s">
+      <c r="H65" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="I65" s="447"/>
-      <c r="J65" s="447"/>
-      <c r="K65" s="447"/>
+      <c r="I65" s="451"/>
+      <c r="J65" s="451"/>
+      <c r="K65" s="451"/>
       <c r="L65" s="71" t="s">
         <v>316</v>
       </c>
@@ -24380,13 +24384,13 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="467" t="s">
+      <c r="A67" s="468" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="468"/>
-      <c r="C67" s="468"/>
-      <c r="D67" s="468"/>
-      <c r="E67" s="468"/>
+      <c r="B67" s="469"/>
+      <c r="C67" s="469"/>
+      <c r="D67" s="469"/>
+      <c r="E67" s="469"/>
       <c r="H67" s="79" t="s">
         <v>398</v>
       </c>
@@ -24572,12 +24576,12 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H73" s="463" t="s">
+      <c r="H73" s="466" t="s">
         <v>314</v>
       </c>
-      <c r="I73" s="463"/>
-      <c r="J73" s="463"/>
-      <c r="K73" s="463"/>
+      <c r="I73" s="466"/>
+      <c r="J73" s="466"/>
+      <c r="K73" s="466"/>
       <c r="L73" s="71"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -24657,18 +24661,18 @@
       <c r="K78" s="73"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H79" s="417" t="s">
+      <c r="H79" s="424" t="s">
         <v>371</v>
       </c>
-      <c r="I79" s="418"/>
-      <c r="J79" s="419"/>
+      <c r="I79" s="425"/>
+      <c r="J79" s="426"/>
       <c r="K79" s="73"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H80" s="447" t="s">
+      <c r="H80" s="451" t="s">
         <v>341</v>
       </c>
-      <c r="I80" s="447"/>
+      <c r="I80" s="451"/>
       <c r="J80" s="17"/>
       <c r="K80" s="73"/>
     </row>
@@ -24747,10 +24751,10 @@
       <c r="J88" s="71"/>
     </row>
     <row r="89" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H89" s="447" t="s">
+      <c r="H89" s="451" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="447"/>
+      <c r="I89" s="451"/>
       <c r="J89" s="71" t="s">
         <v>316</v>
       </c>
@@ -24861,10 +24865,10 @@
       </c>
     </row>
     <row r="99" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H99" s="447" t="s">
+      <c r="H99" s="451" t="s">
         <v>314</v>
       </c>
-      <c r="I99" s="447"/>
+      <c r="I99" s="451"/>
       <c r="J99" s="71"/>
     </row>
     <row r="100" spans="8:10" x14ac:dyDescent="0.25">
@@ -24912,6 +24916,37 @@
     <sortCondition ref="D101"/>
   </sortState>
   <mergeCells count="47">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H9:P9"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H35:N35"/>
     <mergeCell ref="H99:I99"/>
     <mergeCell ref="H79:J79"/>
     <mergeCell ref="E5:G5"/>
@@ -24928,37 +24963,6 @@
     <mergeCell ref="H33:O33"/>
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="H42:N42"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H9:P9"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24969,8 +24973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC6162-E2E4-4169-BA68-9742298357E2}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView topLeftCell="G58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26532,7 +26536,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F20" s="312">
-        <v>0.50779198038872342</v>
+        <v>0.50779198038872297</v>
       </c>
       <c r="G20" s="314">
         <v>0.96</v>
@@ -28924,8 +28928,8 @@
       <c r="Y49" s="346">
         <v>276426.90888362238</v>
       </c>
-      <c r="Z49" s="346">
-        <v>276426.90888362238</v>
+      <c r="Z49" s="345">
+        <v>1064024.8168066801</v>
       </c>
       <c r="AA49" s="347">
         <v>504.10958904109594</v>
@@ -29007,8 +29011,8 @@
       <c r="Y50" s="346">
         <v>276426.90888362238</v>
       </c>
-      <c r="Z50" s="346">
-        <v>276426.90888362238</v>
+      <c r="Z50" s="345">
+        <v>1064024.8168066801</v>
       </c>
       <c r="AA50" s="347">
         <v>504.10958904109594</v>
@@ -29090,8 +29094,8 @@
       <c r="Y51" s="346">
         <v>276426.90888362238</v>
       </c>
-      <c r="Z51" s="346">
-        <v>276426.90888362238</v>
+      <c r="Z51" s="345">
+        <v>1008023.51065896</v>
       </c>
       <c r="AA51" s="347">
         <v>504.10958904109594</v>
@@ -29173,8 +29177,8 @@
       <c r="Y52" s="346">
         <v>276426.90888362238</v>
       </c>
-      <c r="Z52" s="346">
-        <v>276426.90888362238</v>
+      <c r="Z52" s="345">
+        <v>1064024.8168066801</v>
       </c>
       <c r="AA52" s="347">
         <v>504.10958904109594</v>
@@ -29256,8 +29260,8 @@
       <c r="Y53" s="346">
         <v>1180363.0780797016</v>
       </c>
-      <c r="Z53" s="346">
-        <v>1180363.0780797016</v>
+      <c r="Z53" s="345">
+        <v>3500081.6342325201</v>
       </c>
       <c r="AA53" s="347">
         <v>504.10958904109594</v>
@@ -29339,8 +29343,8 @@
       <c r="Y54" s="346">
         <v>1180363.0780797016</v>
       </c>
-      <c r="Z54" s="346">
-        <v>1180363.0780797016</v>
+      <c r="Z54" s="345">
+        <v>3528082.28730638</v>
       </c>
       <c r="AA54" s="347">
         <v>504.10958904109594</v>
@@ -29422,8 +29426,8 @@
       <c r="Y55" s="346">
         <v>1180363.0780797016</v>
       </c>
-      <c r="Z55" s="346">
-        <v>1180363.0780797016</v>
+      <c r="Z55" s="345">
+        <v>3528082.28730638</v>
       </c>
       <c r="AA55" s="347">
         <v>504.10958904109594</v>
@@ -29505,8 +29509,8 @@
       <c r="Y56" s="346" t="s">
         <v>482</v>
       </c>
-      <c r="Z56" s="346" t="s">
-        <v>482</v>
+      <c r="Z56" s="345">
+        <v>1736040.4905793299</v>
       </c>
       <c r="AA56" s="347">
         <v>504.10958904109594</v>
@@ -29588,8 +29592,8 @@
       <c r="Y57" s="346">
         <v>716288.70550135733</v>
       </c>
-      <c r="Z57" s="346">
-        <v>716288.70550135733</v>
+      <c r="Z57" s="345">
+        <v>3052071.1850507502</v>
       </c>
       <c r="AA57" s="347">
         <v>504.10958904109594</v>
@@ -29671,8 +29675,8 @@
       <c r="Y58" s="346">
         <v>716288.70550135733</v>
       </c>
-      <c r="Z58" s="346">
-        <v>716288.70550135733</v>
+      <c r="Z58" s="345">
+        <v>2324054.2051303899</v>
       </c>
       <c r="AA58" s="347">
         <v>504.10958904109594</v>
@@ -29754,8 +29758,8 @@
       <c r="Y59" s="346">
         <v>1105707.6355344895</v>
       </c>
-      <c r="Z59" s="346">
-        <v>1105707.6355344895</v>
+      <c r="Z59" s="345">
+        <v>6412149.5539139695</v>
       </c>
       <c r="AA59" s="347">
         <v>504.10958904109594</v>
@@ -29837,8 +29841,8 @@
       <c r="Y60" s="346">
         <v>1105707.6355344895</v>
       </c>
-      <c r="Z60" s="346">
-        <v>1105707.6355344895</v>
+      <c r="Z60" s="345">
+        <v>6412149.5539139695</v>
       </c>
       <c r="AA60" s="347">
         <v>504.10958904109594</v>
@@ -29920,8 +29924,8 @@
       <c r="Y61" s="346">
         <v>1901944.1499112465</v>
       </c>
-      <c r="Z61" s="346">
-        <v>1901944.1499112465</v>
+      <c r="Z61" s="345">
+        <v>5740133.88014133</v>
       </c>
       <c r="AA61" s="347">
         <v>133.69863013698631</v>

--- a/aeromaps/resources/cost_data/Biomass_Data.xlsx
+++ b/aeromaps/resources/cost_data/Biomass_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.salgas.ISAE-SUPAERO\PycharmProjects\AeroMAPS\aeromaps\resources\cost_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC2082-2AE4-497D-8F38-B3E3BD44B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD06E24-89FA-473A-810A-75A8AA07691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthesis" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,15 @@
     <sheet name="Cost Analysis-FT" sheetId="11" r:id="rId10"/>
     <sheet name="Cost Analysis-HEFA" sheetId="9" r:id="rId11"/>
     <sheet name="Cost Summary-V2" sheetId="15" r:id="rId12"/>
-    <sheet name="Feuil1" sheetId="16" r:id="rId13"/>
+    <sheet name="Cost Summary_OLD" sheetId="16" r:id="rId13"/>
     <sheet name="Cost Analysis-AtJ" sheetId="10" r:id="rId14"/>
     <sheet name="Emission factors" sheetId="4" r:id="rId15"/>
     <sheet name="References" sheetId="3" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Biomass_Cost!$A$1:$AA$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Cost Summary_OLD'!$A$1:$F$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Cost Summary-V1'!$B$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Feuil1!$A$1:$F$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7577,8 +7577,8 @@
   </sheetPr>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F37"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10078,8 +10078,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10834,7 +10834,7 @@
         <v>HEFA-Energy</v>
       </c>
       <c r="I26" s="390">
-        <f t="shared" ref="I25:I26" si="0">D26*($F$6*$B$6)/35.3</f>
+        <f t="shared" ref="I26" si="0">D26*($F$6*$B$6)/35.3</f>
         <v>1.4981078709493088E-2</v>
       </c>
       <c r="J26" s="141"/>
@@ -12203,7 +12203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407434D-5E27-49A6-8866-38EA42DF7399}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -13196,7 +13196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3A65D3-E175-49C7-9833-8199C2B6DD97}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -14439,7 +14439,7 @@
   </sheetPr>
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -24973,8 +24973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFC6162-E2E4-4169-BA68-9742298357E2}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView topLeftCell="G58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z61" sqref="Z61"/>
+    <sheetView topLeftCell="G20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31334,7 +31334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27A3ECD-44E6-42FD-BAEE-4312D5C51D83}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -31803,9 +31803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83F487-514C-4D2F-B4B9-EA93E171C48F}">
   <dimension ref="A1:M1377"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
